--- a/Data Sets/Tokenized Hotel Reviews.xlsx
+++ b/Data Sets/Tokenized Hotel Reviews.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Dhaka Regency" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Ascott The Residence Dhaka" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4503,4 +4504,2753 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A390"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Tokenized Reviews</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>['the', 'ascott', 'the', 'residences', 'dhaka', 'very', 'security', 'n', 'safety', 'area', 'at', 'baridha', 'diplomatic', 'zonewe', 'feel', 'very', 'comfortable', 'therevery', 'nice', 'and', 'well', 'decorated', 'meeting', 'venueservice', 'stuff', 'are', 'very', 'professionally', 'take', 'care', 'specially', 'mr', 'basher', 'give', 'us', 'nice', 'service']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>['we', 'are', 'made', 'meeting', 'at', 'nabiha', 'restaurant', 'at', 'ascott', 'the', 'residence', 'at', 'dhaka', 'very', 'good', 'looking', 'n', 'nice', 'decorated', 'restaurant', 'very', 'good', 'food', 'n', 'excellent', 'service', 'specially', 'mr', 'bashers', 'very', 'cordial', 'n', 'good', 'service', 'provide', 'us']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>['i', 'had', 'a', 'fantastic', 'experience', 'at', 'ascott', 'the', 'residence', 'hotel', 'in', 'baridhara', 'dhaka', 'the', 'hotels', 'location', 'inside', 'the', 'diplomatic', 'zone', 'is', 'ideal', 'the', 'staff', 'is', 'incredibly', 'professional', 'and', 'cordial', 'with', 'a', 'special', 'shoutout', 'to', 'mr', 'bashar', 'who', 'provided', 'exceptional', 'service', 'i', 'highly', 'recommend', 'this', 'place', 'for', 'a', 'comfortable', 'stay', 'in', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>['good', 'food', 'and', 'service', 'overall', 'mr', 'bashar', 'was', 'a', 'good', 'service', 'provider', 'to', 'us', 'during', 'the', 'business', 'meeting', 'our', 'company', 'has', 'arranged', 'our', 'quarterly', 'workshop', 'here', 'for', 'the', 'day', 'and', 'the', 'overall', 'experience', 'has', 'been', 'good']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>['our', 'stay', 'started', 'with', 'a', 'warm', 'welcome', 'by', 'an', 'exceptional', 'friendly', 'staff', 'at', 'the', 'hotel', 'reception', 'followed', 'up', 'with', 'very', 'nice', 'and', 'friendly', 'people', 'good', 'food', 'and', 'relaxing', 'atmosphere', 'in', 'the', 'breakfast', 'lounge', 'many', 'thanks', 'to', 'bashar', 'sonia', 'and', 'kanniya', 'for', 'making', 'our', 'breakfast', 'time', 'memorable', 'and', 'pleasant', 'and', 'wearing', 'the', 'best', 'cricket', 'team', 'shirts', 'for', 'the', 'cricket', 'world', 'cup', 'best', 'regards', 'and', 'good', 'luck', 'in', 'wc', 'from', 'your', 'friends', 'in', 'norway', 'jan', 'una']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>['mr', 'bashar', 'was', 'great', 'at', 'his', 'service', 'i', 'enjoyed', 'my', 'stay', 'here', 'its', 'near', 'to', 'airport', 'i', 'was', 'assisted', 'and', 'served', 'with', 'hospitality', 'it', 'was', 'a', 'wonderful', 'experience', 'here', 'at', 'this', 'hotel', 'besides', 'its', 'value', 'for', 'money']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>['ascott', 'the', 'residence', 'dhaka', 'really', 'we', 'feel', 'my', 'safety', 'security', 'home', 'as', 'like', 'my', 'own', 'house', 'room', 'is', 'very', 'comfortable', 'service', 'stuff', 'are', 'very', 'good', 'specially', 'mr', 'bashar', 'give', 'me', 'very', 'easy', 'to', 'stay', 'here', 'very', 'tidy', 'n', 'clean', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>['comfortable', 'stay', 'with', 'good', 'staff', 'eg', 'mr', 'bashar', 'in', 'the', 'breakfast', 'floor', 'hotel', 'in', 'the', 'diplomatic', 'zone', 'of', 'dhaka', 'those', 'who', 'are', 'seeking', 'to', 'stay', 'in', 'the', 'baridhara', 'area', 'for', 'business', 'or', 'embassy', 'workds', 'can', 'stay', 'here']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>['the', 'service', 'was', 'excellent', 'we', 'were', 'served', 'by', 'their', 'colleague', 'mr', 'bashar', 'who', 'was', 'very', 'hospitable', 'and', 'welcoming', 'the', 'environment', 'was', 'perfect', 'for', 'business', 'meeting', 'highly', 'recommended', 'for', 'anyone', 'to', 'visit', 'them', 'for', 'authentic', 'experience']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>['staff', 'is', 'very', 'nice', 'and', 'take', 'care', 'of', 'every', 'need', 'of', 'the', 'guest', 'mr', 'bashar', 'is', 'once', 'who', 'has', 'taken', 'everything', 'like', 'im', 'vegetarian', 'so', 'hotel', 'provided', 'me', 'vegetarian', 'food', 'whenever', 'i', 'asked', 'for', 'it', 'i', 'always', 'recommend', 'this', 'hotel', 'to', 'my', 'friend']</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>['the', 'hotel', 'is', 'very', 'beautiful', 'the', 'room', 'is', 'very', 'tidy', 'the', 'bed', 'is', 'very', 'comfortable', 'the', 'staff', 'are', 'all', 'very', 'accommodating', 'especially', 'the', 'room', 'service', 'is', 'very', 'good', 'restaurant', 'people', 'are', 'very', 'good', 'they', 'gave', 'very', 'good', 'service', 'abul', 'bashar', 'is', 'very', 'good', 'among', 'them', 'he', 'is', 'very', 'flexible']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>['good', 'stay', 'ascott', 'residence', 'hotel', 'we', 'are', 'came', 'our', 'company', 'joyton', 'day', 'long', 'programme', 'at', 'serenity', 'hall', 'very', 'good', 'event', 'enjoy', 'specially', 'mr', 'brasher', 'give', 'service', 'at', 'nabiha', 'restaurant', 'at', 'breakfasts', 'thanks']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>['excellent', 'service', 'mr', 'bashar', 'help', 'to', 'prepared', 'special', 'tea', 'ascott', 'the', 'residence', 'dhaka', 'i', 'feel', 'very', 'comfortable', 'n', 'safety', 'security', 'as', 'like', 'my', 'home', 'room', 'was', 'very', 'good', 'staying', 'food', 'also', 'good', 'service', 'stuff', 'make', 'very', 'easy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>['i', 'have', 'come', 'over', 'into', 'dhaka', 'and', 'visited', 'several', 'places', 'for', 'eating', 'as', 'international', 'traveller', 'eating', 'is', 'very', 'important', 'for', 'usthe', 'hotel', 'have', 'one', 'of', 'the', 'best', 'eatery', 'at', 'dhaka', 'the', 'chef', 'mr', 'basher', 'azmal', 'and', 'emon', 'is', 'really', 'outdone', 'himself', 'by', 'recreating', 'all', 'those', 'delicious', 'international', 'cuisine', 'in', 'this', 'hotel', 'dining', 'scene', 'the', 'meats', 'are', 'tenders', 'the', 'serving', 'are', 'done', 'with', 'meticulous', 'attention', 'and', 'the', 'seasoning', 'was', 'optimized', 'for', 'the', 'experience', 'of', 'international', 'tastenot', 'just', 'catering', 'to', 'local', 'tounge', 'creating', 'perfect', 'balance', 'of', 'taste', 'which', 'is', 'very', 'important', 'hopefully', 'for', 'the', 'next', 'visit', 'ill', 'be', 'able', 'to', 'meet', 'them', 'again', 'and', 'have', 'another', 'delightful', 'experience']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>['really', 'happy', 'with', 'the', 'accomodation', 'of', 'the', 'hotel', 'the', 'hotel', 'staff', 'had', 'a', 'warm', 'welcoming', 'nature', 'the', 'food', 'and', 'other', 'facilities', 'were', 'excellent', 'morning', 'breakfast', 'buffet', 'was', 'really', 'good', 'and', 'mr', 'bashar', 'and', 'the', 'morning', 'staff', 'really', 'helped', 'a', 'lot', 'while', 'we', 'had', 'our', 'stay', 'will', 'definitely', 'come', 'back', 'again', 'all', 'in', 'all', 'the', 'hotel', 'is', 'located', 'in', 'the', 'safest', 'spot', 'of', 'the', 'country', 'will', 'gladly', 'recommend', 'this', 'place', 'to', 'anyone', 'visiting', 'dhaka', 'from', 'outside']</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>['the', 'staff', 'at', 'the', 'ascott', 'was', 'extremely', 'hospitable', 'and', 'went', 'out', 'of', 'their', 'way', 'to', 'make', 'you', 'feel', 'comfortable', 'zannat', 'basharr', 'anowarr', 'masud', 'karniya', 'disharri', 'suvro', 'tarik', 'mehdi', 'shafiq', 'and', 'allof', 'the', 'other', 'staff', 'members', 'do', 'a', 'great', 'job', 'in', 'creating', 'a', 'homely', 'atmosphere']</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>['very', 'good', 'and', 'kind', 'service', 'espacially', 'mr', 'bashar', 'he', 'has', 'taken', 'a', 'very', 'good', 'care', 'at', 'the', 'breakfast', 'the', 'hotel', 'is', 'located', 'in', 'a', 'very', 'friendly', 'neighborhood', 'good', 'place', 'people', 'and', 'service', 'id', 'would', 'surely', 'visit', 'this', 'hotel', 'again', 'in', 'my', 'next', 'trip']</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>['homely', 'environment', 'nice', 'service', 'good', 'food', 'safe', 'environment', 'mr', 'bashar', 'was', 'very', 'cordial', 'safe', 'place', 'for', 'expat', 'personnel', 'as', 'they', 'have', 'scanning', 'facility', 'in', 'front', 'of', 'the', 'gate', 'nice', 'housekeeping', 'from', 'the', 'hotel', 'crewm']</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>['the', 'best', 'things', 'about', 'the', 'ascott', 'residence', 'hotel', 'dhaka', 'an', 'amazing', 'teams', 'whice', 'ensure', 'you', 'have', 'your', 'needsspecially', 'mr', 'brasher', 'very', 'professional', 'and', 'well', 'known', 'hospitality', 'service', 'mir', 'arfan', 'and', 'ms', 'karnia', 'gives', 'very', 'good', 'service', 'at', 'breakfast', 'thanks', 'team', 'to', 'residence']</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>['very', 'good', 'service', 'every', 'staff', 'were', 'gender', 'sensitive', 'food', 'quality', 'was', 'good', 'room', 'space', 'was', 'more', 'than', 'enough', 'every', 'time', 'manager', 'and', 'other', 'responsible', 'person', 'asked', 'what', 'need', 'and', 'they', 'provide', 'the', 'support', 'should', 'have', 'a', 'swimming', 'pool']</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>['food', 'was', 'great', 'we', 'had', 'lunch', 'with', 'family', 'ordered', 'beef', 'kadai', 'mutton', 'biroyani', 'etc', 'mr', 'bashar', 'served', 'us', 'with', 'a', 'smile', 'nice', 'ambiance', 'and', 'plesure', 'experience', 'if', 'youre', 'near', 'baridhara', 'you', 'can', 'visit', 'or', 'stay', 'here', 'good', 'place', 'for', 'friends', 'and', 'family']</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>['super', 'management', 'im', 'highly', 'happy', 'with', 'is', 'and', 'specially', 'thanks', 'to', 'abubakor', 'munsi', 'he', 'is', 'a', 'nice', 'man', 'and', 'caring', 'all', 'the', 'best', 'ascott', 'dhakathis', 'hotel', 'is', 'very', 'clean', 'and', 'staff', 'all', 'friendly', 'i', 'will', 'come', 'back', 'again', 'thanks']</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>['ascottt', 'the', 'residenceh', 'hotel', 'i', 'am', 'very', 'happy', 'with', 'there', 'hospitality', 'service', 'specially', 'mr', 'basher', 'very', 'good', 'service', 'provide', 'us', 'mr', 'mehedy', 'also', 'givehelping', 'good', 'support', 'room', 'n', 'restaurant', 'good', 'n', 'nice', 'decoration', 'we', 'are', 'happy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>['thanks', 'ascott', 'resident', 'hotel', 'dhaka', 'baridhara', 'i', 'have', 'nice', 'experience', 'excellent', 'service', 'behaviour', 'all', 'staff', 'accommodation', 'is', 'excellent', 'thanks', 'again', 'ascott', 'resident', 'food', 'was', 'good', 'one', 'staf', 'member', 'mr', 'bashir', 'good', 'service', 'in', 'breakfast', 'time', 'thanks']</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>['alcott', 'the', 'residents', 'dhaka', 'is', 'a', 'very', 'safety', 'and', 'security', 'zone', 'in', 'baridhara', 'diplomatic', 'there', 'was', 'i', 'fell', 'very', 'comfortable', 'very', 'clean', 'nice', 'organised', 'hotelbuffet', 'breakfast', 'really', 'good', 'service', 'stuff', 'specially', 'mr', 'basher', 'give', 'special', 'service', 'us']</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>['i', 'am', 'happy', 'to', 'good', 'service', 'nice', 'and', 'comfortable', 'enjoy', 'with', 'ascott', 'residence', 'dhaka', 'very', 'good', 'food', 'and', 'service', 'specially', 'mr', 'brasher', 'give', 'me', 'very', 'easy', 'to', 'stayi', 'will', 'come', 'again', 'good', 'safety', 'n', 'very', 'clean', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>['very', 'good', 'service', 'and', 'has', 'a', 'nice', 'food', 'in', 'restaurants', 'specially', 'for', 'mr', 'bashan', 'and', 'karnia', 'mehede', 'give', 'us', 'good', 'service', 'in', 'all', 'time', 'room', 'is', 'very', 'clean', 'and', 'hotel', 'area', 'was', 'very', 'safety', 'for', 'me', 'and', 'my', 'friend']</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>['if', 'you', 'want', 'to', 'hold', 'a', 'small', 'to', 'medium', 'range', 'meeting', 'they', 'have', 'a', 'great', 'meeting', 'space', 'if', 'you', 'want', 'to', 'have', 'a', 'business', 'meeting', 'with', 'great', 'food', 'this', 'place', 'is', 'what', 'you', 'are', 'looking', 'for', 'ask', 'for', 'bashar', 'to', 'get', 'even', 'great', 'service']</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>['the', 'best', 'thing', 'about', 'the', 'place', 'is', 'its', 'staff', 'an', 'amazing', 'team', 'which', 'ensures', 'you', 'have', 'a', 'great', 'experience', 'and', 'stay', 'people', 'like', 'bashar', 'in', 'the', 'restaurant', 'go', 'beyond', 'the', 'call', 'of', 'duty', 'to', 'take', 'care', 'of', 'your', 'needs']</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>['i', 'am', 'a', 'very', 'frequent', 'visitor', 'to', 'this', 'hotel', 'i', 'am', 'from', 'kolkata', 'and', 'i', 'used', 'to', 'come', 'to', 'dhaka', 'very', 'frequently', 'and', 'mostly', 'i', 'prefer', 'to', 'stay', 'at', 'ascott', 'the', 'residence', 'the', 'food', 'comfort', 'at', 'the', 'room', 'is', 'very', 'satisfactory', 'also', 'the', 'sincere', 'hospitality', 'of', 'the', 'staff', 'like', 'habib', 'bhai', 'made', 'me', 'feel', 'more', 'at', 'ease']</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>['good', 'food', 'at', 'nabihah', 'restaurant', 'and', 'cafe', 'and', 'great', 'service', 'by', 'mr', 'basher', 'mr', 'emon', 'ascott', 'hotel', 'where', 'its', 'located', 'is', 'in', 'a', 'calm', 'and', 'peaceful', 'part', 'of', 'the', 'diplomatic', 'enclave', 'no', 'noise', 'pollution', 'and', 'a', 'very', 'safe', 'area', 'to', 'stay', 'in', 'try', 'the', 'prawn', 'malai', 'curry', 'and', 'seasonal', 'fruit', 'cocktail', 'it', 'was', 'delicious']</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>['comfortable', 'hotel', 'with', 'very', 'attentive', 'service', 'the', 'location', 'is', 'in', 'a', 'diplomatic', 'area', 'away', 'from', 'commercial', 'besides', 'breakfast', 'we', 'ate', 'our', 'dinners', 'at', 'the', 'hotel', 'the', 'food', 'was', 'very', 'tasty', 'with', 'international', 'and', 'local', 'dishes', 'available']</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>['excellent', 'hotel', 'nice', 'place', 'to', 'dine', 'too', 'particularly', 'the', 'sky', 'top', 'restaurantcordial', 'staff', 'and', 'in', 'particular', 'i', 'liked', 'the', 'hospitality', 'and', 'friendly', 'guidance', 'given', 'by', 'one', 'of', 'the', 'hotel', 'staff', 'named', 'mr', 'anowar', 'a', 'room', 'attendantwho', 'took', 'me', 'on', 'a', 'tour', 'in', 'and', 'around', 'the', 'hoteland', 'its', 'facilities']</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>['it', 'was', 'an', 'amazing', 'hospitality', 'in', 'a', 'business', 'event', 'which', 'was', 'wonderfully', 'organized', 'by', 'ascott', 'the', 'residence', 'dhaka', 'special', 'service', 'by', 'mr', 'basher', 'mr', 'mehedi', 'and', 'thier', 'outstanding', 'team', 'thank', 'you', 'so', 'very', 'to', 'all']</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>['very', 'good', 'hotel', 'the', 'staff', 'are', 'very', 'nice', 'and', 'helpful', 'they', 'always', 'ask', 'how', 'i', 'am', 'and', 'are', 'always', 'game', 'for', 'a', 'good', 'conversation', 'they', 'always', 'make', 'sure', 'that', 'i', 'am', 'taken', 'care', 'of', 'props', 'especially', 'to', 'habib', 'for', 'the', 'great', 'service']</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>['ascott', 'the', 'residence', 'dhaka', 'mr', 'basar', 'was', 'so', 'cordial', 'in', 'response', 'he', 'serviced', 'in', 'the', 'japan', 'embassy', 'programme', 'his', 'behaviour', 'and', 'service', 'are', 'too', 'good', 'he', 'is', 'very', 'active', 'and', 'great', 'in', 'work', 'i', 'wish', 'him', 'good', 'luck']</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>['excellent', 'food', 'ambience', 'got', 'tremendous', 'service', 'from', 'mehedi', 'basar', 'karnia', 'khairul', 'at', 'japan', 'embassy', 'food', 'beverage', 'was', 'great', 'outdoor', 'catering', 'is', 'nice', 'to', 'have', 'wish', 'all', 'the', 'best', 'to', 'ascott', 'palace']</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>['good', 'roman', 'good', 'person', 'i', 'have', 'a', 'good', 'time', 'in', 'the', 'hotel', 'very', 'good', 'servicethe', 'hotel', 'environment', 'is', 'good', 'with', 'spacious', 'rooms', 'and', 'a', 'delicious', 'breakfastroom', 'service', 'is', 'always', 'prompt', 'and', 'attentive', 'in', 'bangladesh', 'it', 'makes', 'me', 'feel', 'very', 'happy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>['i', 'stayed', 'ascott', 'residence', 'hotel', 'very', 'comfortable', 'room', 'was', 'very', 'well', 'decorates', 'very', 'safety', 'n', 'security', 'full', 'area', 'i', 'enjoy', 'as', 'like', 'my', 'home', 'i', 'am', 'very', 'happy', 'with', 'ascott', 'food', 'was', 'very', 'nice', 'service', 'stuff', 'well', 'very', 'good', 'service', 'provide', 'specially', 'mr', 'bher', 'give', 'nice', 'support', 'mr', 'emon', 'special', 'make', 'coffee']</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>['hotel', 'is', 'very', 'secured', 'safe', 'and', 'good', 'hospitality', 'mr', 'basar', 'is', 'prepared', 'a', 'very', 'nice', 'coffee', 'he', 'is', 'also', 'polite', 'and', 'gentle', 'hotel', 'is', 'providing', 'support', 'as', 'per', 'the', 'guest', 'needs', 'resturant', 'and', 'its', 'service', 'is', 'very', 'good', 'there', 'is', 'several', 'items', 'found', 'here', 'all', 'the', 'best']</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>['we', 'are', 'came', 'to', 'business', 'by', 'basudhara', 'companywe', 'stayed', 'ascott', 'residencehotel', 'is', 'very', 'nice', 'to', 'stayvery', 'good', 'security', 'n', 'safety', 'areawe', 'stay', 'very', 'comfortablevery', 'good', 'service', 'stuff', 'are', 'very', 'friendlyspecially', 'mr', 'basher', 'give', 'us', 'very', 'easy', 'to', 'stayed']</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>['i', 'am', 'very', 'happy', 'to', 'ascott', 'the', 'residence', 'dhakai', 'stayed', 'here', 'very', 'comfortablevery', 'clean', 'n', 'oraganised', 'hotel', 'service', 'stuff', 'are', 'frofesonalspecialy', 'mr', 'basher', 'give', 'me', 'very', 'good', 'service', 'at', 'breakfasthe', 'make', 'coffee', 'very', 'nice']</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>['very', 'good', 'accommodation', 'and', 'service', 'very', 'homey', 'the', 'area', 'is', 'very', 'safe', 'and', 'the', 'food', 'is', 'very', 'tasty', 'especially', 'mr', 'bashar', 'and', 'abubakor', 'thank', 'you', 'very', 'much', 'for', 'always', 'asking', 'how', 'i', 'am', 'and', 'for', 'the', 'smiles', 'every', 'day']</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>['the', 'ascott', 'residence', 'hotel', 'was', 'a', 'wonderful', 'experience', 'in', 'last', 'visit', 'best', 'hotel', 'in', 'a', 'dhaka', 'cityroom', 'was', 'nice', 'and', 'very', 'clean', 'food', 'options', 'was', 'very', 'good', 'breakfast', 'is', 'very', 'markable', 'and', 'deliciousthe', 'staff', 'are', 'always', 'smiles', 'and', 'welcoming', 'the', 'guests', 'specially', 'mr', 'shafiq', 'from', 'reception', 'very', 'helpful', 'and', 'always', 'look', 'after', 'methe', 'hotel', 'surround', 'also', 'very', 'nice', 'and', 'attractive', 'im', 'highly', 'recommended', 'ascott', 'the', 'hotel', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>['i', 'would', 'definitely', 'stay', 'here', 'again', 'because', 'i', 'would', 'like', 'to', 'extend', 'my', 'appreciation', 'to', 'all', 'staff', 'specially', 'mr', 'shafiq', 'and', 'mr', 'abdullah', 'on', 'duty', 'during', 'our', 'visit', 'his', 'responsibility', 'pleasant', 'helpful', 'nature', 'made', 'our', 'stay', 'even', 'more', 'enjoyable', 'his', 'kind', 'attentiveness', 'to', 'our', 'needs', 'and', 'prompt', 'assistance', 'truly', 'exemplified', 'the', 'epitome', 'of', 'exceptional', 'service', 'overall', 'the', 'combination', 'of', 'the', 'outstanding', 'service', 'excellent', 'facilities', 'for', 'reception', 'room', 'food', 'and', 'the', 'warm', 'hospitality', 'of', 'your', 'staff', 'made', 'our', 'stay', 'at', 'ascott', 'residence', 'hotel', 'dhaka', 'i', 'wholeheartedly', 'recommend', 'ascott', 'hotel', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>['ascott', 'the', 'residence', 'is', 'a', 'beautiful', 'hotel', 'to', 'visit', 'in', 'dhaka', 'the', 'breakfast', 'is', 'variety', 'and', 'delicious', 'the', 'staff', 'of', 'the', 'hotel', 'have', 'a', 'good', 'costumer', 'service', 'i', 'met', 'mr', 'bashar', 'and', 'mr', 'emon', 'that', 'attended', 'me', 'very', 'well', 'in', 'everything', 'that', 'i', 'needed', 'full', 'recommended']</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>['i', 'am', 'very', 'happy', 'with', 'ascott', 'the', 'residencei', 'stayed', 'there', 'my', 'company', 'toshiba', 'very', 'nice', 'hotel', 'in', 'dhakaroom', 'is', 'very', 'nice', 'well', 'decorat', 'very', 'security', 'n', 'safety', 'area', 'in', 'baridhaservice', 'stuff', 'very', 'good', 'specially', 'mr', 'basher', 'give', 'us', 'very', 'to', 'stay', 'here', 'thank', 'you', 'all']</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>['the', 'room', 'is', 'comfortable', 'the', 'staff', 'is', 'super', 'friendly', 'and', 'helpful', 'thank', 'you', 'very', 'much', 'to', 'mr', 'mehedi', 'and', 'mr', 'bashar', 'for', 'their', 'help', 'the', 'hotel', 'is', 'clean', 'organized', 'and', 'the', 'staff', 'keeps', 'it', 'all', 'the', 'time', 'in', 'perfect', 'state']</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>['the', 'ascott', 'the', 'residence', 'is', 'in', 'my', 'opinion', 'the', 'best', 'hotel', 'in', 'bangladesh', 'i', 'have', 'stayed', 'here', 'before', 'the', 'hotel', 'service', 'and', 'staff', 'are', 'excellent', 'the', 'restaurant', 'and', 'food', 'is', 'superb', 'and', 'in', 'particular', 'all', 'staff', 'from', 'the', 'cleaner', 'to', 'the', 'manager', 'are', 'exceptional', 'especially', 'at', 'the', 'desk', 'mr', 'shafiq', 'habib', 'abdullah', 'were', 'very', 'helpful']</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>['our', 'stay', 'was', 'really', 'lovely', 'a', 'comfortable', 'room', 'with', 'air', 'conditioning', 'the', 'staff', 'were', 'delightful', 'and', 'the', 'food', 'was', 'delicious', 'i', 'would', 'highly', 'recommend', 'this', 'hotel', 'particularly', 'i', 'have', 'to', 'mention', 'that', 'mr', 'shafiq', 'abdullah', 'islam', 'were', 'very', 'helpful', 'dhaka', 'is', 'a', 'fantastic', 'city', 'with', 'beautiful', 'people', 'tranquil', 'area']</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>['the', 'hotel', 'all', 'good', 'the', 'room', 'is', 'comfortable', 'ascott', 'the', 'residence', 'dhaka', 'is', 'the', 'best', 'choice', 'specially', 'mrbashar', 'give', 'very', 'good', 'service', 'bakery', 'in', 'dinner', 'area', 'is', 'very', 'well', 'coffee', 'is', 'excelent', 'staff', 'have', 'a', 'good', 'servicemind']</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>['i', 'veryhappystaywithascotttheresidence', 'dahai', 'sayed', 'herecouplesdayverynicecomfortableservicestuffareverynicespeceillymrbashergivemeverycomfortableaslo', 'mr', 'emonnms', 'karniaservice', 'good', 'i', 'comebackagain']</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>['peaceful', 'location', 'with', 'caring', 'staffs', 'staffs', 'are', 'also', 'flexible', 'and', 'accomodating', 'to', 'your', 'requests', 'a', 'part', 'of', 'the', 'city', 'gulshan', 'is', 'just', 'across', 'the', 'street', 'if', 'you', 'are', 'after', 'shopping', 'worth', 'the', 'deal', 'and', 'i', 'would', 'want', 'to', 'come', 'back']</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>['good', 'in', 'hospitality', 'and', 'management', 'well', 'behaved', 'team', 'and', 'fellows', 'who', 'cared', 'guests', 'requirements', 'and', 'tried', 'to', 'address', 'their', 'special', 'need', 'i', 'appreciate', 'their', 'efforts', 'specially', 'support', 'servic', 'staff', 'mr', 'bashar', 'who', 'cared', 'the', 'event']</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>['ascott', 'is', 'conveniently', 'located', 'news', 'our', 'office', 'services', 'are', 'outstanding', 'mr', 'bashar', 'has', 'been', 'very', 'friendly', 'and', 'served', 'us', 'exceptionally', 'well', 'professionalism', 'and', 'service', 'really', 'stands', 'out', 'safety', 'and', 'security', 'is', 'an', 'added', 'point', 'as', 'it', 'is', 'located', 'in', 'baridhara', 'diplomatic', 'zone']</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>['excellent', 'service', 'great', 'hotel', 'breakfast', 'is', 'impressive', 'with', 'brilliant', 'service', 'by', 'mr', 'bashar', 'who', 'makes', 'you', 'feel', 'at', 'home', 'the', 'rooms', 'are', 'exquisite', 'and', 'staff', 'happy', 'to', 'help', 'anytime', 'with', 'a', 'smile', 'great', 'location', 'tok']</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>['extremely', 'comfortable', 'stay', 'with', 'a', 'bunch', 'of', 'motivated', 'and', 'happy', 'staff', 'always', 'going', 'out', 'of', 'the', 'way', 'to', 'meet', 'our', 'needs', 'very', 'comfortable', 'beds', 'clean', 'good', 'food', 'special', 'thanks', 'to', 'mr', 'tareq', 'salman', 'sonia', 'and', 'bashar', 'for', 'making', 'us', 'feel', 'at', 'home', 'i', 'will', 'highly', 'recommend', 'ascot', 'if', 'you', 'are', 'looking', 'for', 'a', 'nice', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>['food', 'quality', 'is', 'good', 'with', 'safety', 'and', 'security', 'with', 'hygienic', 'lobby', 'and', 'room', 'excellent', 'behaviour', 'staff', 'specially', 'mr', 'bashar', 'a', 'good', 'person', 'i', 'feel', 'free', 'to', 'contact', 'any', 'indian', 'food', 'service', 'as', 'i', 'need', 'i', 'got', 'really', 'appreciate']</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>['excellent', 'service', 'from', 'hotel', 'staff', 'bashar', 'nice', 'place', 'and', 'atmosphere', 'i', 'am', 'visiting', 'for', 'business', 'the', 'area', 'is', 'safe', 'and', 'comfortable', 'i', 'recommend', 'the', 'hotels', 'in', 'the', 'area', 'dinner', 'was', 'good', 'but', 'i', 'recommend', 'more', 'variety', 'on', 'the', 'menu']</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>['excellent', 'hotel', 'i', 'stay', 'here', 'long', 'timei', 'am', 'very', 'happy', 'with', 'ascott', 'the', 'residence', 'hotel', 'dhakamr', 'bashar', 'give', 'me', 'special', 'service', 'he', 'very', 'well', 'known', 'this', 'hospitalityfood', 'is', 'very', 'nice', 'very', 'saefty', 'area']</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>['absolutely', 'beautiful', 'and', 'very', 'good', 'hotel', 'can', 'not', 'complain', 'about', 'anything', 'staff', 'are', 'very', 'friendly', 'and', 'helful', 'specially', 'mr', 'shafiq', 'fo', 'always', 'help', 'and', 'look', 'after', 'me', 'breakfast', 'was', 'really', 'delicious', 'inshallah', 'i', 'will', 'come', 'back', 'again', 'restaurant', 'staff', 'are', 'also', 'helful']</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>['i', 'recently', 'had', 'the', 'pleasure', 'of', 'staying', 'at', 'this', 'hotel', 'where', 'mr', 'shafikul', 'served', 'as', 'the', 'front', 'desk', 'manager', 'i', 'must', 'say', 'my', 'experience', 'at', 'this', 'hotel', 'was', 'greatly', 'enhanced', 'by', 'his', 'exceptional', 'service', 'and', 'professional', 'attitude', 'his', 'topnotch', 'customer', 'service', 'skills', 'professionalism', 'and', 'unwavering', 'dedication', 'to', 'guest', 'satisfaction', 'made', 'my', 'stay', 'at', 'the', 'hotel', 'truly', 'memorable']</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>['i', 'visited', 'here', 'several', 'times', 'i', 'enjoyed', 'staying', 'here', 'room', 'and', 'food', 'is', 'very', 'good', 'also', 'hotel', 'stuffs', 'are', 'very', 'friendly', 'specially', 'mr', 'bashar', 'is', 'a', 'very', 'humble', 'person', 'and', 'i', 'like', 'his', 'services', 'overall', 'i', 'like', 'ascot', 'the', 'residence', 'very', 'much', 'and', 'recommend', 'other', 'also', 'thank', 'you']</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>['wonderful', 'experiences', 'with', 'the', 'ascott', 'hotel', 'dhaka', 'restaurant', 'food', 'is', 'assom', 'room', 'was', 'very', 'net', 'clean', 'hotel', 'check', 'in', 'check', 'out', 'is', 'procedure', 'is', 'verybprofessional', 'hotel', 'all', 'staff', 'is', 'very', 'friendly', 'help', 'fullmr', 'shafiqul', 'is', 'one', 'of', 'them', 'im', 'strongly', 'recommended', 'ascott', 'hotel', 'dhaka', 'best', 'hotel', 'in', 'dhaka', 'city']</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>['absolutely', 'beautiful', 'and', 'very', 'relaxing', 'can', 'not', 'complain', 'about', 'anything', 'very', 'friendly', 'and', 'helpful', 'all', 'staff', 'specially', 'mr', 'shafiq', 'front', 'office', 'always', 'help', 'look', 'after', 'mewe', 'took', 'the', 'all', 'inclusive', 'deal', 'so', 'breakfast', 'lunch', 'and', 'dinner', 'was', 'great', 'in', 'nabihah', 'restaurant', 'also', 'sakura', 'japanese', 'restaurant', 'hade', 'a', 'great', 'a', 'flover', 'with', 'us', 'will', 'highly', 'reccommend', 'to', 'anyone']</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>['i', 'stayed', 'in', 'ascott', 'hotel', 'dhaka', 'for', 'days', 'for', 'business', 'purpose', 'location', 'is', 'very', 'good', 'near', 'to', 'masjid', 'a', 'lot', 'if', 'restaurant', 'near', 'by', 'the', 'room', 'is', 'big', 'and', 'clean', 'and', 'they', 'have', 'kitchen', 'also', 'big', 'refregerator', 'to', 'keep', 'the', 'food', 'good', 'if', 'you', 'have', 'long', 'stay', 'in', 'dhaka', 'i', 'would', 'like', 'to', 'give', 'credit', 'for', 'staff', 'in', 'reception', 'abdulla', 'islam', 'habib', 'specially', 'mention', 'of', 'mr', 'shafiq', 'he', 'is', 'a', 'very', 'gentleman', 'and', 'helpful', 'person', 'they', 'very', 'helpfull', 'during', 'i', 'am', 'check', 'in', 'and', 'check', 'out', 'also', 'my', 'any', 'kinds', 'of', 'service', 'i', 'will', 'not', 'forget', 'ascott', 'hotel', 'dhaka', 'he', 'is', 'my', 'first', 'and', 'forever', 'frind', 'in', 'dhaka', 'city', 'thatks', 'for', 'all', 'of', 'you']</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>['i', 'viited', 'acott', 'the', 'residenec', 'hotel', 'by', 'my', 'company', 'ihi', 'very', 'nice', 'noable', 'stayed', 'very', 'secutrity', 'n', 's', 'ty', 'earm', 'is', 'nice', 'decoradedservice', 'stuff', 'ell', 'known', 'personspeciallly', 'mr', 'basher', 'give', 'me', 'very', 'fell', 'cmtablehie', 'make', 'coffee', 'very', 'nice']</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>['excellent', 'property', 'and', 'very', 'convenient', 'front', 'desk', 'staff', 'are', 'extremely', 'efficient', 'pleasant', 'and', 'helpful', 'property', 'is', 'clean', 'and', 'has', 'a', 'fantastic', 'atmosphere', 'overall', 'i', 'had', 'a', 'great', 'experience', 'with', 'the', 'atr', 'dhaka', 'staff', 'was', 'incredibly', 'helpful', 'especially', 'shafiqul', 'islamduty', 'manager', 'he', 'was', 'a', 'veryprofessional', 'helpful', 'and', 'the', 'amenities', 'were', 'great', 'the', 'room', 'was', 'wonderful', 'clean', 'and', 'perfect', 'to', 'celebrate', 'the', 'desired', 'occasion', 'will', 'be', 'coming', 'back', 'again']</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>['very', 'cosy', 'hotel', 'staffs', 'are', 'very', 'humble', 'and', 'nice', 'especially', 'mr', 'bashar', 'who', 'takes', 'care', 'of', 'you', 'well', 'deluxe', 'rooms', 'are', 'better', 'than', 'star', 'hotel', 'maintenance', 'can', 'be', 'improved', 'accessible', 'from', 'airport']</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>['everything', 'is', 'good', 'mr', 'islam', 'and', 'the', 'restaurant', 'collegues', 'are', 'nice', 'and', 'servicial', 'the', 'food', 'and', 'the', 'service', 'are', 'realy', 'good', 'the', 'conditions', 'of', 'the', 'hotel', 'are', 'clean', 'and', 'confortable', 'we', 'recommend', 'the', 'hotel', 'tonother', 'peolple']</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>['im', 'fully', 'satisfied', 'with', 'your', 'services', 'included', 'food', 'quality', 'is', 'very', 'good', 'hygenic', 'the', 'hotel', 'decor', 'is', 'by', 'far', 'the', 'nicest', 'ive', 'ever', 'seen', 'playful', 'and', 'stylish', 'tasteful', 'yet', 'trendy', 'it', 'features', 'cool', 'blues', 'and', 'whites', 'with', 'metal', 'trimhotel', 'was', 'very', 'nit', 'and', 'cleanthe', 'stuffs', 'are', 'also', 'well', 'behaved', 'with', 'us', 'mrshafiq', 'mrabdullah', 'reception', 'and', 'other', 'receptionist', 'was', 'very', 'helpful', 'and', 'provided', 'me', 'the', 'best', 'servicestheir', 'commumication', 'level', 'is', 'customer', 'friendly']</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>['i', 'am', 'fully', 'satisfy', 'the', 'service', 'of', 'this', 'hotel', 'the', 'environment', 'services', 'and', 'food', 'quality', 'are', 'really', 'good', 'me', 'and', 'my', 'family', 'can', 'spend', 'very', 'good', 'time', 'in', 'this', 'hotel', 'and', 'i', 'am', 'excited', 'to', 'come', 'again', 'in', 'this', 'hotel', 'staff', 'attitude', 'and', 'maner', 'are', 'really', 'good', 'specially', 'shafiq', 'duty', 'managerhe', 'is', 'a', 'very', 'professional', 'and', 'co', 'cooperative']</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>['the', 'restaurant', 'at', 'your', 'hotel', 'deserves', 'a', 'special', 'mention', 'the', 'food', 'was', 'simply', 'exquisite', 'and', 'the', 'dining', 'experience', 'was', 'nothing', 'short', 'of', 'exceptional', 'the', 'variety', 'of', 'dishes', 'offered', 'and', 'the', 'impeccable', 'service', 'provided', 'by', 'the', 'restaurant', 'staff', 'made', 'each', 'meal', 'a', 'delightful', 'experience', 'furthermore', 'i', 'would', 'like', 'to', 'commend', 'mr', 'bashar', 'and', 'the', 'entire', 'team', 'for', 'their', 'remarkable', 'dedication', 'and', 'attentiveness', 'throughout', 'my', 'stay', 'their', 'warmth', 'and', 'professionalism', 'made', 'me', 'feel', 'welcome', 'and', 'wellcared', 'for', 'during', 'my', 'visit', 'it', 'is', 'truly', 'a', 'testament', 'to', 'the', 'outstanding', 'quality', 'of', 'your', 'staff', 'and', 'their', 'commitment', 'to', 'providing', 'an', 'excellent', 'guest', 'experience', 'once', 'again', 'i', 'would', 'like', 'to', 'express', 'my', 'gratitude', 'for', 'the', 'wonderful', 'hospitality', 'i', 'experienced', 'during', 'my', 'time', 'at', 'your', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>['the', 'staff', 'at', 'the', 'hotel', 'are', 'very', 'welcoming', 'warm', 'and', 'well', 'mannered', 'especially', 'sonia', 'and', 'bashar', 'at', 'the', 'restaurant', 'the', 'ones', 'at', 'the', 'entrance', 'and', 'the', 'front', 'desk', 'are', 'also', 'very', 'welcoming', 'i', 'would', 'very', 'much', 'like', 'to', 'come', 'back', 'the', 'next', 'time', 'i', 'am', 'in', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>['tasty', 'food', 'excellent', 'service', 'yummy', 'fried', 'rice', 'with', 'spicy', 'chili', 'oil', 'chicken', 'salmon', 'cooked', 'perfect', 'and', 'delicious', 'workers', 'are', 'very', 'nice', 'and', 'helpful', 'pudding', 'very', 'tasty', 'with', 'cherry', 'on', 'top', 'mr', 'bashar', 'very', 'helpful', 'with', 'out', 'table']</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>['good', 'hotel', 'located', 'in', 'baridhara', 'diplomatic', 'zone', 'very', 'safe', 'and', 'clean', 'staffs', 'are', 'super', 'helpful', 'and', 'friendly', 'esp', 'mr', 'bashar', 'at', 'the', 'restaurant', 'and', 'the', 'bellboy', 'whom', 'i', 'couldnt', 'remember', 'his', 'name', 'foods', 'are', 'good', 'the', 'portion', 'is', 'big', 'but', 'i', 'think', 'it', 'is', 'quite', 'expensive', 'and', 'take', 'long', 'time', 'to', 'cook']</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>['ive', 'traveled', 'all', 'over', 'the', 'world', 'and', 'stayed', 'at', 'the', 'finest', 'hotels', 'including', 'the', 'aman', 'resorts', 'i', 'have', 'never', 'experienced', 'the', 'incredible', 'level', 'of', 'services', 'that', 'i', 'received', 'at', 'the', 'ascott', 'residence', 'in', 'dhaka', 'bangladesh', 'every', 'single', 'staff', 'member', 'i', 'have', 'met', 'has', 'always', 'had', 'a', 'smile', 'on', 'their', 'face', 'and', 'has', 'gone', 'out', 'of', 'their', 'way', 'to', 'provide', 'the', 'very', 'best', 'service', 'i', 'have', 'ever', 'received', 'the', 'list', 'of', 'employees', 'is', 'who', 'have', 'gone', 'out', 'of', 'their', 'way', 'to', 'make', 'sure', 'my', 'stay', 'is', 'exceptional', 'are', 'too', 'many', 'to', 'list', 'i', 'wanted', 'to', 'mention', 'the', 'entire', 'management', 'team', 'concierge', 'staff', 'restaurant', 'staff', 'and', 'housekeeping', 'staff', 'who', 'have', 'all', 'made', 'my', 'stay', 'one', 'that', 'i', 'will', 'never', 'forget', 'special', 'thank', 'you', 'to', 'zannat', 'mahmud', 'mohammad', 'sonia', 'mozid', 'habib', 'mr', 'bashar', 'and', 'everyone', 'else', 'at', 'the', 'ascott', 'whose', 'name', 'i', 'did', 'not']</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>['bashar', 'down', 'in', 'the', 'cafe', 'very', 'kind', 'and', 'accommodating', 'made', 'me', 'feel', 'welcome', 'i', 'needed', 'help', 'with', 'so', 'many', 'things', 'and', 'he', 'came', 'through', 'for', 'me', 'i', 'love', 'seeing', 'him', 'i', 'have', 'some', 'dietary', 'issues', 'he', 'has', 'helped', 'me', 'out', 'with']</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>['everything', 'is', 'good', 'mr', 'bashar', 'and', 'the', 'restaurant', 'collegues', 'are', 'nice', 'and', 'servicial', 'the', 'food', 'and', 'the', 'service', 'are', 'realy', 'good', 'the', 'conditions', 'of', 'the', 'hotel', 'are', 'clean', 'and', 'confortable', 'we', 'recommend', 'the', 'hotel', 'tonother', 'peolple']</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>['the', 'services', 'of', 'this', 'hotel', 'is', 'very', 'highly', 'professional', 'such', 'as', 'food', 'venue', 'security', 'cleaning', 'etc', 'are', 'very', 'nice', 'they', 'have', 'sufficient', 'trained', 'staff', 'who', 'are', 'very', 'caring', 'the', 'venue', 'attendant', 'mr', 'bashars', 'is', 'very', 'cooperative']</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>['i', 'visited', 'the', 'ascott', 'the', 'residence', 'dhaka', 'with', 'my', 'dear', 'colleges', 'for', 'the', 'purpose', 'of', 'vat', 'tax', 'training', 'of', 'plan', 'international', 'bangladesh', 'the', 'environmental', 'and', 'total', 'arrangement', 'of', 'the', 'hotel', 'is', 'too', 'good', 'and', 'also', 'secured', 'mr', 'bashar', 'and', 'his', 'team', 'serve', 'a', 'treamendous', 'service', 'also']</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>['the', 'place', 'amaze', 'me', 'with', 'full', 'of', 'energetic', 'peoples', 'always', 'keen', 'to', 'help', 'with', 'positive', 'mindset', 'ambience', 'is', 'nice', 'greenary', 'around', 'the', 'venue', 'gives', 'us', 'good', 'timebashar', 'vai', 'is', 'good', 'person', 'mr', 'mehedi', 'is', 'very', 'cordial', 'we', 'will', 'defenately', 'comeback']</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>['excellent', 'support', 'by', 'the', 'ascott', 'the', 'residence', 'and', 'the', 'meeting', 'room', 'is', 'very', 'organized', 'mr', 'basar', 'also', 'very', 'cordail', 'to', 'dealings', 'thp', 'bangladesh', 'pleased', 'to', 'your', 'service', 'next', 'time', 'referer', 'other', 'thank', 'you']</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>['i', 'am', 'first', 'time', 'visit', 'ascott', 'residence', 'hoteli', 'am', 'very', 'happy', 'with', 'meeting', 'venue', 'at', 'serenity', 'banquet', 'hall', 'roof', 'top', 'i', 'was', 'there', 'seminar', 'of', 'industriall', 'union', 'orgopen', 'space', 'nice', 'garden', 'venue', 'also', 'well', 'decorated', 'all', 'service', 'stuff', 'are', 'provide', 'good', 'service', 'specially', 'mr', 'bashar', 'give', 'us', 'remarkable', 'service']</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>['hotel', 'is', 'very', 'exciting', 'and', 'hospitable', 'your', 'services', 'person', 'are', 'very', 'nice', 'and', 'so', 'kindful', 'your', 'breakfast', 'is', 'also', 'good', 'and', 'delicios', 'so', 'taht', 'i', 'like', 'very', 'much', 'think', 'come', 'back', 'again', 'your', 'personel', 'islam', 'is', 'very', 'good', 'people']</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>['ascott', 'residence', 'dhaka', 'the', 'provide', 'as', 'food', 'in', 'our', 'giz', 'dhaka', 'office', 'metting', 'food', 'is', 'good', 'mr', 'basar', 'give', 'up', 'spesal', 'service', 'assisthe', 'take', 'care', 'event', 'giz', 'venuascott', 'hotel', 'the', 'wass', 'regularly', 'support', 'most', 'off', 'the', 'event', 'thank', 'you', 'mr', 'basar', 'your', 'good', 'support']</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>['i', 'stayed', 'days', 'ascott', 'residents', 'dhakait', 'was', 'very', 'nice', 'hotelvery', 'security', 'n', 'safety', 'areasroom', 'very', 'nice', 'decoratedi', 'enjoyed', 'buffet', 'breakfastfood', 'was', 'execilentservice', 'stuff', 'was', 'very', 'carefullymr', 'basher', 'give', 'us', 'mind', 'blowing', 'servicethanks', 'to', 'mr', 'abu', 'bakor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>['it', 'was', 'a', 'pleasure', 'staying', 'at', 'this', 'brand', 'new', 'property', 'which', 'is', 'minutes', 'walking', 'from', 'the', 'mall', 'ascott', 'the', 'residence', 'is', 'a', 'nice', 'hotel', 'with', 'excellent', 'food', 'and', 'service', 'they', 'offer', 'complementary', 'fruit', 'chocolates', 'and', 'coffee', 'in', 'the', 'room', 'breakfast', 'is', 'good', 'and', 'you', 'can', 'choose', 'indian', 'continental', 'etc', 'also', 'the', 'restaurant', 'is', 'very', 'good', 'and', 'reasonably', 'priced', 'overall', 'the', 'experience', 'was', 'brilliant', 'and', 'enjoyed', 'or', 'weekend', 'getaway', 'a', 'lot', 'i', 'will', 'definitely', 'stay', 'there', 'again']</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>['i', 'stay', 'ascott', 'residences', 'dhakavery', 'comfortable', 'room', 'is', 'very', 'nice', 'n', 'enjoyable', 'restaurant', 'decorated', 'wellgood', 'food', 'l', 'enjoy', 'breakfast', 'service', 'stuff', 'very', 'good', 'specially', 'i', 'mentioned', 'to', 'mr', 'basher', 'he', 'make', 'me', 'very', 'easy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>['your', 'hotel', 'premises', 'and', 'internal', 'ambeiance', 'is', 'very', 'homelynice', 'friendlyim', 'very', 'pleased', 'by', 'your', 'hospitalitythe', 'foods', 'of', 'your', 'restaurent', 'is', 'very', 'tasty', 'like', 'home', 'madelot', 'of', 'thanks', 'to', 'the', 'authorities', 'employeesmrbasher', 'others']</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>['ascott', 'hotel', 'veery', 'goodvery', 'nice', 'placementdinnerlunchbreakfust', 'all', 'good', 'i', 'am', 'satisfaction', 'all', 'food', 'and', 'all', 'service', 'very', 'welli', 'am', 'happy', 'and', 'my', 'team', 'very', 'satisfaction', 'tnq', 'so', 'much', 'mr', 'basar', 'vi', 'for', 'ur', 'survice']</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>['wow', 'what', 'a', 'delicious', 'lunch', 'we', 'hadwe', 'really', 'love', 'the', 'ambience', 'nicely', 'table', 'arrangement', 'by', 'the', 'service', 'teamlocation', 'is', 'safe', 'and', 'securefood', 'was', 'too', 'good', 'service', 'team', 'is', 'cery', 'helpful', 'always', 'supportive']</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>['good', 'as', 'a', 'training', 'venue', 'the', 'food', 'accommodation', 'and', 'customer', 'service', 'is', 'very', 'good', 'mr', 'bashar', 'has', 'provided', 'a', 'good', 'service', 'the', 'area', 'is', 'very', 'safe', 'and', 'everyone', 'is', 'very', 'well', 'behaved', 'thank', 'you', 'for', 'the', 'hospitality']</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>['i', 'visited', 'ascott', 'hotel', 'residence', 'i', 'i', 'said', 'here', 'one', 'night', 'i', 'am', 'really', 'pleased', 'to', 'be', 'here', 'and', 'the', 'service', 'and', 'the', 'food', 'was', 'really', 'excellent', 'i', 'found', 'it', 'very', 'nice', 'and', 'and', 'i', 'was', 'very', 'please', 'to', 'meet', 'with', 'mr', 'bashar', 'and', 'is', 'very', 'kind', 'hospitality']</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>['this', 'is', 'located', 'in', 'dhaka', 'city', 'at', 'baridhara', 'diplomatic', 'zone', 'its', 'really', 'nice', 'hotel', 'i', 'had', 'stay', 'couple', 'of', 'days', 'i', 'was', 'spand', 'the', 'good', 'moments', 'is', 'the', 'hotel', 'when', 'i', 'will', 'be', 'back', 'then', 'i', 'would', 'like', 'to', 'stayspecially', 'thanks', 'to', 'front', 'office', 'stuffs', 'mehedi', 'shafiq']</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>['recently', 'stayed', 'best', 'place', 'to', 'stay', 'particularly', 'one', 'staff', 'member', 'who', 'made', 'my', 'stay', 'truly', 'unforgettable', 'emon', 'a', 'true', 'gentleman', 'among', 'hotel', 'staff', 'went', 'for', 'a', 'coffee', 'and', 'gave', 'the', 'remarkable', 'service', 'master', 'at', 'making', 'coffee', 'and', 'all', 'displayed', 'best', 'professionalism', 'a', 'true', 'gem']</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>['i', 'recently', 'had', 'the', 'pleasure', 'of', 'staying', 'at', 'ascott', 'particularly', 'one', 'exceptional', 'staff', 'member', 'who', 'made', 'my', 'experience', 'truly', 'unforgettable', 'ashiful', 'emon', 'a', 'true', 'gem', 'among', 'hotel', 'staff', 'went', 'above', 'and', 'beyond', 'to', 'ensure', 'that', 'my', 'needs', 'were', 'not', 'only', 'met', 'but', 'exceeded', 'ashiful', 'emon', 'displayed', 'remarkable', 'professionalism', 'and', 'efficiency']</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>['nice', 'hotel', 'in', 'dhaka', 'city', 'ascott', 'the', 'residence', 'near', 'by', 'international', 'airport', 'there', 'protocol', 'and', 'transport', 'service', 'is', 'very', 'good', 'durning', 'check', 'in', 'time', 'concierge', 'service', 'was', 'fantastic', 'as', 'well', 'as', 'front', 'office', 'they', 'had', 'friendly', 'attitude', 'and', 'smalling', 'face', 'of', 'mahedi', 'shadman', 'also', 'restaurant', 'service', 'is', 'good', 'food', 'was', 'delicious', 'emon', 'is', 'a', 'maintain', 'the', 'proper', 'service', 'to', 'the', 'guest']</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>['ascott', 'the', 'residence', 'is', 'good', 'hotel', 'in', 'dhaka', 'city', 'stay', 'with', 'friends', 'and', 'family', 'location', 'is', 'very', 'safe', 'place', 'at', 'baridhara', 'deplomatic', 'zone', 'restaurant', 'service', 'so', 'nice', 'also', 'food', 'very', 'delicious', 'front', 'office', 'guy', 'mahedi', 'very', 'smart', 'to', 'deal', 'bashear', 'and', 'emon', 'nice', 'support', 'to', 'us']</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>['i', 'visited', 'ascott', 'hotel', 'rasidenc', 'under', 'democracy', 'international', 'programe', 'there', 'was', 'i', 'meet', 'many', 'services', 'people', 'all', 'are', 'them', 'verynice', 'specialy', 'mr', 'basher', 'servic', 'man', 'taker', 'care', 'every', 'thing', 'mr', 'emon', 'made', 'nice', 'coffee']</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>['i', 'am', 'rofiq', 'from', 'cmsd', 'we', 'take', 'a', 'food', 'service', 'from', 'ascott', 'the', 'residence', 'dhaka', 'they', 'have', 'well', 'trained', 'food', 'service', 'man', 'we', 'meet', 'name', 'bashar', 'we', 'happy', 'to', 'take', 'service', 'from', 'ascott', 'the', 'residence', 'they', 'give', 'us', 'nice', 'services']</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>['i', 'am', 'coming', 'here', 'frequently', 'to', 'attend', 'the', 'democracy', 'international', 'training', 'they', 'really', 'took', 'care', 'us', 'from', 'their', 'heartfood', 'is', 'goodbanquet', 'is', 'widewe', 'enjoyed', 'our', 'training', 'time', 'herethanks', 'to', 'mr', 'bashar', 'for', 'his', 'very', 'kind', 'and', 'attentive', 'service', 'also', 'other', 'service', 'people', 'also', 'very', 'cordial', 'to', 'our', 'needsi', 'feel', 'like', 'home', 'here', 'the', 'rooftop', 'outlet', 'is', 'really', 'chilling', 'place']</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>['hotel', 'ascott', 'the', 'resistance', 'is', 'very', 'good', 'to', 'stay', 'with', 'family', 'there', 'are', 'employees', 'are', 'too', 'general', 'familiar', 'there', 'behaviour', 'is', 'good', 'restaurant', 'food', 'so', 'good', 'location', 'is', 'very', 'nice', 'palace', 'all', 'are', 'good', 'to', 'stay', 'in', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>['enjoyed', 'pleasant', 'stay', 'and', 'great', 'guest', 'experience', 'hotel', 'staff', 'are', 'great', 'kind', 'polite', 'and', 'very', 'helpful', 'special', 'thanks', 'to', 'sonia', 'for', 'her', 'kindness', 'and', 'caring', 'great', 'location', 'nice', 'ambience', 'comfortable', 'room']</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>['it', 'was', 'great', 'experience', 'in', 'that', 'hotel', 'room', 'service', 'was', 'good', 'and', 'aslo', 'breakfast', 'great', 'fav', 'and', 'the', 'pickup', 'and', 'drown', 'service', 'was', 'available', 'in', 'that', 'great', 'experience', 'in', 'that', 'hotel', 'and', 'the', 'hotel', 'staff', 'mahedi', 'and', 'rashed', 'great', 'person', 'and', 'good', 'behavior', 'to', 'stay', 'with', 'hat', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>['i', 'stayed', 'many', 'times', 'at', 'ascott', 'the', 'residence', 'whenever', 'i', 'came', 'i', 'felt', 'that', 'it', 'was', 'my', 'second', 'home', 'the', 'staff', 'is', 'very', 'cooperative', 'and', 'attentive', 'the', 'rooms', 'were', 'very', 'clean', 'and', 'they', 'always', 'took', 'care', 'of', 'my', 'preferences']</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>['this', 'is', 'my', 'third', 'visit', 'to', 'ascott', 'the', 'residence', 'dhaka', 'when', 'i', 'arrived', 'i', 'was', 'under', 'the', 'weather', 'the', 'staff', 'looked', 'after', 'me', 'with', 'genuine', 'care', 'zannat', 'at', 'the', 'front', 'desk', 'helped', 'me', 'get', 'some', 'medication', 'and', 'sonia', 'in', 'the', 'restaurant', 'made', 'sure', 'i', 'ate', 'well', 'i', 'hope', 'to', 'visit', 'this', 'hotel', 'again']</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>['we', 'stayed', 'one', 'night', 'in', 'ascott', 'the', 'residence', 'dhaka', 'and', 'truly', 'enjoyed', 'the', 'experience', 'we', 'stayed', 'in', 'a', 'suite', 'and', 'found', 'it', 'wellappointed', 'there', 'were', 'eight', 'bottles', 'of', 'water', 'and', 'a', 'plate', 'of', 'fresh', 'fruit', 'waiting', 'for', 'us', 'there', 'was', 'coffee', 'and', 'tea', 'in', 'the', 'kitchenette', 'and', 'the', 'bathroom', 'had', 'all', 'the', 'products', 'you', 'would', 'need', 'comb', 'toothbrush', 'ample', 'products', 'the', 'cable', 'in', 'the', 'room', 'was', 'nice', 'too', 'there', 'were', 'movie', 'news', 'and', 'sports', 'channels', 'in', 'english', 'my', 'family', 'and', 'i', 'watched', 'some', 'tennis', 'listed', 'to', 'music', 'on', 'vh', 'and', 'caught', 'a', 'bit', 'of', 'a', 'movie', 'on', 'hbo', 'the', 'bed', 'was', 'a', 'bit', 'hard', 'but', 'i', 'have', 'heard', 'that', 'that', 'is', 'normal', 'in', 'bangladesh', 'the', 'ample', 'pillows', 'and', 'cold', 'ac', 'certainly', 'made', 'the', 'sleeping', 'overall', 'very', 'pleasant', 'the', 'breakfast', 'that', 'was', 'included', 'in', 'our', 'stay', 'was', 'yummy', 'too', 'there', 'were', 'typical', 'western', 'breakfast']</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>['nice', 'place', 'for', 'meeting', 'good', 'hospitality', 'best', 'food', 'the', 'hotel', 'lacation', 'is', 'really', 'attactive', 'very', 'good', 'location', 'ensure', 'the', 'easy', 'moving', 'of', 'the', 'various', 'location', 'of', 'dhaka', 'city', 'safety', 'is', 'very', 'concern', 'for', 'me', 'found', 'safety', 'here']</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>['i', 'spent', 'over', 'a', 'week', 'at', 'the', 'ascott', 'residence', 'and', 'was', 'extremely', 'pleased', 'with', 'my', 'stay', 'rooms', 'are', 'comfortable', 'and', 'clean', 'the', 'location', 'is', 'ideal', 'if', 'youre', 'looking', 'for', 'peace', 'and', 'quiet', 'after', 'a', 'hard', 'days', 'work', 'theres', 'always', 'a', 'little', 'attention', 'on', 'the', 'pillow', 'before', 'bedtime', 'so', 'lovely', 'every', 'employee', 'is', 'adorable', 'and', 'caring', 'from', 'security', 'guards', 'to', 'housekeepers', 'and', 'from', 'reception', 'to', 'the', 'restaurant', 'thanks', 'to', 'all', 'employees', 'for', 'their', 'kindness', 'special', 'mention', 'for', 'masud', 'harun', 'and', 'mahedi', 'hoping', 'to', 'see', 'you', 'again', 'one', 'day']</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>['the', 'hotel', 'is', 'very', 'comfortableroom', 'interior', 'is', 'goodfood', 'is', 'delicious', 'variety', 'of', 'options', 'at', 'buffet', 'breakfastfood', 'and', 'beverage', 'service', 'team', 'are', 'so', 'caring', 'mrmehedi', 'manage', 'his', 'team', 'very', 'wellwell', 'trained', 'they', 'took', 'care', 'our', 'every', 'aspects']</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>['this', 'second', 'time', 'im', 'coming', 'in', 'dhaka', 'so', 'im', 'very', 'interested', 'all', 'services', 'are', 'good', 'people', 'very', 'friendly', 'i', 'can', 'moving', 'anywhere', 'with', 'relative', 'ease', 'with', 'the', 'means', 'featured', 'here', 'and', 'the', 'food', 'here', 'is', 'also', 'quite', 'suitable', 'for', 'me', 'thank', 'you', 'my', 'friend', 'mr', 'islam']</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>['wonderful', 'hotellocated', 'in', 'very', 'quite', 'area', 'safe', 'and', 'secure', 'i', 'enjoyed', 'my', 'one', 'week', 'staybreakfast', 'is', 'good', 'lots', 'of', 'local', 'selection', 'is', 'therethanks', 'restaurant', 'associate', 'mr', 'masudbasharand', 'othersthey', 'took', 'care', 'our', 'group', 'with', 'nice', 'hospitality']</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>['i', 'stayed', 'in', 'ascott', 'the', 'residence', 'for', 'four', 'nights', 'in', 'june', 'it', 'was', 'my', 'nd', 'visit', 'to', 'dhaka', 'in', 'general', 'the', 'hotel', 'staff', 'is', 'friendly', 'especially', 'abdullah', 'from', 'the', 'front', 'office', 'dept', 'the', 'room', 'is', 'clean', 'and', 'comfortable']</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>['it', 'was', 'best', 'tour', 'ever', 'from', 'democracy', 'international', 'the', 'hospitality', 'of', 'this', 'hotel', 'is', 'best', 'in', 'city', 'i', 'would', 'recommend', 'to', 'visit', 'anyone', 'who', 'are', 'seeking', 'warm', 'hospitality', 'specially', 'i', 'would', 'like', 'to', 'mention', 'mrandullahshafiqul', 'and', 'osman', 'for', 'their', 'extra', 'ordinary', 'service']</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>['it', 'was', 'my', 'first', 'time', 'visit', 'in', 'bangladesh', 'and', 'im', 'so', 'much', 'happy', 'that', 'i', 'booked', 'at', 'ascott', 'the', 'residence', 'everyone', 'is', 'so', 'much', 'helpful', 'from', 'front', 'office', 'they', 'are', 'particularly', 'warm', 'hospitable', 'at', 'their', 'service', 'specially', 'mrabdullah', 'it', 'was', 'such', 'a', 'nice', 'stay', 'from', 'the', 'first', 'day', 'to', 'last', 'day', 'i', 'really', 'appreciate', 'for', 'everything', 'definitely', 'ill', 'make', 'a', 'plan', 'for', 'visit', 'again']</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>['the', 'hotel', 'is', 'great', 'and', 'has', 'wonderfull', 'staff', 'they', 'accomodate', 'requests', 'and', 'are', 'very', 'considerate', 'and', 'helpful', 'rooms', 'were', 'clean', 'and', 'well', 'maintained', 'there', 'is', 'just', 'the', 'right', 'amount', 'of', 'furnishing', 'and', 'good', 'quality', 'bedding']</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>['the', 'staff', 'is', 'amazing', 'hit', 'up', 'islam', 'hes', 'awesome', 'and', 'cares', 'about', 'his', 'guests', 'good', 'food', 'and', 'good', 'coffee', 'and', 'fresh', 'food', 'the', 'staff', 'really', 'cares', 'about', 'your', 'well', 'being', 'and', 'is', 'always', 'available', 'to', 'help', 'this', 'is', 'a', 'must', 'visit', 'site', 'you', 'will', 'not', 'be', 'disappointed']</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>['very', 'good', 'service', 'abdullah', 'alfahat', 'is', 'very', 'helpful', 'and', 'cooperative', 'housekeeping', 'is', 'very', 'good', 'as', 'they', 'asked', 'for', 'evening', 'room', 'cleaning', 'need', 'toincrease', 'the', 'indian', 'vegetrian', 'food', 'options', 'so', 'that', 'will', 'be', 'helpful', 'for', 'guests']</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>['the', 'room', 'is', 'very', 'nice', 'and', 'comfy', 'and', 'i', 'had', 'a', 'good', 'hospitality', 'by', 'the', 'hotel', 'staff', 'kudos', 'to', 'mr', 'mahedi', 'for', 'keeping', 'us', 'checking', 'in', 'and', 'checking', 'out', 'very', 'smooth', 'the', 'location', 'is', 'strategic', 'and', 'lots', 'of', 'food']</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>['good', 'services', 'and', 'nice', 'room', 'hotel', 'personnels', 'are', 'friendly', 'and', 'polite', 'this', 'time', 'i', 'was', 'stayed', 'overnight', 'on', 'my', 'birthday', 'hotel', 'staffs', 'are', 'surprised', 'me', 'with', 'the', 'beautiful', 'and', 'tasty', 'chocolate', 'cake', 'on', 'my', 'checkout', 'date', 'after', 'i', 'finished', 'my', 'breakfast', 'i', 'really', 'feel', 'thankful', 'for', 'the', 'big', 'surprise', 'and', 'made', 'me', 'feel', 'special', 'wonderful', 'on', 'my', 'birthday', 'i', 'am', 'surely', 'to', 'stay', 'and', 'recommend', 'my', 'colleagues', 'for', 'this', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>['visited', 'there', 'a', 'few', 'days', 'back', 'simply', 'in', 'one', 'word', 'their', 'service', 'is', 'outstanding', 'the', 'atmosphere', 'of', 'the', 'lobby', 'and', 'restaurant', 'is', 'very', 'nice', 'they', 'have', 'a', 'salon', 'at', 'the', 'top', 'of', 'the', 'hotel', 'the', 'staff', 'are', 'well', 'trained', 'and', 'very', 'supportive', 'and', 'cooperative']</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>['mahedi', 'service', 'guy', 'is', 'very', 'good', 'man', 'he', 'ready', 'to', 'help', 'in', 'everything', 'you', 'are', 'requested', 'hotel', 'provided', 'complimentary', 'and', 'transportation', 'to', 'airport', 'and', 'downtown', 'just', 'informed', 'them', 'in', 'advance', 'feel', 'safe', 'and', 'comfortable']</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>['good', 'hotel', 'to', 'stay', 'in', 'dhaka', 'room', 'clean', 'and', 'comfortable', 'beautiful', 'menu', 'and', 'very', 'good', 'food', 'staffs', 'is', 'friendly', 'and', 'supportfully', 'very', 'good', 'service', 'and', 'safe', 'to', 'stay', 'good', 'place', 'for', 'you', 'guy', 'to', 'stay', 'mahedi', 'and', 'rashed', 'are', 'very', 'good', 'and', 'friendly', 'helpfull', 'and', 'support', 'me', 'somuch']</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>['hotel', 'staff', 'are', 'so', 'friendly', 'and', 'cooperative', 'from', 'the', 'beginning', 'to', 'end', 'my', 'experience', 'was', 'so', 'good', 'from', 'the', 'online', 'booking', 'airport', 'protocol', 'manager', 'mr', 'shafiq', 'restaurant', 'manager', 'ms', 'sonia', 'front', 'desk', 'staff', 'and', 'even', 'drivers', 'all', 'know', 'good', 'hospitality', 'rooms', 'are', 'neat', 'and', 'clean', 'breakfast', 'is', 'upto', 'the', 'mark', 'thanks', 'to', 'zannat', 'to', 'help', 'me', 'on', 'online', 'booking', 'really', 'it', 'was', 'great', 'pleasure', 'to', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>['have', 'visited', 'overthere', 'in', 'this', 'month', 'with', 'my', 'partnervery', 'nice', 'hotel', 'located', 'in', 'calm', 'quite', 'areabudget', 'friendly', 'and', 'family', 'friendly', 'aswellfood', 'and', 'beverage', 'service', 'staff', 'are', 'very', 'friendly', 'well', 'manneredwill', 'visit', 'again', 'in', 'future', 'also']</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>['nice', 'hotel', 'the', 'staff', 'are', 'super', 'friendly', 'they', 'give', 'me', 'a', 'lot', 'of', 'helps', 'and', 'advice', 'during', 'stays', 'cozy', 'room', 'there', 'are', 'good', 'services', 'to', 'pick', 'up', 'and', 'transfer', 'to', 'the', 'airport', 'event', 'in', 'very', 'late', 'time', 'will', 'be', 'back', 'next', 'time']</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>['their', 'service', 'food', 'is', 'very', 'good', 'i', 'highly', 'recommend', 'this', 'place', 'the', 'cuppacino', 'is', 'one', 'of', 'best', 'in', 'dhaka', 'citytheir', 'staffs', 'are', 'very', 'cooperative', 'and', 'attentive', 'to', 'their', 'guesti', 'will', 'try', 'to', 'come', 'again', 'to', 'test', 'their', 'delicious', 'food']</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>['true', 'bangladeshi', 'hospitality', 'the', 'rooms', 'are', 'clean', 'the', 'breakfast', 'is', 'good', 'and', 'the', 'room', 'service', 'is', 'extremely', 'satisfying', 'the', 'staff', 'are', 'always', 'smiling', 'islam', 'and', 'jashan', 'are', 'very', 'professional', 'and', 'greet', 'you', 'every', 'time', 'they', 'see', 'you', 'the', 'only', 'problem', 'is', 'mosquitoes', 'dont', 'forget', 'the', 'mosquitoe', 'repellent']</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>['ascott', 'residence', 'has', 'excellent', 'staff', 'and', 'food', 'sonia', 'romana', 'and', 'masood', 'are', 'warm', 'welcoming', 'and', 'attentive', 'to', 'every', 'need', 'all', 'the', 'staff', 'at', 'the', 'hotel', 'from', 'restaurant', 'to', 'housekeeping', 'are', 'lovely', 'id', 'recommend', 'this', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>['great', 'atmosphere', 'and', 'great', 'service', 'i', 'was', 'skeptical', 'at', 'first', 'but', 'they', 'provided', 'patience', 'and', 'understanding', 'to', 'every', 'whim', 'you', 'have', 'the', 'location', 'is', 'great', 'and', 'very', 'quiet', 'with', 'a', 'home', 'away', 'from', 'home', 'feel', 'if', 'you', 'need', 'to', 'stay', 'in', 'the', 'diplomatic', 'zone', 'this', 'is', 'the', 'hotel', 'for', 'you']</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>['it', 'was', 'fine', 'housekeeping', 'needs', 'some', 'improvements', 'room', 'is', 'clean', 'and', 'with', 'basic', 'items', 'staff', 'is', 'friendly', 'and', 'helpful', 'restaurant', 'staff', 'is', 'attentive', 'food', 'quality', 'is', 'above', 'average', 'price', 'is', 'reasonableneighbourhood', 'is', 'safe']</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>['friendly', 'and', 'very', 'helpfull', 'staf', 'good', 'place', 'to', 'stay', 'food', 'at', 'the', 'restaurant', 'was', 'good', 'and', 'cater', 'to', 'all', 'needs', 'breakfast', 'had', 'a', 'good', 'variety', 'had', 'a', 'great', 'time', 'staying', 'there', 'located', 'in', 'a', 'clean', 'and', 'safe', 'area']</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>['mr', 'tarik', 'and', 'his', 'team', 'made', 'me', 'feel', 'at', 'home', 'from', 'the', 'start', 'i', 'always', 'enjoyed', 'walking', 'from', 'my', 'residents', 'through', 'the', 'lush', 'residential', 'streets', 'to', 'their', 'hotel', 'where', 'i', 'often', 'dined', 'a', 'friendly', 'and', 'authentic', 'staff', 'with', 'undoubtably', 'the', 'best', 'coffee', 'in', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>['the', 'staff', 'is', 'very', 'welcoming', 'hospitable', 'and', 'friendly', 'mr', 'tarik', 'made', 'me', 'feel', 'right', 'at', 'home', 'mr', 'tarik', 'is', 'actively', 'engaged', 'with', 'guests', 'and', 'ensures', 'their', 'comfort', 'i', 'extend', 'a', 'personal', 'thank', 'you', 'to', 'mr', 'tarik', 'and', 'a', 'genuine', 'appreciation', 'for', 'the', 'entire', 'staff']</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>['we', 'love', 'the', 'hospitality', 'here', 'it', 'was', 'an', 'short', 'stay', 'but', 'a', 'moemoral', 'ones', 'the', 'people', 'here', 'were', 'good', 'with', 'their', 'services', 'and', 'special', 'thanks', 'to', 'hasain', 'sakib', 'and', 'mahedi', 'for', 'their', 'support', 'and', 'friendliness', 'along', 'the', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>['kind', 'staffs', 'clean', 'room', 'and', 'quiet', 'location', 'it', 'takes', 'min', 'to', 'gulshan', 'on', 'foot', 'also', 'ride', 'rikisha', 'as', 'well', 'restaurants', 'around', 'the', 'hotel', 'are', 'few', 'but', 'i', 'ordered', 'delivery', 'apps', 'pathao', 'i', 'will', 'back', 'to', 'here', 'again']</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>['very', 'hospitable', 'well', 'furnished', 'rooms', 'the', 'staff', 'were', 'very', 'friendly', 'and', 'accommodating', 'i', 'have', 'absolutely', 'no', 'complaints', 'albeit', 'location', 'can', 'prove', 'to', 'be', 'a', 'bit', 'of', 'a', 'problem', 'in', 'terms', 'of', 'finding', 'atms', 'transport', 'etc']</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>['excellent', 'hotel', 'and', 'i', 'will', 'definitely', 'stay', 'again', 'they', 'serve', 'good', 'food', 'drinks', 'hospitality', 'of', 'all', 'staffs', 'if', 'you', 'visit', 'dhaka', 'i', 'strongly', 'recommend', 'to', 'stay', 'the', 'ascott', 'residence', 'i', 'can', 'also', 'recommend', 'another', 'group', 'hotel', 'ascott', 'palace']</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>['good', 'atmosphere', 'with', 'a', 'good', 'variety', 'of', 'choices', 'in', 'breakfast', 'buffet', 'the', 'room', 'interior', 'is', 'nice', 'cozy', 'and', 'clean', 'also', 'a', 'lot', 'of', 'thanks', 'to', 'the', 'friendly', 'greetings', 'and', 'services', 'from', 'mr', 'mahedi', 'as', 'well', 'as', 'all', 'ther', 'other', 'staff', 'members']</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>['ascott', 'hotel', 'one', 'of', 'my', 'favorite', 'hotel', 'in', 'bangladesh', 'i', 'was', 'visited', 'with', 'my', 'wife', 'for', 'lunch', 'the', 'quality', 'of', 'food', 'and', 'service', 'was', 'really', 'good', 'mr', 'hasan', 'was', 'serve', 'us', 'he', 'is', 'super', 'star', 'also', 'mr', 'harun', 'mr', 'g', 'm', 'mosharraf', 'hossain', 'khoka', 'is', 'he', 'running', 'this', 'hotel', 'been', 'long', 'time', 'he', 'is', 'good', 'human', 'and', 'idol', 'for', 'bangladesh', 'hotel', 'industry', 'thank', 'you', 'mr', 'khoka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>['the', 'hotel', 'staff', 'greeted', 'me', 'with', 'smiles', 'and', 'delicious', 'mango', 'juice', 'but', 'its', 'a', 'bit', 'too', 'sweet', 'so', 'id', 'like', 'soda', 'if', 'possible', 'i', 'feel', 'safe', 'because', 'the', 'security', 'staff', 'of', 'the', 'hotel', 'properly', 'inspects', 'my', 'luggage', 'it', 'would', 'have', 'been', 'better', 'if', 'the', 'hotel', 'had', 'a', 'bar', 'where', 'you', 'could', 'drink', 'alcohol']</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>['very', 'nice', 'experience', 'great', 'staff', 'and', 'good', 'vibes', 'hotel', 'is', 'nice', 'location', 'rooms', 'are', 'good', 'and', 'service', 'was', 'good', 'rooms', 'were', 'what', 'was', 'needed', 'for', 'a', 'business', 'trip', 'breakfast', 'was', 'fine', 'good', 'experience', 'in', 'dhaka', 'very', 'friendly', 'staff', 'as', 'well', 'as', 'being', 'very', 'service', 'oriented']</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>['excellent', 'hotel', 'very', 'efficient', 'and', 'clean', 'zanjar', 'sonia', 'and', 'all', 'the', 'staff', 'knew', 'their', 'jobs', 'pick', 'up', 'at', 'airport', 'works', 'well', 'leave', 'plenty', 'of', 'time', 'to', 'get', 'to', 'the', 'airport', 'as', 'traffic', 'can', 'be', 'very', 'bad', 'unfortunately', 'there', 'is', 'not', 'much', 'to', 'do', 'at', 'the', 'airport', 'if', 'you', 'are', 'early']</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>['ascott', 'the', 'residence', 'is', 'nice', 'clean', 'and', 'the', 'staff', 'very', 'friendly', 'and', 'accommodating', 'i', 'had', 'a', 'pleasant', 'and', 'productive', 'visit', 'and', 'intend', 'on', 'staying', 'in', 'the', 'future', 'i', 'came', 'in', 'for', 'three', 'days', 'to', 'explore', 'dhaka', 'as', 'a', 'tourist', 'but', 'also', 'had', 'to', 'checkin', 'regularly', 'for', 'work', 'i', 'found', 'the', 'internet', 'fast', 'and', 'reliable', 'and', 'i', 'had', 'no', 'issue', 'getting', 'things', 'done', 'while', 'my', 'knowledge', 'of', 'the', 'city', 'isnt', 'deep', 'i', 'cant', 'imagine', 'a', 'better', 'location', 'than', 'ascotts', 'it', 'is', 'quiet', 'and', 'uncrowded', 'but', 'still', 'close', 'to', 'the', 'center', 'highly', 'recommended', 'for', 'either', 'tourism', 'or', 'business', 'purposes']</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>['after', 'finding', 'other', 'hotels', 'fully', 'booked', 'due', 'to', 'postcovid', 'booming', 'i', 'reluctantly', 'stayed', 'at', 'this', 'hotel', 'for', 'about', 'two', 'weeks', 'however', 'i', 'feel', 'that', 'the', 'management', 'has', 'changed', 'significantly', 'since', 'before', 'the', 'pandemic', 'and', 'that', 'the', 'basic', 'training', 'for', 'hotel', 'staff', 'is', 'insufficient', 'i', 'was', 'disturbed', 'during', 'my', 'stay', 'by', 'instances', 'such', 'as', 'staff', 'loudly', 'calling', 'out', 'names', 'in', 'the', 'restaurant', 'and', 'the', 'unstable', 'internet', 'connection', 'resulting', 'in', 'repeated', 'knocking', 'on', 'my', 'door', 'and', 'phone', 'calls', 'asking', 'if', 'everything', 'was', 'okay', 'after', 'i', 'had', 'made', 'a', 'complaint', 'three', 'hours', 'prior', 'the', 'lack', 'of', 'basic', 'training', 'for', 'hotel', 'employees', 'greatly', 'affected', 'my', 'sleep', 'quality', 'choosing', 'another', 'hotel', 'would', 'provide', 'a', 'more', 'secure', 'and', 'comfortable', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>['all', 'the', 'teams', 'is', 'good', 'working', 'everything', 'care', 'with', 'me', 'good', 'communicationsafisfy', 'with', 'the', 'internet', 'connection', 'good', 'food', 'good', 'house', 'keeping']</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>['i', 'would', 'like', 'to', 'complements', 'all', 'of', 'your', 'staff', 'being', 'very', 'professional', 'with', 'smile', 'thier', 'faceshave', 'been', 'very', 'impressive', 'in', 'thier', 'servicesi', 'would', 'like', 'to', 'visit', 'again', 'specially', 'like', 'to', 'mention', 'some', 'staff', 'names', 'ms', 'sonia', 'mr', 'masud', 'mr', 'mahmudul', 'hasan', 'house', 'keeping']</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>['the', 'service', 'was', 'excellent', 'with', 'respect', 'to', 'all', 'areas', 'by', 'zannat', 'hassan', 'and', 'habib', 'in', 'reception', 'shawan', 'in', 'airport', 'transfers', 'and', 'restaurant', 'i', 'recommend', 'this', 'hotel', 'quite', 'highly', 'for', 'service', 'with', 'a', 'smile', 'throughout', 'my', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>['feel', 'like', 'back', 'home', 'again', 'good', 'service', 'mind', 'and', 'taking', 'care', 'very', 'well', 'from', 'mr', 'mahedi', 'and', 'all', 'the', 'crew', 'very', 'good', 'test', 'for', 'the', 'food', 'especially', 'option', 'number', 'with', 'sweet', 'and', 'sour', 'soup', 'room', 'also', 'clean']</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>['here', 'is', 'quiet', 'good', 'as', 'foods', 'and', 'drinks', 'nice', 'all', 'receptionist', 'is', 'very', 'friendly', 'i', 'have', 'good', 'support', 'from', 'abdulla', 'when', 'i', 'have', 'issued', 'transport', 'from', 'hotel', 'to', 'airport', 'it', 'is', 'traffic', 'jam', 'i', 'worry', 'late', 'my', 'flight']</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>['this', 'is', 'very', 'good', 'hotel', 'hmm', 'when', 'i', 'was', 'last', 'time', 'stay', 'was', 'very', 'good', 'also', 'food', 'are', 'nice', 'today', 'airport', 'potocal', 'service', 'was', 'fine', 'and', 'check', 'in', 'is', 'nice', 'mr', 'sakib', 'very', 'good', 'person', 'also', 'mr', 'mahedi', 'is', 'very', 'fast', 'to', 'come', 'to', 'room', 'and', 'mention', 'everything', 'and', 'all', 'number']</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>['very', 'good', 'services', 'very', 'good', 'crew', 'specially', 'for', 'mrislam', 'good', 'attitudegood', 'foodgood', 'handling', 'from', 'reception', 'crew', 'good', 'attitude', 'from', 'restaurant', 'crew', 'good', 'support', 'from', 'the', 'drivers', 'keep', 'the', 'good', 'work', 'up']</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>['this', 'hotel', 'is', 'very', 'nice', 'good', 'everybody', 'behaviour', 'is', 'really', 'fantastic', 'bellboy', 'mahedi', 'is', 'very', 'smart', 'to', 'chuck', 'in', 'also', 'description', 'about', 'hotel', 'room', 'security', 'are', 'also', 'fine', 'to', 'security', 'all', 'everything', 'thanks', 'for', 'service']</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>['the', 'hotel', 'staff', 'was', 'attentive', 'and', 'very', 'helpful', 'particularly', 'zannat', 'at', 'the', 'front', 'desk', 'who', 'made', 'gracious', 'efforts', 'to', 'provide', 'timely', 'and', 'pertinent', 'assistance', 'the', 'rooms', 'are', 'ample', 'neat', 'and', 'cozy', 'and', 'the', 'hotel', 'location', 'is', 'unbeatable', 'i', 'would', 'recommend', 'a', 'stay', 'at', 'the', 'ascott', 'for', 'whomever', 'is', 'visiting', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>['the', 'hotel', 'was', 'very', 'well', 'situated', 'the', 'staff', 'were', 'very', 'friendly', 'and', 'welcoming', 'mr', 'mahedi', 'and', 'ms', 'jannat', 'was', 'very', 'helpful', 'to', 'us', 'and', 'provided', 'ample', 'attention', 'and', 'support', 'for', 'us', 'and', 'our', 'guests', 'overall', 'very', 'happy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>['the', 'hotel', 'is', 'just', 'nice', 'and', 'clean', 'as', 'the', 'expectation', 'the', 'service', 'is', 'also', 'great', 'would', 'be', 'a', 'nice', 'place', 'to', 'rest', 'or', 'during', 'bussiness', 'mahedi', 'and', 'abdullha', 'are', 'so', 'cool', 'serving', 'when', 'arrive', 'alot', 'of', 'supporting', 'just', 'you', 'can', 'ask', 'for', 'the', 'help', 'here']</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>['very', 'very', 'good', 'mahadi', 'san', 'he', 'is', 'a', 'bellboy', 'is', 'so', 'kind', 'that', 'he', 'explain', 'me', 'many', 'service', 'of', 'the', 'hotel', 'they', 'politely', 'explained', 'which', 'services', 'cost', 'money', 'and', 'which', 'were', 'free', 'i', 'would', 'like', 'to', 'come', 'to', 'this', 'hotel', 'again']</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>['clean', 'rooms', 'delicious', 'food', 'and', 'excellent', 'service', 'they', 'had', 'a', 'wide', 'spread', 'of', 'selections', 'for', 'breakfast', 'lunch', 'and', 'dinner', 'their', 'welcome', 'juice', 'was', 'tasty', 'too', 'shout', 'out', 'to', 'abdullah', 'shakib', 'and', 'islam', 'for', 'their', 'star', 'services']</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>['great', 'service', 'good', 'food', 'many', 'choices', 'good', 'vibes', 'peaceful', 'place', 'surrounding', 'comfort', 'room', 'friendly', 'employee', 'good', 'service', 'by', 'the', 'receptionist', 'abdullah', 'and', 'bellboy', 'islam', 'keep', 'up', 'the', 'good', 'work']</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>['front', 'desk', 'is', 'very', 'accommodating', 'room', 'services', 'were', 'very', 'helpful', 'the', 'room', 'is', 'very', 'clean', 'and', 'tidy', 'the', 'food', 'were', 'good', 'different', 'items', 'were', 'prepared', 'appreciated', 'the', 'complimentary', 'items', 'that', 'were', 'provided', 'great', 'services']</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>['the', 'service', 'was', 'excellent', 'and', 'i', 'feel', 'comfort', 'to', 'stay', 'here', 'always', 'room', 'service', 'found', 'excellent', 'mr', 'mahedi', 'behaviour', 'was', 'good', 'enough', 'and', 'he', 'was', 'very', 'cooperative', 'i', 'fully', 'satisfy', 'with', 'his', 'service', 'and', 'in', 'future', 'want', 'to', 'visit', 'more']</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>['everyone', 'was', 'very', 'hospitable', 'and', 'helpful', 'breakfast', 'is', 'good', 'and', 'japanese', 'seaweed', 'rolls', 'are', 'available', 'the', 'rooms', 'are', 'spacious', 'enough', 'and', 'have', 'good', 'internet', 'speeds', 'and', 'the', 'bathrooms', 'have', 'good', 'hot', 'water', 'mr', 'abdullah', 'was', 'also', 'helpful', 'during', 'checkout', 'the', 'airport', 'transfer', 'service', 'was', 'smooth']</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>['though', 'it', 'was', 'my', 'first', 'visit', 'in', 'dhaka', 'i', 'have', 'found', 'staff', 'was', 'very', 'cooperative', 'specially', 'mr', 'reaz', 'he', 'helped', 'me', 'lot', 'regarding', 'my', 'laundryroom', 'was', 'very', 'clean', 'as', 'well', 'as', 'food', 'was', 'very', 'delicious', 'i', 'must', 'recommend', 'this', 'hotel', 'and', 'i', 'will', 'inform', 'to', 'my', 'company', 'to', 'accommodate', 'me', 'in', 'my', 'next', 'travel', 'once', 'i', 'back', 'dhaka', 'again']</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>['good', 'serviced', 'from', 'andullah', 'and', 'teamdinner', 'and', 'breakfast', 'was', 'great', 'test', 'and', 'deliciouswe', 'will', 'back', 'again', 'and', 'ascott', 'hotel', 'alway', 'the', 'bast', 'for', 'our', 'team', 'for', 'transition', 'and', 'visit', 'in', 'dhaka', 'bangladesh', 'thank', 'you']</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>['it', 'is', 'nice', 'stay', 'communication', 'was', 'good', 'would', 'like', 'to', 'stay', 'again', 'when', 'i', 'visit', 'bangladesh', 'thanks', 'for', 'mr', 'abdullah', 'and', 'mr', 'islam', 'for', 'better', 'service', 'breakfast', 'was', 'good', 'i', 'recommend', 'to', 'visit', 'anyone', 'who', 'want', 'to', 'visit']</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>['mr', 'abdullah', 'and', 'mr', 'habib', 'were', 'really', 'very', 'helpful', 'my', 'stay', 'was', 'very', 'nice', 'people', 'were', 'always', 'talking', 'to', 'me', 'and', 'asking', 'how', 'i', 'was', 'and', 'if', 'i', 'slept', 'well', 'hotel', 'location', 'is', 'good', 'very', 'accessible', 'and', 'good', 'neighborhood', 'truly', 'a', 'recommended', 'hotel', 'to', 'anyone', 'visiting', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>['really', 'nice', 'stay', 'room', 'super', 'cleaned', 'friendly', 'staff', 'emplacement', 'of', 'the', 'hotel', 'really', 'convenient', 'and', 'all', 'services', 'available', 'at', 'the', 'hotel', 'with', 'good', 'service', 'made', 'me', 'feel', 'at', 'home', 'definitely', 'recommend', 'it']</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>['we', 'stayed', 'for', 'nights', 'at', 'ascott', 'the', 'residence', 'in', 'nov', 'having', 'stayed', 'at', 'another', 'nearby', 'hotel', 'right', 'before', 'moving', 'to', 'ascott', 'ill', 'have', 'to', 'say', 'that', 'ascott', 'was', 'excellent', 'the', 'room', 'was', 'beautiful', 'with', 'very', 'clean', 'sheets', 'nice', 'aircon', 'and', 'a', 'great', 'toilet', 'more', 'importantly', 'the', 'staff', 'were', 'all', 'very', 'friendly', 'and', 'professional', 'from', 'the', 'security', 'personnel', 'and', 'bellboy', 'right', 'up', 'to', 'the', 'manager', 'special', 'shoutout', 'to', 'miss', 'joanna', 'for', 'her', 'kind', 'assistance', 'in', 'making', 'our', 'stay', 'a', 'memorable', 'one', 'and', 'habibur', 'for', 'excellent', 'service', 'and', 'friendliness', 'during', 'breakfast']</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>['its', 'very', 'warm', 'welcoming', 'n', 'staff', 'is', 'very', 'helpful', 'they', 'help', 'us', 'in', 'each', 'n', 'every', 'way', 'specially', 'sonia', 'at', 'the', 'break', 'fast', 'desk', 'they', 'really', 'helped', 'us', 'with', 'language', 'issue', 'which', 'we', 'were', 'facing', 'it', 'very', 'badly', 'but', 'the', 'staff', 'made', 'it', 'very', 'smooth', 'for', 'us', 'n', 'guided', 'us']</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>['this', 'is', 'my', 'st', 'time', 'staying', 'here', 'in', 'over', 'years', 'but', 'i', 'will', 'say', 'these', 'people', 'remember', 'you', 'from', 'airport', 'collection', 'to', 'reservations', 'to', 'even', 'mohammed', 'ali', 'he', 'is', 'the', 'boy', 'in', 'restaurant', 'all', 'a', 'good', 'crew', 'here', 'this', 'was', 'all', 'in', 'my', 'hours', 'of', 'being', 'back', 'here']</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>['stayed', 'for', 'a', 'few', 'days', 'nice', 'hotel', 'in', 'quiet', 'surroundings', 'in', 'baridhara', 'the', 'room', 'was', 'clean', 'and', 'comfortable', 'the', 'staff', 'was', 'friendly', 'and', 'the', 'service', 'was', 'good', 'all', 'in', 'all', 'i', 'was', 'satisfied', 'and', 'i', 'would', 'happily', 'come', 'back']</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>['it', 'was', 'a', 'good', 'place', 'to', 'sleepvery', 'relaxing', 'placehave', 'a', 'good', 'food', 'also', 'good', 'serviceand', 'good', 'workerit', 'is', 'also', 'have', 'a', 'good', 'viewif', 'you', 'need', 'something', 'they', 'can', 'provide', 'it', 'to', 'youto', 'many', 'food', 'to', 'choosekeep', 'it', 'good', 'work']</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>['friendly', 'staff', 'makes', 'my', 'stay', 'memorable', 'one', 'every', 'time', 'thanks', 'to', 'mr', 'abdullah', 'and', 'mr', 'islam', 'sheik', 'though', 'i', 'have', 'no', 'plan', 'to', 'back', 'to', 'dhaka', 'at', 'this', 'moment', 'i', 'will', 'surely', 'stay', 'at', 'the', 'ascott', 'the', 'residence', 'next', 'time']</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>['everything', 'is', 'good', 'from', 'staff', 'to', 'hospitality', 'cleanlinessthe', 'quality', 'of', 'servicethe', 'restaurant', 'staff', 'are', 'very', 'friendlythey', 'make', 'you', 'feel', 'so', 'special', 'especially', 'sonia', 'i', 'stay', 'there', 'every', 'time', 'i', 'visit', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>['very', 'good', 'hospitally', 'from', 'zannat', 'usman', 'bhai', 'and', 'maruf', 'and', 'the', 'team', 'members', 'and', 'i', 'like', 'to', 'stay', 'this', 'hotel', 'for', 'the', 'future', 'recommended', 'for', 'tou', 'stay', 'in', 'this', 'hotel', 'i', 'like', 'the', 'food', 'and', 'gym', 'place', 'also', 'nice', 'you', 'can', 'enjoy', 'your', 'karaoke', 'time', 'at', 'night', 'on', 'roof', 'top']</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>['best', 'hospitality', 'at', 'ascott', 'hotel', 'dhaka', 'appreciate', 'welcome', 'and', 'take', 'care', 'at', 'reception', 'by', 'senior', 'staff', 'name', 'jannatthanks', 'to', 'jannat', 'for', 'wonderful', 'hospitality', 'hope', 'to', 'visit', 'ascott', 'hotel', 'in', 'next', 'visit', 'in', 'november', 'i', 'am', 'very', 'happy', 'and', 'delighted']</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>['we', 'are', 'confined', 'to', 'stay', 'in', 'only', 'allowed', 'hotels', 'due', 'to', 'security', 'purpose', 'ascott', 'is', 'great', 'choice', 'among', 'those', 'and', 'i', 'stayed', 'more', 'than', 'two', 'months', 'staff', 'are', 'well', 'trained', 'and', 'highly', 'hospitality', 'minded', 'one', 'thing', 'missing', 'is', 'a', 'small', 'kitchen', 'facility', 'in', 'the', 'room', 'for', 'long', 'staying', 'guest']</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>['restaurant', 'team', 'are', 'welcoming', 'attentive', 'and', 'friendly', 'every', 'day', 'a', 'friendly', 'greeting', 'from', 'sonia', 'and', 'team', 'suite', 'room', 'is', 'well', 'provided', 'with', 'facilities', 'hard', 'to', 'find', 'in', 'dhaka', 'perfect', 'for', 'an', 'extended', 'stay', 'baridhara', 'is', 'a', 'quiet', 'neighbourhood', 'with', 'parks', 'and', 'possible', 'to', 'walk', 'around', 'freely', 'to', 'the', 'park', 'small', 'minimart', 'or', 'coffee', 'shop']</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>['the', 'staffs', 'were', 'super', 'friendly', 'especially', 'to', 'tarik', 'sonia', 'and', 'hasan', 'recommend', 'to', 'stay', 'here', 'tarik', 'was', 'very', 'professional', 'and', 'keen', 'to', 'help', 'all', 'the', 'guest', 'im', 'very', 'satisfied', 'definitely', 'come', 'again', 'for', 'next', 'trip', 'however', 'the', 'room', 'can', 'be', 'improved', 'the', 'room', 'need', 'to', 'be', 'updated', 'accordingly', 'to', 'modern', 'facilities', 'any', 'other', 'employees', 'should', 'be', 'trained', 'accordingly', 'to', 'international', 'standard']</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>['very', 'satisfied', 'with', 'the', 'service', 'from', 'ascott', 'palace', 'management', 'specially', 'bashar', 'and', 'jubayer', 'was', 'always', 'therefore', 'very', 'well', 'mannered', 'and', 'cooperative', 'behavior', 'food', 'quality', 'was', 'upto', 'the', 'mark', 'and', 'as', 'per', 'requirement']</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>['a', 'comfortable', 'and', 'quiet', 'hotel', 'with', 'enough', 'amenities', 'equipped', 'your', 'requests', 'and', 'problems', 'are', 'promptly', 'addressed', 'my', 'stay', 'was', 'a', 'bit', 'long', 'more', 'than', 'month', 'but', 'my', 'stay', 'was', 'quite', 'comfortable', 'there', 'staff', 'were', 'friendly', 'and', 'helpful', 'mohhamad', 'of', 'the', 'front', 'desk', 'sonia', 'in', 'the', 'restaurant', 'tarik', 'officer', 'and', 'all', 'other', 'staff', 'of', 'front', 'desk', 'bellboy', 'housekeeping', 'restaurant', 'security', 'were', 'willing', 'to', 'help', 'my', 'stay', 'there', 'great', 'one', 'i', 'took', 'some', 'room', 'services', 'and', 'the', 'taste', 'was', 'nice']</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>['we', 'had', 'a', 'pleasant', 'time', 'at', 'ascott', 'the', 'residence', 'i', 'traveled', 'to', 'bangladesh', 'with', 'my', 'husband', 'and', 'two', 'children', 'after', 'a', 'very', 'long', 'time', 'i', 'was', 'concerned', 'about', 'safety', 'mr', 'md', 'ibrahim', 'reservation', 'supervisor', 'assured', 'ascott', 'the', 'residence', 'was', 'a', 'safe', 'place', 'to', 'be', 'and', 'i', 'felt', 'very', 'safe', 'throughout', 'our', 'stay', 'mr', 'shafiq', 'the', 'airport', 'protocol', 'officer', 'was', 'patiently', 'waiting', 'for', 'us', 'when', 'we', 'arrived', 'ms', 'sonia', 'greeted', 'us', 'every', 'morning', 'for', 'breakfast', 'and', 'made', 'sure', 'we', 'had', 'everything', 'we', 'needed', 'she', 'packed', 'bakery', 'for', 'us', 'when', 'we', 'went', 'for', 'a', 'trip', 'and', 'the', 'day', 'we', 'were', 'leaving', 'because', 'i', 'missed', 'breakfast', 'it', 'was', 'delightful', 'to', 'see', 'her', 'every', 'morning', 'the', 'staff', 'abu', 'bakor', 'and', 'habib', 'were', 'helpful', 'overall', 'every', 'staff', 'we', 'met', 'were', 'very', 'nice', 'and', 'made', 'our', 'stay', 'comfortable', 'we', 'had', 'the', 'the', 'business', 'suite', 'we', 'really', 'liked']</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>['i', 'am', 'staying', 'in', 'this', 'hotel', 'since', 'last', 'month', 'the', 'staff', 'is', 'very', 'friendly', 'professional', 'and', 'always', 'ready', 'to', 'assistthe', 'rooms', 'are', 'clean', 'and', 'large', 'with', 'lovely', 'decor', 'and', 'cushy', 'bed', 'that', 'are', 'pure', 'white', 'and', 'so', 'comfortable', 'food', 'is', 'very', 'goodfreshtasty', 'and', 'healthyrestorant', 'staff', 'is', 'very', 'polite', 'radiant', 'and', 'made', 'me', 'feel', 'at', 'home', 'they', 'have', 'to', 'improve', 'laundry', 'service', 'because', 'some', 'time', 'they', 'not', 'remove', 'stains', 'properly', 'highly', 'recommend', 'this', 'hotel', 'if', 'i', 'came', 'again', 'this', 'area', 'i', 'would', 'like', 'to', 'stay', 'here']</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>['had', 'a', 'great', 'felling', 'here', 'hospitality', 'is', 'on', 'next', 'level', 'feel', 'like', 'home', 'here', 'all', 'staff', 'is', 'very', 'pleasant', 'need', 'to', 'mention', 'some', 'person', 'which', 'i', 'interact', 'more', 'first', 'is', 'mr', 'tarik', 'and', 'other', 'is', 'miss', 'soniya', 'pleasure', 'meeting', 'you', 'both', 'lots', 'of', 'love', 'from', 'india']</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>['it', 'was', 'my', 'first', 'visit', 'to', 'dhaka', 'and', 'i', 'stayed', 'at', 'the', 'ascott', 'hotel', 'the', 'best', 'word', 'to', 'sum', 'up', 'my', 'experience', 'would', 'be', 'a', 'fantastic', 'hotel', 'a', 'everyone', 'here', 'is', 'welltrained', 'friendly', 'and', 'eager', 'to', 'do', 'their', 'best', 'to', 'meet', 'our', 'needs', 'b', 'the', 'hotel', 'is', 'located', 'in', 'dhakas', 'affluent', 'region', 'the', 'diplomatic', 'zone', 'of', 'baridhara', 'in', 'a', 'calm', 'and', 'wellkept', 'area', 'that', 'belies', 'the', 'image', 'of', 'the', 'city', 'you', 'have', 'in', 'your', 'mind', 'c', 'im', 'also', 'pleased', 'with', 'the', 'restaurants', 'food', 'quality', 'the', 'staff', 'and', 'salman', 'tarik', 'bhai', 'who', 'also', 'happens', 'to', 'be', 'the', 'coowner', 'pr', 'head', 'tarik', 'is', 'a', 'fantastic', 'person', 'and', 'ive', 'gained', 'much', 'knowledge', 'about', 'bangladesh', 'and', 'its', 'culture', 'from', 'him', 'i', 'anticipate', 'returning', 'here', 'once', 'more']</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>['hi', 'mahmud', 'russel', 'it', 'was', 'nice', 'time', 'i', 'had', 'spent', 'in', 'your', 'hotel', 'stayed', 'for', 'days', 'so', 'admirable', 'polite', 'humans', 'from', 'entrance', 'to', 'manager', 'to', 'service', 'staff', 'etc', 'really', 'your', 'team', 'is', 'performing', 'good', 'mrrobin', 'and', 'captain', 'were', 'doing', 'a', 'great', 'job', 'i', 'do', 'visit', 'again', 'n', 'again', 'spacious', 'rooms', 'hygienic', 'and', 'well', 'maintained', 'buffet', 'superb', 'god', 'bless', 'you', 'guys', 'to', 'serve', 'more', 'and', 'more']</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>['i', 'stayed', 'in', 'the', 'hotel', 'for', 'more', 'than', 'a', 'week', 'the', 'stay', 'was', 'great', 'the', 'staff', 'was', 'very', 'warm', 'and', 'welcoming', 'special', 'thanks', 'to', 'mr', 'tarik', 'he', 'is', 'great', 'in', 'management', 'and', 'guest', 'relations', 'the', 'hotel', 'is', 'in', 'prime', 'location', 'has', 'good', 'security', 'and', 'safe', 'surroundings', 'there', 'are', 'lakes', 'gardens', 'nearby', 'for', 'relaxing', 'and', 'jogging', 'breakfast', 'spread', 'and', 'food', 'is', 'also', 'nice', 'overall', 'it', 'was', 'a', 'very', 'good', 'experience', 'would', 'recommend', 'for', 'family', 'as', 'well', 'as', 'business', 'stays']</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>['the', 'place', 'is', 'comfortable', 'the', 'stuff', 'is', 'good', 'sonia', 'is', 'a', 'very', 'nice', 'employer', 'always', 'ready', 'to', 'help', 'and', 'support', 'food', 'is', 'goodthe', 'location', 'is', 'very', 'good', 'rooms', 'are', 'gooda', 'good', 'suggestion', 'to', 'stay', 'when', 'you', 'come', 'in', 'business', 'on', 'the', 'end', 'of', 'the', 'day', 'you', 'can', 'relax', 'no', 'noise', 'and', 'calm']</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>['i', 'have', 'been', 'staying', 'at', 'this', 'hotel', 'for', 'about', 'a', 'month', 'and', 'everyone', 'is', 'friendly', 'and', 'very', 'comfortable', 'they', 'try', 'to', 'remember', 'the', 'room', 'numbers', 'and', 'food', 'preferences', 'of', 'longstay', 'guests', 'and', 'try', 'to', 'serve', 'us', 'comfortably', 'when', 'it', 'comes', 'to', 'breakfast', 'sonia', 'and', 'hasan', 'in', 'particular', 'have', 'been', 'a', 'great', 'help', 'to', 'me', 'every', 'morning']</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>['stay', 'at', 'ascott', 'was', 'very', 'warm', 'staff', 'are', 'very', 'courteous', 'and', 'the', 'location', 'of', 'baridhara', 'is', 'just', 'amazing', 'and', 'quiet', 'spl', 'mention', 'of', 'mr', 'tariq', 'he', 'helped', 'in', 'all', 'the', 'hotel', 'formalities', 'and', 'served', 'with', 'smile', 'looking', 'forward', 'to', 'travelling', 'again', 'there']</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>['great', 'hotelgood', 'support', 'and', 'service', 'from', 'staff', 'thanks', 'sonia', 'and', 'hasan', 'for', 'good', 'services', 'and', 'all', 'good', 'delicious', 'food', 'hope', 'to', 'be', 'back', 'here', 'again', 'in', 'the', 'future', 'who', 'are', 'looking', 'for', 'a', 'good', 'hotel', 'i', 'would', 'recommend', 'here']</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>['room', 'and', 'people', 'are', 'good', 'best', 'place', 'to', 'stay', 'during', 'transit', 'at', 'baridhara', 'area', 'room', 'are', 'tidy', 'food', 'at', 'restoran', 'during', 'breakfast', 'are', 'exelance', 'room', 'boy', 'sheikh', 'have', 'good', 'bahaviour', 'fahad', 'was', 'a', 'resiptionist', 'has', 'good', 'personality']</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>['excellent', 'hotel', 'most', 'friendly', 'staff', 'and', 'best', 'service', 'mr', 'basher', 'has', 'been', 'our', 'host', 'for', 'the', 'week', 'and', 'he', 'has', 'been', 'doing', 'his', 'job', 'full', 'of', 'passion', 'we', 'are', 'most', 'greatful', 'to', 'him', 'and', 'his', 'collegues', 'also', 'we', 'enjoyed', 'the', 'dinner', 'on', 'the', 'rooftop', 'restaurant', 'and', 'the', 'breakfast', 'was', 'delicious', 'we', 'recommend', 'this', 'hotel', 'to', 'tourist', 'and', 'business', 'people', 'it', 'is', 'located', 'in', 'the', 'most', 'safe', 'part', 'of', 'the', 'town', 'next', 'to', 'all', 'the', 'ambassies', 'family', 'van', 'haaren', 'from', 'the', 'netherlands']</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>['good', 'service', 'all', 'the', 'time', 'by', 'all', 'staff', 'of', 'the', 'hotel', 'and', 'alway', 'there', 'to', 'help', 'the', 'geust', 'all', 'situation', 'of', 'the', 'guest', 'really', 'appreciated', 'the', 'crew', 'of', 'hotel', 'from', 'my', 'side', 'handoff', 'all', 'the', 'hotel', 'staff', 'and', 'front', 'office']</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>['mr', 'mahmudol', 'hasan', 'is', 'a', 'very', 'warm', 'sophisticated', 'and', 'able', 'hospitality', 'professional', 'i', 'recommend', 'him', 'very', 'highly', 'for', 'hospitality', 'especially', 'room', 'attending', 'services', 'his', 'behavior', 'punctuality', 'and', 'approach', 'to', 'work', 'is', 'very', 'comfortable', 'and', 'effective']</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>['the', 'staff', 'are', 'very', 'friendly', 'the', 'premises', 'are', 'always', 'very', 'clean', 'and', 'well', 'maintainedthe', 'front', 'office', 'and', 'all', 'department', 'are', 'very', 'supportive', 'and', 'especially', 'mr', 'fahad', 'are', 'always', 'looking', 'out', 'for', 'the', 'best', 'for', 'the', 'guest']</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>['overall', 'service', 'was', 'great', 'very', 'satisfied', 'with', 'the', 'hospitali', 'of', 'the', 'staffs', 'specifically', 'pleased', 'with', 'the', 'service', 'of', 'ms', 'sonia', 'and', 'mr', 'habibur', 'they', 'were', 'very', 'efficient', 'especially', 'ms', 'sonia', 'was', 'very', 'warm', 'and', 'friendly', 'an', 'awesome', 'experience', 'so', 'far']</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>['overall', 'service', 'was', 'great', 'very', 'satisfied', 'with', 'the', 'hospitality', 'of', 'the', 'staffs', 'specifically', 'pleased', 'with', 'the', 'service', 'of', 'mr', 'abul', 'bashar', 'and', 'mr', 'abu', 'bakor', 'they', 'were', 'very', 'efficient', 'a', 'great', 'experience', 'so', 'far']</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>['as', 'someone', 'who', 'comes', 'to', 'dhaka', 'very', 'often', 'i', 'found', 'the', 'perfect', 'quite', 'place', 'to', 'stay', 'ascott', 'residence', 'in', 'baridhara', 'road', 'i', 'like', 'this', 'hotel', 'because', 'i', 'feel', 'not', 'only', 'safe', 'here', 'also', 'relaxed', 'and', 'rejuvenated', 'after', 'spending', 'a', 'day', 'in', 'noisy', 'and', 'dusty', 'dhaka', 'coming', 'back', 'to', 'ascott', 'residence', 'makes', 'me', 'feel', 'like', 'im', 'in', 'paradise', 'similar', 'to', 'travellers', 'coming', 'across', 'an', 'oasis', 'after', 'a', 'long', 'journey', 'in', 'the', 'desert', 'clean', 'rooms', 'friendly', 'staff', 'which', 'are', 'always', 'willing', 'to', 'help', 'and', 'assist', 'and', 'good', 'quality', 'food', 'from', 'many', 'cuisines', 'i', 'have', 'stayed', 'in', 'many', 'hotels', 'in', 'gulshan', 'banani', 'and', 'baridhara', 'and', 'amongst', 'all', 'of', 'them', 'i', 'would', 'choose', 'ascott', 'residence', 'it', 'has', 'the', 'best', 'dollar', 'value']</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>['today', 'we', 'chose', 'the', 'special', 'menu', 'seafood', 'plate', 'at', 'the', 'hotel', 'restaurant', 'the', 'food', 'was', 'very', 'tasty', 'the', 'guidance', 'and', 'service', 'provided', 'by', 'the', 'support', 'staff', 'mohammad', 'ali', 'and', 'ana', 'emon', 'was', 'excellent', 'thank', 'you', 'for', 'your', 'continued', 'support', 'during', 'our', 'stay', 'at', 'the', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>['a', 'quiet', 'cheerful', 'place', 'sonia', 'in', 'the', 'dining', 'room', 'was', 'fantastic', 'as', 'were', 'all', 'the', 'folks', 'at', 'the', 'front', 'desk', 'the', 'neighborhood', 'is', 'walkable', 'and', 'the', 'rooftop', 'terrace', 'is', 'serene', 'very', 'glad', 'i', 'stayed', 'here', 'for', 'four', 'days', 'i', 'would', 'come', 'back', 'to', 'ascott', 'the', 'residence', 'in', 'a', 'heartbeat']</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>['everything', 'is', 'smooth', 'every', 'day', 'newspaper', 'is', 'provided', 'it', 'is', 'vey', 'comfortable', 'i', 'enjoyed', 'nice', 'airport', 'shuttle', 'service', 'i', 'will', 'come', 'back', 'again', 'thank', 'you', 'mr', 'tarik', 'sometimes', 'i', 'enjoy', 'room', 'upgrade', 'for', 'free']</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>['wonderful', 'ambiance', 'friendly', 'staff', 'beautiful', 'rooms', 'it', 'was', 'truly', 'a', 'pleasure', 'to', 'stay', 'at', 'the', 'ascott', 'residence', 'and', 'i', 'would', 'highly', 'recommend', 'this', 'hotel', 'to', 'other', 'business', 'travellers', 'i', 'will', 'definitely', 'return', 'here', 'in', 'the', 'future', 'thank', 'you']</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>['excellent', 'hotel', 'with', 'excellent', 'hospitality', 'by', 'front', 'office', 'dept', 'specially', 'fahad', 'behivors', 'is', 'amazing', 'and', 'all', 'servive', 'is', 'good', 'restaurant', 'and', 'food', 'is', 'good', 'thanks', 'for', 'all', 'regards', 'jan', 'fredrik', 'pattikawa']</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>['undoubtedly', 'a', 'place', 'where', 'i', 'love', 'to', 'stay', 'while', 'staying', 'in', 'dhaka', 'let', 'it', 'be', 'my', 'business', 'trip', 'or', 'personal', 'one', 'the', 'restaurant', 'guys', 'serves', 'the', 'exact', 'one', 'which', 'is', 'asked', 'while', 'the', 'behavior', 'allows', 'to', 'feel', 'cozy', 'and', 'experience', 'the', 'best', 'suited', 'place', 'for', 'me']</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>['very', 'clean', 'room', 'and', 'friendly', 'staff', 'breakfast', 'was', 'also', 'very', 'nice', 'they', 'allowed', 'staying', 'us', 'until', 'we', 'move', 'to', 'the', 'airport', 'with', 'free', 'of', 'charge', 'thank', 'you', 'mahmud', 'definitely', 'stay', 'again', 'location', 'is', 'also', 'good']</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>['experienced', 'good', 'stay', 'with', 'respectable', 'staff', 'i', 'selected', 'this', 'hotel', 'after', 'visiting', 'hotels', 'in', 'dhaka', 'and', 'tested', 'hotels', 'in', 'the', 'country', 'this', 'is', 'the', 'best', 'with', 'comparison', 'with', 'the', 'price', 'the', 'location', 'is', 'good', 'calm', 'and', 'suitable', 'especially', 'for', 'those', 'are', 'working', 'with', 'embassies', 'as', 'it', 'is', 'in', 'same', 'area', 'especial', 'thanks', 'to', 'sonia', 'nipune', 'as', 'managing', 'the', 'restaurant', 'perfectly', 'and', 'for', 'beautiful', 'given', 'flower', 'but', 'everybody', 'tried', 'their', 'best', 'for', 'me', 'to', 'enjoy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>['all', 'hotel', 'staff', 'are', 'friendly', 'and', 'helpfully', 'breakfasts', 'menu', 'is', 'always', 'fresh', 'room', 'is', 'big', 'and', 'clean', 'with', 'more', 'than', 'tv', 'channel', 'that', 'location', 'is', 'in', 'barridhara', 'so', 'close', 'to', 'the', 'jamuna', 'shoping', 'mall', 'and', 'my', 'office', 'at', 'ghulsan', 'area']</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>['bourique', 'style', 'hotel', 'with', 'friendly', 'staff', 'and', 'nice', 'clean', 'and', 'silent', 'rooms', 'located', 'in', 'secluded', 'and', 'calm', 'baridhara', 'diplomat', 'district', 'and', 'close', 'to', 'airport', 'and', 'downtown', 'perfect', 'three', 'day', 'stay', 'in', 'busy', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>['the', 'ascott', 'hotel', 'is', 'a', 'good', 'option', 'for', 'any', 'kind', 'of', 'traveler', 'and', 'staff', 'is', 'very', 'nice', 'and', 'helpful', 'thank', 'you', 'so', 'much', 'for', 'mr', 'robin', 'at', 'front', 'desk', 'to', 'be', 'very', 'efficient', 'and', 'friendly', 'and', 'also', 'for', 'mr', 'sohagh', 'for', 'all', 'the', 'time', 'being', 'friendly', 'and', 'also', 'helping', 'carrying', 'the', 'luggage', 'i', 'strongly', 'recommend', 'ascott']</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>['it', 'is', 'surprising', 'to', 'find', 'such', 'a', 'hotel', 'in', 'busy', 'crowded', 'city', 'of', 'dhaka', 'to', 'find', 'such', 'a', 'safe', 'and', 'environment', 'friendly', 'hotel', 'to', 'enjoy', 'restful', 'stay', 'and', 'eat', 'at', 'well', 'desirable', 'restaurant', 'where', 'you', 'are', 'served', 'with', 'great', 'care', 'very', 'good', 'staff', 'basher', 'arfan', 'emon']</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>['this', 'place', 'is', 'a', 'gemfrom', 'the', 'receptionist', 'to', 'all', 'the', 'staffsthey', 'were', 'very', 'friendly', 'that', 'we', 'felt', 'definitely', 'at', 'homemr', 'harun', 'from', 'fb', 'royal', 'treat', 'will', 'always', 'make', 'sure', 'our', 'babys', 'food', 'is', 'also', 'ready', 'for', 'dine', 'in', 'everydaymr', 'anwar', 'from', 'housekeeping', 'dept', 'was', 'very', 'helpful', 'in', 'making', 'sure', 'our', 'room', 'is', 'always', 'clean', 'and', 'special', 'thanks', 'to', 'mr', 'habibur', 'from', 'concierge', 'for', 'taking', 'care', 'of', 'all', 'our', 'belonging', 'and', 'definitely', 'to', 'ms', 'zannat', 'our', 'beloved', 'receptionistshe', 'helped', 'me', 'a', 'lot', 'during', 'my', 'stay', 'herethese', 'experiences', 'are', 'truly', 'memorable', 'for', 'us', 'whole', 'family', 'and', 'we', 'will', 'definitely', 'visit', 'this', 'place', 'again']</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>['i', 'fill', 'comfortable', 'and', 'they', 'are', 'service', 'is', 'good', 'enough', 'all', 'the', 'staff', 'always', 'served', 'with', 'a', 'smiley', 'face', 'the', 'recipe', 'offered', 'by', 'them', 'for', 'guest', 'are', 'healthy', 'they', 'try', 'to', 'meet', 'the', 'customer', 'requirement', 'even', 'try', 'their', 'level', 'best']</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>['ascott', 'the', 'residence', 'is', 'a', 'nice', 'quiet', 'and', 'clean', 'hotel', 'the', 'service', 'is', 'excellent', 'mr', 'basher', 'and', 'mr', 'shahadad', 'were', 'extremely', 'helpful', 'throughout', 'my', 'stay', 'would', 'definitely', 'recommend', 'to', 'guests', 'travelling', 'to', 'dhaka', 'bangladesh']</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>['every', 'time', 'i', 'visited', 'ascott', 'it', 'feels', 'like', 'partly', 'arriving', 'home', 'the', 'staff', 'is', 'welcoming', 'especially', 'sonia', 'gives', 'big', 'effort', 'to', 'make', 'me', 'happy', 'the', 'rooms', 'are', 'clean', 'and', 'spacious', 'there', 'are', 'plenty', 'of', 'international', 'food', 'options', 'in', 'the', 'menu', 'of', 'the', 'restaurant', 'and', 'most', 'of', 'them', 'have', 'decent', 'taste', 'highly', 'recommended']</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>['they', 'were', 'able', 'to', 'meet', 'my', 'various', 'requests', 'including', 'extending', 'my', 'stay', 'during', 'the', 'first', 'part', 'of', 'our', 'stay', 'breakfast', 'was', 'on', 'order', 'every', 'day', 'due', 'to', 'covid', 'when', 'i', 'stayed', 'there', 'in', 'june', 'this', 'year', 'they', 'served', 'mangoes', 'for', 'breakfast', 'which', 'was', 'delicious', 'but', 'i', 'was', 'little', 'disappointed', 'that', 'there', 'were', 'no', 'mangoes', 'this', 'time']</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>['the', 'hotel', 'staff', 'was', 'so', 'kind', 'to', 'me', 'especially', 'sonia', 'mahbub', 'and', 'zannet', 'this', 'was', 'the', 'first', 'time', 'to', 'visit', 'bangladesh', 'so', 'i', 'didnt', 'know', 'enough', 'information', 'like', 'foods', 'coffee', 'stores', 'they', 'kindly', 'told', 'me', 'about', 'it', 'and', 'those', 'were', 'really', 'nice', 'again', 'thank', 'you', 'so', 'much', 'for', 'your', 'support', 'and', 'giving', 'me', 'special', 'milk', 'tea', 'as', 'well']</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>['it', 'was', 'nice', 'to', 'stay', 'here', 'with', 'great', 'hospitality', 'and', 'service', 'they', 'are', 'good', 'at', 'hospitality', 'food', 'serving', 'at', 'room', 'and', 'continuous', 'takibg', 'care', 'behavior', 'was', 'good', 'from', 'restaurant', 'they', 'were', 'also', 'good', 'at', 'food', 'serving', 'keep', 'goes', 'on', 'like', 'this']</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>['in', 'entering', 'the', 'hotel', 'looks', 'quite', 'ok', 'but', 'only', 'to', 'go', 'to', 'the', 'restroom', 'shows', 'exact', 'what', 'is', 'the', 'standards', 'here', 'staff', 'members', 'are', 'not', 'paying', 'attention', 'to', 'new', 'guests', 'only', 'frequent', 'people', 'the', 'food', 'is', 'not', 'very', 'good', 'at', 'the', 'restaurant', 'and', 'served', 'cold', 'and', 'underdone', 'i', 'asked', 'to', 'speak', 'to', 'the', 'cook', 'but', 'was', 'told', 'he', 'left', 'early', 'no', 'manager', 'around', 'only', 'a', 'suoerviser', 'not', 'professional', 'at', 'all', 'meeting', 'room', 'very', 'dark', 'and', 'not', 'clean']</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>['i', 'frequently', 'visit', 'ascott', 'the', 'residence', 'for', 'family', 'visit', 'as', 'well', 'for', 'business', 'i', 'would', 'like', 'to', 'say', 'that', 'i', 'have', 'found', 'mr', 'tuhin', 'mollah', 'always', 'dedicated', 'for', 'his', 'work', 'he', 'is', 'wellmanered', 'knows', 'wht', 'hia', 'jib', 'is', 'very', 'well', 'i', 'wish', 'him', 'all', 'the', 'best']</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>['safe', 'location', 'adequate', 'amenities', 'great', 'staffs', 'and', 'service', 'heheh', 'no', 'sale', 'of', 'liquor', 'though', 'rates', 'are', 'reasonable', 'high', 'marks', 'for', 'hospitality', 'among', 'others', 'had', 'a', 'light', 'conversation', 'with', 'a', 'staff', 'named', 'tuhin']</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>['really', 'a', 'nice', 'stay', 'the', 'restaurant', 'host', 'ms', 'dewan', 'and', 'the', 'staff', 'is', 'always', 'ready', 'to', 'help', 'you', 'out', 'with', 'your', 'needs', 'different', 'kinds', 'of', 'foods', 'for', 'asian', 'regions', 'gives', 'you', 'the', 'choice', 'of', 'try', 'different', 'things', 'every', 'single', 'day', 'recommended']</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>['its', 'a', 'satisfied', 'experience', 'staying', 'in', 'ascott', 'the', 'resedence', 'the', 'behaviour', 'of', 'the', 'staff', 'are', 'really', 'careful', 'and', 'respectful', 'especially', 'mohammed', 'monir', 'uddingro', 'is', 'the', 'very', 'good', 'personi', 'come', 'back', 'again', 'in', 'this', 'hitel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>['it', 'had', 'been', 'a', 'good', 'stay', 'the', 'staff', 'were', 'hospitable', 'including', 'housekeeping', 'mr', 'harun', 'and', 'he', 'had', 'made', 'my', 'stay', 'comfortable', 'everything', 'was', 'good', 'there', 'the', 'food', 'which', 'had', 'come', 'to', 'my', 'room', 'and', 'all', 'the', 'services', 'was', 'great']</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>['i', 'am', 'satisfied', 'experience', 'in', 'staying', 'in', 'ascott', 'the', 'residence', 'mr', 'md', 'ruhul', 'amin', 'the', 'dinner', 'and', 'breakfast', 'orders', 'are', 'customizing', 'as', 'per', 'my', 'requirements', 'and', 'mr', 'harun', 'the', 'housekeeping', 'person', 'is', 'done', 'a', 'good', 'job', 'while', 'cleaning']</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>['i', 'spent', 'days', 'here', 'on', 'businessi', 'must', 'say', 'that', 'everything', 'was', 'excellentthe', 'room', 'is', 'very', 'comfortable', 'good', 'services', 'good', 'house', 'keeping', 'thanks', 'for', 'mrharun', 'he', 'did', 'the', 'good', 'job', 'i', 'would', 'recommend', 'this', 'hotel', 'to', 'other', 'having', 'a', 'business', 'trip']</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>['i', 'stayed', 'this', 'hotel', 'for', 'couple', 'of', 'days', 'for', 'business', 'tour', 'their', 'services', 'were', 'good', 'specially', 'their', 'support', 'staff', 'behavior', 'they', 'always', 'tries', 'to', 'meet', 'the', 'user', 'expectation', 'as', 'an', 'example', 'i', 'requested', 'for', 'customize', 'dinner', 'in', 'couple', 'days', 'they', 'tried', 'to', 'manage', 'the', 'foods', 'accordingly']</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>['it', 'a', 'satisfied', 'experience', 'staying', 'in', 'ascott', 'the', 'residence', 'the', 'behaviour', 'of', 'the', 'staffs', 'are', 'really', 'cheerful', 'respectful', 'the', 'environment', 'is', 'safe', 'and', 'sound', 'happy', 'to', 'be', 'a', 'part', 'of', 'it', 'hope', 'we', 'will', 'meet', 'again', 'best', 'wishes']</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>['it', 'was', 'a', 'great', 'experience', 'the', 'place', 'was', 'so', 'good', 'as', 'well', 'as', 'the', 'foodservicewe', 'are', 'highly', 'pleased', 'with', 'the', 'behaviour', 'of', 'stuffs', 'and', 'their', 'services', 'specially', 'sonia', 'tuhin', 'and', 'mahmudul', 'they', 'are', 'so', 'good', 'at', 'their', 'services', 'we', 'highly', 'recommended', 'ascott', 'the', 'residence']</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>['overall', 'service', 'is', 'so', 'so', 'but', 'hotel', 'view', 'isnt', 'that', 'much', 'fascinating', 'even', 'the', 'hotel', 'doesnt', 'have', 'a', 'proper', 'gate', 'to', 'recognize', 'from', 'outside', 'service', 'people', 'are', 'cooperative', 'as', 'well', 'as', 'their', 'restaurant', 'peoples', 'thats', 'a', 'positive', 'side']</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>['truly', 'appreciate', 'your', 'team', 'support', 'service', 'hospitality', 'got', 'during', 'my', 'time', 'in', 'ascott', 'the', 'residence', 'i', 'believe', 'everyone', 'will', 'feel', 'same', 'comfort', 'here', 'or', 'even', 'better', 'you', 'guys', 'are', 'amazing', 'good', 'luck']</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>['in', 'i', 'stayed', 'six', 'months', 'in', 'ascott', 'residence', 'in', 'dhaka', 'under', 'covid', 'crisis', 'mrnayeen', 'and', 'his', 'team', 'garantied', 'all', 'guests', 'helth', 'security', 'permanently', 'h', 'meanwhile', 'i', 'could', 'stay', 'safe', 'and', 'feel', 'protected', 'from', 'any', 'risk', 'during', 'my', 'stay', 'in', 'your', 'hotel', 'moreover', 'i', 'recognised', 'that', 'it', 'is', 'quiet', 'difficult', 'to', 'keep', 'service', 'level', 'under', 'such', 'a', 'sensitive', 'situation', 'that', 'is', 'reason', 'why', 'i', 'really', 'appreciated', 'your', 'efforts', 'and', 'professional', 'attitude', 'in', 'service', 'under', 'such', 'a', 'situation', 'off', 'course', 'i', 'sould', 'not', 'forget', 'to', 'menton', 'meal', 'quality', 'of', 'break', 'fast', 'lunch', 'and', 'dinner', 'in', 'ground', 'floor', 'thank', 'you', 'very', 'much', 'for', 'your', 'efforts', 'good', 'luck', 'for', 'the', 'future']</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>['after', 'about', 'years', 'not', 'coming', 'to', 'dhaka', 'this', 'year', 'during', 'covid', 'pandemic', 'i', 'need', 'come', 'over', 'to', 'dhaka', 'again', 'for', 'work', 'this', 'year', 'prior', 'go', 'to', 'location', 'need', 'to', 'have', 'x', 'negative', 'covid', 'test', 'ascott', 'residence', 'have', 'good', 'staff', 'all', 'of', 'them', 'are', 'kindly', 'to', 'help', 'you', 'you', 'room', 'cleaning', 'everyday', 'mr', 'rupon', 'das', 'such', 'a', 'kind', 'staff', 'room', 'boy', 'that', 'clean', 'my', 'room', 'perfectly', 'good', 'and', 'recommended', 'hotel', 'to', 'stay', 'one', 'more', 'you', 'will', 'get', 'good', 'food', 'during', 'your', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>['i', 'have', 'stayed', 'ascott', 'from', 'june', 'to', 'july', 'all', 'of', 'staffs', 'are', 'cheerful', 'and', 'cooperative', 'to', 'our', 'work', 'i', 'really', 'feel', 'gratitude', 'for', 'them', 'and', 'this', 'first', 'trip', 'to', 'dhaka', 'should', 'be', 'great', 'memory', 'namu', 'shinnyo']</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>['i', 'stayed', 'about', 'days', 'in', 'ascott', 'residence', 'hotel', 'facility', 'is', 'a', 'little', 'old', 'however', 'house', 'keeping', 'is', 'very', 'good', 'so', 'i', 'could', 'stay', 'comfortably', 'especially', 'my', 'room', 'service', 'staff', 'mr', 'suicongon', 'and', 'mr', 'ahumdol', 'are', 'very', 'kind', 'service', 'for', 'me', 'thank', 'you', 'very', 'much']</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>['its', 'great', 'service', 'from', 'hotel', 'the', 'staff', 'are', 'friendly', 'and', 'always', 'care', 'about', 'me', 'if', 'i', 'have', 'any', 'problems', 'thank', 'you', 'mrrupon', 'das', 'for', 'taking', 'good', 'care', 'of', 'everything', 'i', 'am', 'very', 'impressed', 'and', 'will', 'stay', 'again']</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>['i', 'stay', 'here', 'in', 'asscott', 'the', 'residence', 'dhaka', 'for', 'five', 'days', 'i', 'have', 'found', 'there', 'hospitality', 'and', 'food', 'was', 'good', 'staff', 'were', 'very', 'cooperative', 'and', 'helpfull', 'i', 'am', 'satisfied', 'about', 'there', 'behaviour', 'overall', 'services', 'was', 'good', 'thanks', 'to', 'ruhul', 'sonia', 'rupom', 'for', 'your', 'care']</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>['really', 'a', 'pleasure', 'stay', 'in', 'this', 'hotel', 'while', 'all', 'the', 'staff', 'guided', 'and', 'followed', 'by', 'strick', 'covid', 'protocol', 'during', 'my', 'day', 'stay', 'in', 'this', 'hotel', 'have', 'found', 'all', 'the', 'staff', 'from', 'dining', 'to', 'housekeeping', 'are', 'so', 'much', 'engaged', 'to', 'served', 'with', 'best', 'to', 'his', 'guest', 'i', 'have', 'meet', 'mr', 'rupon', 'das', 'as', 'housekeeping', 'staff', 'and', 'really', 'amazed', 'to', 'his', 'nice', 'and', 'polite', 'behaviour', 'with', 'all', 'his', 'experience', 'and', 'dealing', 'with', 'his', 'guest', 'food', 'was', 'really', 'good', 'and', 'during', 'covid', 'all', 'food', 'served', 'in', 'individual', 'room', 'with', 'maintaining', 'high', 'level', 'of', 'sanitizing', 'food', 'price', 'need', 'to', 'review', 'as', 'some', 'of', 'the', 'item', 'looks', 'so', 'expensive', 'considering', 'the', 'item', 'itself', 'happy', 'staying']</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>['this', 'is', 'the', 'nd', 'business', 'trip', 'in', 'dhaka', 'japanese', 'feel', 'anxious', 'about', 'traveling', 'to', 'dhaka', 'at', 'first', 'because', 'dhaka', 'and', 'bangladesh', 'are', 'not', 'very', 'familiar', 'due', 'to', 'their', 'long', 'distance', 'but', 'this', 'hotel', 'provides', 'great', 'hospitality', 'and', 'satisfies', 'many', 'japanese', 'the', 'room', 'is', 'kept', 'clean', 'every', 'day', 'by', 'nice', 'house', 'keepingroom', 'attendant', 'including', 'harun', 'who', 'is', 'in', 'charge', 'of', 'my', 'room', 'this', 'time', 'hot', 'shower', 'and', 'bathe', 'can', 'be', 'enjoyed', 'every', 'day', 'which', 'is', 'beneficial', 'for', 'japanese', 'as', 'well', 'the', 'restaurant', 'food', 'is', 'also', 'good', 'though', 'the', 'limited', 'kinds', 'of', 'dishes', 'in', 'breakfast', 'and', 'uneven', 'taste', 'sometimes', 'disappoint', 'me', 'however', 'tania', 'a', 'nice', 'cooker', 'in', 'the', 'restaurant', 'cooks', 'very', 'well', 'and', 'her', 'soup', 'is', 'excellent', 'for', 'most', 'japanese']</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>['this', 'is', 'the', 'rd', 'visit', 'in', 'ascott', 'the', 'residence', 'dhaka', 'ive', 'received', 'daily', 'service', 'from', 'mr', 'rupon', 'one', 'of', 'the', 'housekeeper', 'in', 'this', 'hotel', 'he', 'accepts', 'all', 'my', 'requests', 'and', 'very', 'eager', 'to', 'give', 'me', 'hospitalities', 'every', 'day']</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>['this', 'hotel', 'is', 'cleaned', 'up', 'my', 'housekeeping', 'person', 'mr', 'rupon', 'das', 'is', 'always', 'cleaning', 'my', 'room', 'every', 'day', 'very', 'hard', 'so', 'that', 'i', 'lead', 'comfortable', 'business', 'travel', 'days', 'here']</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>['good', 'place', 'to', 'stay', 'with', 'very', 'supportive', 'and', 'decent', 'service', 'team', 'comfortable', 'arrangement', 'and', 'restaurant', 'service', 'special', 'thanks', 'to', 'tuhin', 'ruhul', 'and', 'tasfia', 'for', 'your', 'warm', 'hospitality', 'appreciate', 'your', 'efforts']</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>['sonia', 'and', 'her', 'team', 'is', 'excellent', 'sumsouzzaman', 'dewan', 'is', 'best', 'person', 'i', 'got', 'nice', 'attitude', 'and', 'services', 'from', 'them', 'hotel', 'is', 'a', 'good', 'one', 'food', 'and', 'other', 'services', 'are', 'ok', 'food', 'service', 'at', 'room', 'is', 'neat', 'and', 'clean']</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>['it', 'was', 'really', 'nice', 'hotel', 'in', 'dhaka', 'especially', 'its', 'room', 'service', 'and', 'house', 'keeping', 'the', 'taste', 'of', 'the', 'meals', 'were', 'good', 'but', 'it', 'took', 'to', 'minutes', 'for', 'the', 'room', 'service', 'mr', 'rupon', 'was', 'really', 'helpful', 'for', 'keep', 'the', 'room', 'clean', 'during', 'my', 'stay', 'in', 'the', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>['during', 'my', 'stay', 'at', 'hotel', 'ascott', 'residence', 'from', 'june', 'i', 'found', 'housekeeping', 'assistant', 'mr', 'rupon', 'das', 'helpful', 'enthusiastic', 'for', 'delivering', 'world', 'class', 'service', 'im', 'wishing', 'good', 'luck', 'for', 'this', 'smart', 'guy', 'so', 'that', 'he', 'will', 'continue', 'delivering', 'his', 'best', 'saifullah', 'limon', 'chevron', 'bangladesh']</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>['place', 'is', 'very', 'cool', 'and', 'calm', 'they', 'improved', 'their', 'food', 'quality', 'especially', 'for', 'bangladeshi', 'people', 'for', 'their', 'more', 'improvement', 'they', 'should', 'change', 'their', 'room', 'furniture', 'furniture', 'are', 'old', 'fashioned', 'and', 'looked', 'dirty', 'their', 'room', 'service', 'is', 'very', 'good', 'especially', 'mahamudul', 'hasan', 'was', 'very', 'professional', 'and', 'decent', 'hope', 'their', 'future', 'success']</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>['its', 'good', 'services', 'from', 'the', 'hotel', 'they', 'improved', 'their', 'service', 'from', 'past', 'specially', 'room', 'service', 'by', 'rupon', 'das', 'a', 'very', 'helpful', 'and', 'coordial', 'person', 'to', 'serve', 'ascott', 'improves', 'its', 'food', 'quality', 'also', 'this', 'time', 'i', 'am', 'very', 'much', 'happy', 'to', 'stay', 'here']</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>['the', 'staff', 'are', 'friendly', 'and', 'always', 'care', 'about', 'me', 'if', 'i', 'have', 'any', 'problems', 'in', 'fact', 'when', 'i', 'told', 'the', 'receptionist', 'that', 'i', 'wanted', 'to', 'use', 'the', 'microwave', 'oven', 'in', 'the', 'room', 'they', 'came', 'to', 'set', 'it', 'up', 'later', 'that', 'day', 'life', 'in', 'bangladesh', 'is', 'difficult', 'for', 'japanese', 'people', 'but', 'the', 'hospitality', 'delicious', 'bengali', 'meals', 'and', 'hot', 'baths', 'make', 'it', 'a', 'good', 'place', 'to', 'relax', 'for', 'a', 'long', 'stay', 'there', 'is', 'also', 'a', 'small', 'supermarket', 'on', 'the', 'road', 'next', 'to', 'one', 'and', 'japanese', 'cup', 'ramen', 'and', 'pocari', 'sweat', 'are', 'also', 'available', 'so', 'you', 'may', 'feel', 'safe', 'when', 'you', 'are', 'homesick', 'thank', 'you', 'very', 'much', 'to', 'mr', 'rupon', 'who', 'works', 'like', 'my', 'concierge']</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>['for', 'business', 'i', 'have', 'stayed', 'here', 'months', 'all', 'staff', 'is', 'too', 'much', 'kindness', 'and', 'try', 'to', 'their', 'best', 'for', 'us', 'staying', 'comfortable', 'especially', 'mrrupon', 'das', 'housekeeping', 'staff', 'and', 'mrmorra', 'and', 'mssonia', 'restaurant', 'staff', 'thanks', 'for', 'about', 'helping', 'my', 'some', 'troubles', 'and', 'working', 'hard', 'allah', 'hafis']</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>['i', 'stayed', 'in', 'this', 'hotel', 'days', 'during', 'my', 'mandatory', 'institutional', 'quarantine', 'period', 'everybody', 'was', 'very', 'helpful', 'friendly', 'and', 'professional', 'it', 'is', 'hard', 'balance', 'these', 'especially', 'sonia', 'in', 'the', 'restaurant', 'make', 'feel', 'like', 'special', 'guest', 'and', 'all', 'kitchen', 'staff', 'tried', 'to', 'do', 'their', 'best', 'to', 'accommodate', 'my', 'needs', 'definitely', 'will', 'come', 'back']</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>['i', 'have', 'stayed', 'at', 'this', 'hotel', 'for', 'over', 'a', 'month', 'it', 'was', 'so', 'comfortable', 'that', 'i', 'didnt', 'want', 'to', 'leave', 'during', 'my', 'stay', 'i', 'was', 'lonely', 'on', 'my', 'birthday', 'but', 'the', 'hotel', 'staff', 'seemed', 'to', 'be', 'aware', 'of', 'it', 'so', 'i', 'received', 'a', 'surprise', 'present', 'with', 'a', 'cake', 'i', 'was', 'very', 'happy', 'with', 'their', 'concern', 'all', 'the', 'staff', 'are', 'kind', 'friendly', 'and', 'polite', 'thanks', 'to', 'that', 'i', 'had', 'a', 'very', 'good', 'time', 'they', 'responded', 'promptly', 'and', 'politely', 'in', 'the', 'event', 'of', 'some', 'trouble', 'such', 'as', 'the', 'noise', 'of', 'neighbors', 'or', 'the', 'lack', 'of', 'internet', 'access', 'and', 'all', 'the', 'food', 'in', 'the', 'restaurant', 'is', 'delicious', 'especially', 'the', 'shrimp', 'dopiaza', 'is', 'the', 'best', 'if', 'you', 'ask', 'for', 'breakfast', 'it', 'will', 'brew', 'a', 'very', 'delicious', 'cappuccino', 'this', 'hotel', 'is', 'just', 'like', 'my', 'hometown', 'in', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>['hotel', 'staff', 'facility', 'are', 'good', 'i', 'enjoyed', 'my', 'stay', 'decent', 'hygienic', 'and', 'covid', 'safety', 'measures', 'in', 'place', 'i', 'stayed', 'there', 'for', 'business', 'purpose', 'overall', 'hospitality', 'was', 'great', 'the', 'location', 'of', 'the', 'hotel', 'is', 'the', 'most', 'secured', 'and', 'quiet', 'placed']</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>['hotel', 'ascott', 'the', 'residence', 'check', 'in', 'mar', 'check', 'out', 'mar', 'room', 'no', 'unparallel', 'services', 'for', 'which', 'i', 'recommend', 'ascott', 'restaurant', 'incharge', 'sonias', 'sincerity', 'efficiency', 'responsibility', 'punctuality', 'special', 'dishes', 'chef', 'kilpots', 'taki', 'fish', 'mash', 'vorta', 'excellent', 'room', 'service', 'especially', 'hasan', 'tuhin', 'bayjid', 'tanvir', 'i', 'heartily', 'remember', 'mr', 'sizar', 'who', 'was', 'very', 'amiable', 'and', 'professional', 'but', 'is', 'not', 'currently', 'working', 'with', 'this', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>['been', 'there', 'for', 'five', 'days', 'and', 'has', 'a', 'awesome', 'experience', 'regarding', 'most', 'of', 'the', 'service', 'they', 'provided', 'the', 'staffs', 'are', 'really', 'friendly', 'and', 'service', 'delay', 'is', 'minimal', 'while', 'the', 'food', 'was', 'also', 'good', 'when', 'you', 'choose', 'for', 'traditional', 'items', 'have', 'little', 'mosquito', 'issue', 'but', 'after', 'aerosol', 'spray', 'its', 'okay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>['excellent', 'service', 'and', 'covid', 'safety', 'measures', 'in', 'place', 'the', 'best', 'of', 'the', 'best', 'is', 'staffs', 'behaviors', 'professionalism', 'and', 'remarkable', 'communication', 'skill', 'i', 'stayed', 'there', 'for', 'more', 'than', 'days', 'due', 'to', 'business', 'purpose', 'and', 'found', 'cleanliness', 'timely', 'food', 'and', 'laundry', 'services', 'the', 'overall', 'hospitality', 'was', 'great', 'and', 'special', 'thanks', 'to', 'mr', 'harun', 'and', 'mrs', 'sonia', 'for', 'their', 'professionalism', 'the', 'location', 'of', 'the', 'hotel', 'is', 'the', 'most', 'secured', 'and', 'quiet', 'placed', 'in', 'the', 'busiest', 'dhaka', 'city', 'recommended']</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>['i', 'have', 'been', 'staying', 'in', 'ascott', 'the', 'residence', 'for', 'several', 'times', 'during', 'this', 'pandemic', 'situation', 'due', 'to', 'business', 'purposes', 'i', 'must', 'say', 'they', 'have', 'shown', 'thoughtfulness', 'in', 'terms', 'of', 'hospitality', 'room', 'services', 'and', 'cleanliness', 'mr', 'ceaser', 'and', 'ms', 'sonia', 'were', 'very', 'proactive', 'in', 'ensuring', 'all', 'my', 'requirements', 'during', 'my', 'stay', 'nevertheless', 'they', 'have', 'some', 'improvement', 'opportunities', 'in', 'terms', 'of', 'food', 'preparation', 'i', 'felt', 'that', 'the', 'food', 'menu', 'could', 'have', 'been', 'more', 'versatile', 'overall', 'i', 'am', 'pleased', 'with', 'their', 'service', 'and', 'hospitality', 'recommended']</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>['i', 'stayed', 'here', 'for', 'couple', 'of', 'days', 'n', 'the', 'service', 'was', 'quite', 'impressive', 'hospitalityfoodprompt', 'response', 'to', 'any', 'problemcordiality', 'everything', 'was', 'so', 'amazing', 'that', 'i', 'started', 'feeling', 'at', 'home', 'i', 'must', 'mention', 'about', 'mrnobel', 'from', 'restaurant', 'team', 'mrreaz', 'from', 'reception', 'team', 'who', 'were', 'too', 'supportive', 'thoroughout', 'my', 'stay', 'here', 'as', 'i', 'got', 'sick', 'during', 'my', 'post', 'covid', 'duty', 'isolation', 'periodthey', 'managed', 'drugs', 'immediately', 'for', 'me', 'adjusted', 'menu', 'according', 'to', 'my', 'taste', 'the', 'hotel', 'is', 'clean', 'offers', 'a', 'good', 'view', 'also']</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>['excellent', 'service', 'and', 'all', 'staff', 'are', 'very', 'much', 'cordial', 'especially', 'front', 'desk', 'officer', 'mr', 'mahfuz', 'he', 'was', 'very', 'good', 'person', 'and', 'friendly', 'personally', 'i', 'think', 'i', 'like', 'him', 'very', 'much', 'also', 'best', 'service', 'provider', 'in', 'this', 'hotel', 'highly', 'recommended', 'to', 'visit', 'ascott', 'hotel', 'if', 'you', 'are', 'in', 'short', 'trip', 'or', 'business', 'work', 'good', 'environment', 'nice', 'place', 'for', 'workoutspa', 'and', 'other', 'facilities', 'are', 'available', 'location', 'was', 'perfect', 'and', 'its', 'a', 'feeling', 'like', 'i', 'was', 'out', 'of', 'dhaka', 'it', 'was', 'almost', 'noise', 'free', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>['the', 'hotel', 'is', 'clean', 'and', 'provides', 'great', 'hospitality', 'the', 'front', 'desk', 'service', 'provideer', 'mrrobin', 'is', 'very', 'much', 'gentle', 'and', 'a', 'very', 'good', 'guyhis', 'behaviour', 'was', 'awasome', 'the', 'restaurant', 'and', 'room', 'service', 'provider', 'mrnobelhe', 'is', 'best', 'in', 'resturant', 'and', 'room', 'servicemrtuhin', 'and', 'a', 'womanname', 'cant', 'rememberis', 'very', 'helpful', 'the', 'housekeeping', 'and', 'room', 'cleaning', 'service', 'provider', 'boys', 'are', 'really', 'greatthey', 'always', 'fulfilled', 'our', 'dimand', 'or', 'any', 'need', 'the', 'other', 'staffs', 'specially', 'mrsohag', 'were', 'very', 'helpful', 'the', 'car', 'drivers', 'were', 'also', 'good', 'the', 'hotel', 'provided', 'me', 'almost', 'every', 'facilities', 'the', 'rooftop', 'cafeteria', 'and', 'gym', 'of', 'hotel', 'was', 'great', 'overall', 'experience', 'was', 'awesome', 'ill', 'recommend', 'this', 'hotel', 'to', 'every', 'couple', 'and', 'families']</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>['i', 'left', 'ascott', 'the', 'residencedhaka', 'yesterdayi', 'stayed', 'there', 'for', 'weeks', 'for', 'my', 'covid', 'duties', 'in', 'bsmmurooms', 'were', 'well', 'decorated', 'cleanhouse', 'keeping', 'service', 'was', 'good', 'especially', 'i', 'would', 'like', 'to', 'mention', 'tania', 'she', 'was', 'very', 'helpfulrestaurent', 'service', 'was', 'okall', 'were', 'very', 'helpful', 'for', 'us', 'especially', 'mrnobel', 'of', 'restaurant', 'all', 'services', 'were', 'satisfactory', 'but', 'one', 'thing', 'i', 'must', 'mention', 'that', 'food', 'seletionmenu', 'was', 'not', 'so', 'goodit', 'should', 'be', 'more', 'tasty', 'especially', 'the', 'vegetables', 'with', 'onion', 'was', 'undercookedfried', 'rice', 'was', 'tasty', 'but', 'the', 'vegetable', 'curry', 'chicken', 'curry', 'was', 'not', 'good', 'rather', 'fried', 'chicken', 'was', 'gooddesserts', 'were', 'tasty', 'especially', 'pudding', 'payesi', 'enjoyed', 'all', 'security', 'service', 'was', 'excellent', 'i', 'enjoyed', 'my', 'quarantine', 'period', 'happilythanks', 'for', 'your', 'hospitalitywish', 'u', 'all', 'the', 'best']</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>['located', 'just', 'near', 'the', 'us', 'embassiperfect', 'location', 'the', 'hotel', 'is', 'clean', 'and', 'provides', 'u', 'great', 'hospitality', 'the', 'restaurant', 'and', 'room', 'service', 'provider', 'mrnobel', 'is', 'very', 'helpful', 'and', 'will', 'guide', 'u', 'throughout', 'your', 'stay', 'the', 'staffs', 'were', 'very', 'helpful', 'the', 'hotel', 'provides', 'u', 'almost', 'every', 'facilities', 'the', 'rooftop', 'cafeteria', 'and', 'gym', 'of', 'hotel', 'was', 'greati', 'mean', 'it', 'overall', 'experience', 'was', 'awesome', 'ill', 'recommend', 'this', 'hotel', 'to', 'every', 'couple', 'and', 'families', 'you', 'wont', 'regretjust', 'be', 'there']</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>['tomorrow', 'i', 'will', 'leave', 'this', 'hotel', 'i', 'have', 'stayed', 'here', 'for', 'weeks', 'i', 'am', 'fully', 'satisfied', 'with', 'their', 'services', 'all', 'the', 'staffs', 'are', 'very', 'cooperative', 'foods', 'are', 'tasty', 'room', 'is', 'well', 'decorated', 'and', 'clean', 'among', 'all', 'the', 'staffs', 'i', 'specially', 'want', 'to', 'mention', 'mr', 'hasan', 'mr', 'surongon', 'of', 'housekeeping', 'department', 'and', 'mr', 'nobel', 'of', 'restaurant', 'they', 'know', 'their', 'jobs', 'best', 'i', 'wish', 'to', 'visit', 'here', 'again']</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>['location', 'of', 'this', 'hotel', 'at', 'diplomatic', 'area', 'very', 'calm', 'and', 'quiet', 'region', 'of', 'dhaka', 'they', 'have', 'well', 'mannered', 'and', 'well', 'behaved', 'staff', 'all', 'are', 'sincere', 'and', 'responsible', 'to', 'service', 'room', 'are', 'well', 'equipped', 'and', 'modern', 'facilities', 'present', 'food', 'are', 'also', 'food']</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>['excellent', 'service', 'highly', 'recommended', 'if', 'you', 'are', 'in', 'short', 'trip', 'or', 'business', 'work', 'good', 'environment', 'love', 'the', 'foods', 'nice', 'place', 'for', 'workout', 'and', 'guess', 'what', 'spa', 'and', 'other', 'facilities', 'the', 'surrounding', 'security', 'is', 'also', 'fantastic']</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>['service', 'and', 'food', 'is', 'satisfactoryfood', 'was', 'goodhouse', 'keeping', 'was', 'timely', 'and', 'satisfactorythere', 'was', 'complementary', 'laundry', 'each', 'day', 'hotel', 'room', 'was', 'beautiful', 'and', 'comfortable', 'alsothere', 'is', 'a', 'beautiful', 'roof', 'top', 'location', 'was', 'perfect', 'and', 'its', 'a', 'feeling', 'like', 'i', 'was', 'out', 'of', 'dhaka', 'it', 'was', 'almost', 'noise', 'freebut', 'gym', 'need', 'a', 'bit', 'maintainanceall', 'service', 'men', 'were', 'friendlyover', 'all', 'i', 'am', 'satisfied', 'and', 'recommend', 'it', 'for', 'visitors']</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>['we', 'visited', 'the', 'hotel', 'to', 'stay', 'away', 'from', 'our', 'family', 'during', 'covid', 'duty', 'the', 'service', 'here', 'is', 'excellent', 'all', 'the', 'staffs', 'are', 'very', 'much', 'cooperativeamong', 'them', 'i', 'can', 'name', 'mr', 'mahfuz', 'mr', 'motin', 'mr', 'mahmudul', 'and', 'the', 'food', 'was', 'excellent', 'if', 'u', 'have', 'any', 'discomfort', 'u', 'have', 'to', 'just', 'ask', 'the', 'authorities', 'and', 'ur', 'wish', 'is', 'granted', 'moreover', 'they', 'served', 'a', 'birthday', 'cake', 'for', 'one', 'of', 'our', 'colleague', 'during', 'our', 'stay', 'and', 'it', 'was', 'complimentary', 'i', 'wish', 'this', 'hotel', 'all', 'the', 'best', 'and', 'surely', 'recommend', 'it', 'to', 'u', 'all']</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>['all', 'staff', 'are', 'very', 'much', 'cordial', 'epeially', 'tania', 'and', 'novelfoods', 'are', 'are', 'so', 'much', 'delicious', 'and', 'desert', 'are', 'awesom', 'especial', 'thanks', 'for', 'for', 'my', 'birthday', 'cake', 'which', 'are', 'so', 'much', 'testythey', 'maintain', 'proper', 'hygiene', 'in', 'that', 'pandemic']</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>['i', 'was', 'visited', 'for', 'business', 'purposeswhen', 'i', 'entered', 'the', 'hotel', 'i', 'looked', 'staffs', 'of', 'this', 'hotel', 'are', 'all', 'friendlythe', 'front', 'desk', 'officers', 'are', 'very', 'accommodating', 'and', 'so', 'kind', 'basically', 'mrmahfuz', 'was', 'excellent', 'security', 'and', 'bell', 'boy', 'are', 'also', 'good', 'the', 'restaurant', 'staff', 'are', 'all', 'very', 'pleasant', 'and', 'friendlyfood', 'was', 'excellentwhen', 'i', 'free', 'i', 'will', 'visit', 'this', 'place', 'again']</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>['the', 'location', 'was', 'great', 'for', 'my', 'offices', 'the', 'rooms', 'are', 'very', 'clean', 'and', 'functional', 'i', 'loved', 'the', 'different', 'teas', 'the', 'staff', 'were', 'superb', 'especially', 'sarowar', 'on', 'the', 'door', 'who', 'was', 'like', 'my', 'brother', 'during', 'my', 'stay', 'the', 'restaurant', 'has', 'something', 'different', 'everyday', 'and', 'the', 'chef', 'offered', 'to', 'prepare', 'british', 'food', 'if', 'i', 'was', 'homesick']</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>['the', 'staff', 'of', 'this', 'hotel', 'are', 'all', 'courteous', 'and', 'friendly', 'the', 'front', 'desk', 'officers', 'are', 'very', 'accommodating', 'and', 'they', 'remember', 'you', 'by', 'name', 'and', 'your', 'your', 'needs', 'the', 'restaurant', 'staff', 'are', 'all', 'very', 'pleasant', 'and', 'friendly', 'especially', 'sonia', 'and', 'gloria']</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>['writing', 'this', 'during', 'the', 'pandemic', 'not', 'sure', 'when', 'i', 'can', 'visit', 'the', 'hotel', 'again', 'we', 'stayed', 'in', 'mid', 'march', 'and', 'i', 'wanted', 'to', 'say', 'a', 'word', 'of', 'appreciation', 'for', 'farhad', 'in', 'the', 'front', 'desk', 'who', 'used', 'to', 'give', 'us', 'travel', 'tips', 'hope', 'i', 'can', 'stay', 'in', 'the', 'hotel', 'sometime', 'in', 'the', 'future']</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>['the', 'staff', 'of', 'this', 'hotel', 'are', 'all', 'courteous', 'and', 'friendly', 'the', 'front', 'desk', 'officers', 'are', 'very', 'accommodating', 'and', 'they', 'remember', 'you', 'by', 'name', 'and', 'your', 'your', 'needs', 'the', 'restaurant', 'staff', 'are', 'all', 'very', 'pleasant', 'and', 'friendly', 'especially', 'sonia', 'and', 'gloria']</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>['sonia', 'in', 'the', 'resturant', 'was', 'very', 'kind', 'and', 'cheerful', 'she', 'made', 'the', 'breakfast', 'more', 'enjoyable', 'her', 'enthusiasm', 'and', 'professionalism', 'to', 'serve', 'and', 'guests', 'make', 'guests', 'comfortable', 'etc', 'were', 'manifest', 'each', 'time', 'i', 'visited', 'the', 'restaurant', 'it', 'made', 'me', 'welcomed', 'and', 'gave', 'the', 'place', 'a', 'more', 'familiar', 'and', 'my', 'place', 'kind', 'of', 'feeling', 'the', 'guest', 'room', 'had', 'a', 'strange', 'lowfrequency', 'humming', 'noise', 'in', 'some', 'locations', 'but', 'not', 'the', 'other', 'for', 'example', 'youd', 'notice', 'that', 'hum', 'on', 'one', 'side', 'of', 'the', 'bed', 'but', 'if', 'you', 'move', 'the', 'head', 'to', 'the', 'other', 'edge', 'of', 'the', 'bed', 'it', 'becomes', 'almost', 'inaudible', 'it', 'was', 'the', 'loudest', 'where', 'id', 'sit', 'and', 'work', 'on', 'pc', 'at', 'the', 'desk', 'it', 'persisted', 'when', 'ac', 'was', 'off', 'and', 'sometimes', 'it', 'stopped', 'and', 'restarted', 'no', 'idea', 'two', 'other', 'problems', 'the', 'bath', 'room', 'has', 'a', 'mechanical', 'ventilation', 'fan', 'installed', 'in', 'a', 'small']</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>['spending', 'time', 'at', 'ascott', 'restaurant', 'is', 'amazing', 'especially', 'when', 'tuhin', 'masud', 'sonia', 'and', 'harun', 'are', 'around', 'my', 'mind', 'still', 'reflects', 'their', 'big', 'smiles', 'and', 'treat', 'would', 'love', 'to', 'come', 'to', 'the', 'hotel', 'and', 'enjoy', 'the', 'services', 'again', 'and', 'again', 'you', 'all', 'keep', 'up', 'a', 'good', 'job']</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>['the', 'ascott', 'is', 'very', 'good', 'and', 'clean', 'the', 'restaurant', 'has', 'an', 'extesnive', 'menu', 'and', 'bashir', 'and', 'sonia', 'will', 'look', 'after', 'you', 'well', 'also', 'sarowar', 'on', 'the', 'door', 'will', 'become', 'your', 'good', 'friend', 'highly', 'recommended', 'the', 'ascott', 'is', 'a', 'home', 'from', 'home']</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>['this', 'hotel', 'is', 'located', 'in', 'embassy', 'area', 'and', 'is', 'more', 'safer', 'for', 'foreigners', 'and', 'hospitality', 'is', 'pretty', 'awesome', 'especially', 'ms', 'gloria', 'mr', 'bashar', 'at', 'the', 'restaurent', 'was', 'so', 'co', 'operative', 'along', 'with', 'the', 'other', 'staff', 'thanks', 'to', 'ascott', 'team', 'for', 'a', 'comfortable', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>['after', 'my', 'trip', 'in', 'bangladesh', 'working', 'as', 'a', 'nursing', 'instructor', 'in', 'tangail', 'this', 'space', 'was', 'the', 'perfect', 'place', 'for', 'me', 'to', 'replenish', 'my', 'self', 'i', 'liked', 'the', 'massage', 'i', 'got', 'especially', 'and', 'the', 'food', 'and', 'the', 'service', 'in', 'the', 'restaurant', 'were', 'impeccable', 'i', 'highly', 'recommend', 'btw', 'i', 'am', 'so', 'delayed', 'to', 'write', 'this', 'i', 'was', 'there', 'last', 'winter', 'in', 'and', 'i', 'am', 'finally', 'sitting', 'down', 'to', 'write', 'my', 'review', 'sorry', 'sonya', 'for', 'the', 'delay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>['the', 'hotel', 'was', 'booked', 'through', 'my', 'admin', 'team', 'i', 'find', 'it', 'nice', 'and', 'the', 'hospitality', 'is', 'so', 'nice', 'so', 'like', 'to', 'address', 'from', 'the', 'airport', 'starting', 'at', 'early', 'morning', 'am', 'till', 'now', 'the', 'service', 'is', 'outstanding', 'the', 'way', 'they', 'treat', 'people', 'with', 'a', 'big', 'smile', 'and', 'take', 'care', 'of', 'you', 'where', 'you', 'dont', 'feel', 'you', 'are', 'in', 'a', 'hotel', 'few', 'days', 'missed', 'breakfast', 'but', 'its', 'was', 'nice', 'experience', 'with', 'dinner', 'overall', 'the', 'food', 'experience', 'was', 'great', 'naming', 'few', 'by', 'name', 'gloria', 'the', 'smart', 'breakfast', 'person', 'bhasar', 'and', 'the', 'whole', 'team', 'working', 'on', 'was', 'great', 'tuhin', 'smile', 'makes', 'my', 'day', 'more', 'enjoyable', 'the', 'missing', 'part', 'is', 'the', 'spa', 'and', 'the', 'gym', 'my', 'bad', 'luck', 'both', 'are', 'under', 'maintenance']</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>['locates', 'in', 'a', 'very', 'safe', 'zone', 'of', 'the', 'city', 'room', 'is', 'big', 'highquality', 'towels', 'good', 'hospitality', 'of', 'staffs', 'average', 'breakfast', 'beware', 'of', 'mosquito', 'not', 'just', 'in', 'the', 'hotel', 'room', 'but', 'in', 'general', 'of', 'dhaka', 'city']</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>['the', 'room', 'rate', 'is', 'bit', 'pricy', 'as', 'there', 'is', 'no', 'room', 'for', 'selection', 'around', 'the', 'town', 'since', 'the', 'terror', 'attack', 'i', 'was', 'not', 'satisfied', 'with', 'the', 'associates', 'naming', 'customer', 'with', 'such', 'a', 'loud', 'voice', 'form', 'morning', 'till', 'late', 'since', 'they', 'were', 'trained', 'in', 'that', 'way', 'but', 'i', 'would', 'request', 'to', 'the', 'hotel', 'managers', 'to', 'ask', 'him', 'her', 'not', 'calling', 'my', 'name', 'all', 'the', 'time', 'in', 'the', 'public', 'room', 'is', 'pricy', 'and', 'the', 'facility', 'shall', 'be', 'updated', 'particularly', 'the', 'health', 'gtym']</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>['me', 'and', 'my', 'wife', 'recently', 'stayed', 'at', 'ascott', 'the', 'residence', 'for', 'a', 'longer', 'period', 'and', 'were', 'nothing', 'else', 'but', 'very', 'pleased', 'an', 'incredibly', 'friendly', 'staff', 'all', 'the', 'way', 'from', 'general', 'manager', 'to', 'housekeepers', 'we', 'always', 'felt', 'at', 'home', 'the', 'restaurants', 'provided', 'great', 'food', 'for', 'dinner', 'as', 'well', 'as', 'an', 'excellent', 'breakfast', 'that', 'was', 'even', 'further', 'improved', 'our', 'last', 'week', 'there', 'and', 'we', 'were', 'always', 'happy', 'to', 'have', 'a', 'chat', 'with', 'the', 'staff', 'while', 'we', 'were', 'there', 'we', 'can', 'not', 'other', 'than', 'warmly', 'recommend', 'everyone', 'to', 'come', 'here']</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>['i', 'stayed', 'at', 'ascott', 'residence', 'for', 'three', 'months', 'for', 'my', 'business', 'trip', 'it', 'was', 'my', 'first', 'time', 'in', 'bangladesh', 'but', 'the', 'staff', 'at', 'ascott', 'residence', 'did', 'everything', 'they', 'could', 'to', 'make', 'me', 'feel', 'welcome', 'the', 'hospitality', 'of', 'this', 'hotel', 'is', 'amazing', 'special', 'thanks', 'to', 'the', 'staff', 'at', 'the', 'restaurants', 'and', 'the', 'concierge', 'who', 'greeted', 'us', 'and', 'talked', 'to', 'us', 'everyday', 'would', 'come', 'back', 'again']</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>['every', 'person', 'is', 'so', 'kind', 'and', 'special', 'for', 'guest', 'in', 'my', 'staying', 'there', 'were', 'not', 'any', 'problems', 'just', 'one', 'point', 'id', 'like', 'to', 'request', 'to', 'install', 'baralcohol', 'service', 'and', 'if', 'we', 'can', 'have', 'a', 'pool', 'it', 'be', 'perfect']</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>['the', 'environment', 'is', 'very', 'great', 'and', 'the', 'staffs', 'are', 'very', 'friendly', 'located', 'in', 'peaceful', 'environment', 'the', 'hospitality', 'is', 'at', 'its', 'par', 'lovely', 'place', 'for', 'short', 'or', 'even', 'long', 'trip', 'will', 'recommend', 'to', 'choose', 'ascott', 'for', 'your', 'visit']</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>['placed', 'in', 'a', 'very', 'safe', 'and', 'secured', 'zone', 'friendly', 'enough', 'with', 'professionalism', 'the', 'accommodation', 'the', 'food', 'the', 'amenities', 'are', 'simply', 'great', 'most', 'importantly', 'the', 'service', 'we', 'have', 'been', 'provided', 'is', 'good', 'enough']</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>['very', 'nice', 'hotel', 'with', 'comfortable', 'rooms', 'and', 'facilities', 'very', 'clean', 'and', 'hygienic', 'good', 'food', 'and', 'especially', 'great', 'coffee', 'great', 'for', 'business', 'travel', 'in', 'a', 'safe', 'part', 'of', 'dhaka', 'the', 'staff', 'are', 'outstanding', 'in', 'all', 'areas']</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>['there', 'food', 'service', 'was', 'great', 'the', 'atmosphere', 'was', 'too', 'good', 'specially', 'rooftopbehavior', 'of', 'all', 'the', 'staff', 'is', 'excellent', 'overall', 'the', 'service', 'was', 'great', 'we', 'are', 'satisfied', 'with', 'their', 'service', 'a', 'good', 'experience', 'with', 'them']</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>['this', 'accommodation', 'is', 'placed', 'in', 'safety', 'area', 'and', 'suitable', 'for', 'business', 'trip', 'for', 'foreigners', 'every', 'facilities', 'are', 'clean', 'and', 'neat', 'and', 'clerks', 'are', 'so', 'kind', 'if', 'you', 'come', 'to', 'bangladesh', 'i', 'recommend', 'you', 'to', 'stay', 'here']</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>['ascott', 'is', 'the', 'hotel', 'i', 'very', 'often', 'stay', 'when', 'i', 'come', 'to', 'dhaka', 'it', 'is', 'located', 'in', 'a', 'safe', 'district', 'and', 'the', 'service', 'provided', 'by', 'hotel', 'staff', 'is', 'comfortable', 'they', 'were', 'kind', 'enough', 'to', 'support', 'anything', 'she', 'needed', 'when', 'my', 'friend', 'injured', 'her', 'leg']</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>['i', 'spent', 'nine', 'consecutive', 'working', 'days', 'at', 'the', 'hotel', 'as', 'part', 'of', 'a', 'work', 'commitment', 'the', 'hotel', 'is', 'located', 'in', 'the', 'oasis', 'of', 'the', 'leafy', 'diplomatic', 'district', 'i', 'was', 'not', 'an', 'inhouse', 'guest', 'but', 'i', 'used', 'the', 'hotel', 'facilities', 'and', 'had', 'a', 'delicious', 'lunch', 'there', 'every', 'daythe', 'team', 'does', 'a', 'wonderful', 'job', 'in', 'making', 'guests', 'feel', 'welcome', 'including', 'remembering', 'names', 'and', 'how', 'you', 'like', 'your', 'coffee', 'and', 'the', 'food', 'in', 'the', 'restaurant', 'was', 'always', 'fresh', 'and', 'tasty', 'all', 'the', 'staff', 'i', 'met', 'were', 'great', 'but', 'sonia', 'was', 'a', 'standout', 'thank', 'you', 'for', 'a', 'memorable', 'experience']</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>['i', 'stayed', 'one', 'night', 'at', 'ascott', 'on', 'my', 'way', 'to', 'berlin', 'to', 'attend', 'a', 'theater', 'festival', 'as', 'a', 'guest', 'of', 'the', 'goethe', 'institute', 'and', 'i', 'was', 'pleasantly', 'surprised', 'to', 'discover', 'this', 'nice', 'little', 'hotel', 'offering', 'top', 'quality', 'service', 'and', 'amenities', 'strongly', 'recommend', 'for', 'others', 'and', 'wish', 'the', 'owner', 'and', 'management', 'of', 'this', 'classy', 'hotel', 'good', 'luck']</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>['having', 'completed', 'a', 'successful', 'training', 'sessionthe', 'environment', 'is', 'good', 'enough', 'the', 'service', 'alsothey', 'are', 'so', 'humblemost', 'importantly', 'their', 'staffs', 'have', 'made', 'my', 'program', 'incrediblemr', 'tuhin', 'mrs', 'farzana', 'contributed', 'a', 'lot', 'to', 'carry', 'out', 'our', 'training', 'conveniently', 'in', 'an', 'efficient', 'waythey', 'r', 'very', 'fast', 'at', 'service', 'as', 'well', 'as', 'polite', 'alsotheir', 'service', 'have', 'made', 'me', 'feel', 'honouredthey', 'have', 'served', 'to', 'all', 'our', 'trainee', 'timely', 'and', 'ensured', 'the', 'best', 'servicethey', 'have', 'always', 'handled', 'all', 'the', 'tiny', 'problems', 'patiently', 'gave', 'us', 'a', 'no', 'problem', 'vibesmoreover', 'it', 'was', 'a', 'great', 'meeting', 'in', 'this', 'hotel', 'with', 'these', 'well', 'behavioral', 'staffshope', 'will', 'be', 'there', 'again', 'to', 'grab', 'their', 'most', 'comfortable', 'services']</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>['as', 'a', 'frequent', 'traveler', 'to', 'dhaka', 'i', 'usually', 'stay', 'at', 'ascott', 'the', 'hotel', 'is', 'comfortable', 'and', 'meets', 'most', 'of', 'my', 'needs', 'its', 'nice', 'that', 'most', 'of', 'the', 'staff', 'has', 'remembered', 'my', 'name', 'as', 'usual', 'great', 'service', 'provided', 'by', 'team', 'of', 'mr', 'jasim', 'arfan', 'delwer', 'at', 'the', 'restaurant', 'keep', 'up', 'the', 'good', 'work']</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>['i', 'stayed', 'at', 'the', 'ascott', 'for', 'several', 'days', 'in', 'may', 'super', 'friendly', 'staffalways', 'a', 'smile', 'the', 'dining', 'room', 'staff', 'are', 'extraordinarily', 'kind', 'and', 'pleasant', 'even', 'offering', 'special', 'ginger', 'tea', 'to', 'help', 'me', 'recover', 'from', 'a', 'cold', 'overall', 'clean', 'and', 'quiet', 'and', 'very', 'comfortable']</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>['very', 'clean', 'organized', 'safe', 'and', 'convenient', 'pleasure', 'to', 'stay', 'at', 'breakfast', 'and', 'coffee', 'is', 'amazing', 'and', 'staff', 'is', 'very', 'helpful', 'they', 'got', 'my', 'laundry', 'done', 'at', 'amazing', 'speed', 'will', 'definitely', 'stay', 'here', 'again', 'on', 'my', 'next', 'trip']</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>['great', 'helpful', 'staff', 'but', 'room', 'had', 'a', 'very', 'unusual', 'smell', 'bed', 'was', 'extremely', 'hard', 'i', 'think', 'that', 'these', 'can', 'be', 'improved', 'i', 'understand', 'that', 'the', 'hotel', 'is', 'relatively', 'old', 'however', 'i', 'havent', 'seen', 'any', 'mosquitoes', 'or', 'bedbugs', 'so', 'these', 'are', 'good']</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>['i', 'stayed', 'there', 'for', 'the', 'second', 'time', 'for', 'around', 'days', 'staff', 'is', 'extremely', 'nice', 'and', 'helpful', 'the', 'location', 'is', 'very', 'good', 'the', 'rooms', 'are', 'very', 'good', 'and', 'clean', 'and', 'the', 'breakfast', 'is', 'very', 'yummy', 'and', 'with', 'a', 'lot', 'of', 'variety']</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>['ascott', 'the', 'residence', 'is', 'in', 'the', 'gulshan', 'diplomatic', 'area', 'of', 'dhaka', 'in', 'a', 'quiet', 'residential', 'street', 'close', 'to', 'several', 'major', 'embassies', 'it', 'is', 'under', 'the', 'airport', 'flight', 'path', 'but', 'the', 'noise', 'was', 'not', 'too', 'bad', 'there', 'is', 'very', 'little', 'other', 'than', 'residential', 'buildings', 'within', 'walking', 'distance', 'of', 'the', 'hotel', 'apart', 'from', 'a', 'convenience', 'store', 'in', 'road', 'and', 'another', 'ascott', 'hotel', 'in', 'road', 'as', 'with', 'most', 'hotels', 'in', 'dhaka', 'there', 'are', 'security', 'guards', 'at', 'the', 'entrance', 'to', 'the', 'car', 'park', 'who', 'screen', 'your', 'bags', 'with', 'an', 'xray', 'machine', 'and', 'at', 'the', 'front', 'door', 'who', 'screen', 'you', 'with', 'a', 'metal', 'detector', 'the', 'hotel', 'is', 'quite', 'small', 'but', 'has', 'two', 'restaurants', 'a', 'gym', 'and', 'a', 'spa', 'the', 'restaurants', 'have', 'a', 'wide', 'selection', 'of', 'good', 'quality', 'local', 'asian', 'and', 'western', 'meals', 'but', 'these', 'are', 'subject', 'to', 'a', 'service', 'charge', 'and', 'vat', 'which', 'adds', 'significantly', 'to', 'the']</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>['the', 'hotel', 'is', 'placed', 'in', 'quiet', 'and', 'residential', 'area', 'of', 'dhaka', 'the', 'rooms', 'have', 'good', 'sizes', 'comfortable', 'bed', 'and', 'good', 'connectivity', 'to', 'the', 'internet', 'there', 'are', 'many', 'places', 'to', 'have', 'informal', 'meetings', 'with', 'visitors', 'and', 'a', 'terrace', 'very', 'pleasant', 'terrace', 'at', 'the', 'top', 'floor', 'the', 'staff', 'is', 'very', 'helpful', 'and', 'amiable', 'i', 'had', 'a', 'very', 'nice', 'second', 'stay', 'in', 'this', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>['all', 'the', 'services', 'of', 'the', 'clerk', 'is', 'excellent', 'the', 'room', 'is', 'always', 'clean', 'i', 'feel', 'so', 'comfortable', 'whenever', 'staying', 'there', 'the', 'location', 'is', 'in', 'the', 'most', 'safety', 'zone', 'in', 'dhaka', 'next', 'time', 'i', 'decide', 'to', 'make', 'reservation', 'again']</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>['very', 'good', 'service', 'any', 'problem', 'occurring', 'is', 'solved', 'immediately', 'in', 'the', 'suites', 'there', 'is', 'also', 'a', 'little', 'kitchen', 'with', 'micro', 'oven', 'electric', 'stove', 'and', 'different', 'utensils', 'for', 'making', 'small', 'dishes', 'all', 'channels', 'available', 'with', 'television']</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>['my', 'week', 'at', 'the', 'ascott', 'residence', 'was', 'very', 'pleasant', 'it', 'is', 'a', 'great', 'hotel', 'with', 'spacy', 'and', 'clean', 'rooms', 'friendly', 'and', 'helpful', 'staff', 'and', 'a', 'relaxing', 'rooftop', 'terrace', 'where', 'you', 'can', 'enjoy', 'great', 'coffee', 'and', 'the', 'specialities', 'of', 'the', 'japanese', 'cuisine', 'i', 'would', 'warmly', 'recommend', 'staying', 'here', 'if', 'you', 'are', 'one', 'a', 'business', 'trip', 'or', 'looking', 'for', 'a', 'more', 'quiet', 'residency', 'away', 'from', 'the', 'hectic', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>['i', 'stay', 'here', 'regularly', 'during', 'our', 'frequent', 'business', 'trips', 'we', 'enjoyed', 'dinner', 'at', 'chill', 'n', 'grill', 'rooftop', 'restaurant', 'great', 'service', 'provided', 'by', 'ms', 'farzana', 'and', 'food', 'was', 'cooked', 'very', 'nicely', 'by', 'chef', 'tania', 'keep', 'up', 'the', 'good', 'work']</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>['ive', 'stayed', 'at', 'this', 'hotel', 'or', 'its', 'sister', 'hotel', 'theee', 'times', 'now', 'the', 'service', 'is', 'wonderful', 'all', 'the', 'staff', 'are', 'so', 'friendly', 'and', 'helpful', 'the', 'place', 'is', 'very', 'clean', 'and', 'the', 'food', 'delicious', 'and', 'does', 'not', 'make', 'a', 'uk', 'tummy', 'ill', 'it', 'has', 'a', 'superb', 'coffee', 'shop', 'also', 'which', 'do', 'good', 'coffee', 'and', 'i', 'admit', 'im', 'a', 'dreadful', 'coffee', 'snob', 'i', 'highly', 'recommend', 'it']</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>['the', 'ascott', 'residence', 'was', 'a', 'wonderful', 'place', 'for', 'training', 'in', 'a', 'quiet', 'location', 'in', 'dhaka', 'with', 'excellent', 'rooms', 'wellbehaved', 'and', 'responsive', 'staff', 'variety', 'of', 'foods', 'and', 'others', 'you', 'can', 'pay', 'visit', 'over', 'there']</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>['the', 'ascott', 'residence', 'was', 'a', 'great', 'place', 'to', 'hold', 'a', 'training', 'course', 'for', 'a', 'week', 'in', 'a', 'quiet', 'location', 'in', 'dhaka', 'with', 'excellent', 'facilities', 'the', 'staff', 'could', 'not', 'have', 'been', 'more', 'helpful', 'with', 'mr', 'bashar', 'going', 'to', 'all', 'lengths', 'to', 'ensure', 'we', 'had', 'everything', 'we', 'needed', 'and', 'our', 'week', 'was', 'a', 'great', 'success', 'highly', 'recommend']</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>['stayed', 'in', 'this', 'hotel', 'for', 'two', 'nights', 'i', 'really', 'liked', 'its', 'attentive', 'service', 'fantastic', 'food', 'both', 'restaurant', 'on', 'the', 'ground', 'floor', 'and', 'chill', 'and', 'grill', 'bbq', 'terrace', 'and', 'location', 'of', 'this', 'hotel', 'i', 'will', 'definitely', 'recommend', 'this', 'amazing', 'place', 'if', 'you', 'want', 'to', 'visit', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>['thangks', 'for', 'your', 'hospitality', 'especially', 'for', 'the', 'ebullient', 'sonia', 'the', 'artistic', 'coffee', 'treats', 'from', 'ashish', 'and', 'warmhearted', 'tuhin', 'i', 'remember', 'your', 'genuine', 'smiles', 'and', 'your', 'kindness', 'i', 'enjoy', 'the', 'tranquility', 'here']</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>['stayed', 'here', 'for', 'few', 'days', 'very', 'attentive', 'service', 'daily', 'newspapersslippers', 'complimentary', 'fruit', 'airport', 'shuttle', 'the', 'restaurant', 'staff', 'remembering', 'how', 'we', 'liked', 'our', 'coffee', 'without', 'asking', 'the', 'folllowing', 'day', 'all', 'the', 'hallmarks', 'of', 'a', 'very', 'good', 'hotel', 'that', 'looks', 'after', 'its', 'clientele', 'what', 'i', 'particularly', 'liked', 'was', 'the', 'fact', 'that', 'as', 'a', 'woman', 'i', 'felt', 'safe', 'spending', 'here', 'the', 'final', 'night', 'alone', 'without', 'any', 'concerns', 'at', 'all']</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>['i', 'have', 'stayed', 'nights', 'in', 'this', 'hotel', 'everybody', 'was', 'so', 'amazing', 'and', 'the', 'staff', 'is', 'very', 'lovely', 'everything', 'is', 'very', 'standard', 'jasim', 'and', 'sayed', 'in', 'the', 'restaurant', 'were', 'really', 'great', 'people', 'and', 'served', 'beyond', 'my', 'expectations', 'the', 'food', 'was', 'amazing', 'and', 'delicious', 'and', 'i', 'enjoyed', 'it', 'the', 'hotel', 'location', 'is', 'really', 'good', 'and', 'everything', 'is', 'in', 'reasonable', 'distance', 'i', 'recommend', 'this', 'amazing', 'place', 'if', 'you', 'want', 'to', 'visit', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>['i', 'have', 'stayed', 'at', 'ascott', 'the', 'residence', 'more', 'than', 'several', 'time', 'i', 'feel', 'very', 'safe', 'and', 'comfortable', 'food', 'is', 'good', 'with', 'nice', 'variety', 'i', 'wish', 'the', 'gym', 'on', 'the', 'rooftop', 'has', 'better', 'equipment', 'and', 'more', 'room', 'with', 'open', 'view']</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>['very', 'nice', 'experience', 'stay', 'at', 'this', 'hotel', 'which', 'makes', 'you', 'feel', 'comfortable', 'secure', 'gives', 'you', 'a', 'taste', 'of', 'bangladesh', 'hospitalityi', 'really', 'liked', 'the', 'fact', 'that', 'they', 'care', 'about', 'small', 'details', 'such', 'as', 'a', 'fruit', 'platter', 'in', 'room', 'on', 'arrival', 'one', 'small', 'snickers', 'bar', 'after', 'clean', 'up', 'is', 'kept', 'in', 'the', 'roomreally', 'very', 'nice', 'business', 'hotel', 'which', 'is', 'very', 'secure', 'and', 'provides', 'excellent', 'service']</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>['we', 'stayed', 'here', 'for', 'a', 'week', 'and', 'were', 'very', 'impressed', 'with', 'the', 'extremely', 'diligent', 'service', 'and', 'the', 'kindness', 'and', 'friendliness', 'of', 'all', 'the', 'staff', 'the', 'rooms', 'are', 'very', 'comfortable', 'and', 'clean', 'and', 'we', 'appreciated', 'the', 'little', 'touches', 'such', 'as', 'mosquito', 'spraying', 'the', 'room', 'the', 'chocolates', 'and', 'the', 'newspapers', 'the', 'breakfast', 'offer', 'is', 'very', 'diverse', 'and', 'caters', 'for', 'all', 'types', 'bashar', 'and', 'sonia', 'deserve', 'special', 'praise', 'for', 'their', 'hospitality', 'and', 'excellent', 'service', 'and', 'always', 'with', 'a', 'smile', 'jacim', 'also', 'deserves', 'a', 'mention', 'for', 'his', 'allround', 'attentiveness', 'and', 'care', 'mohammed', 'ali', 'in', 'the', 'chill', 'and', 'grill', 'restaurant', 'provides', 'good', 'service']</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>['we', 'often', 'stay', 'this', 'hotel', 'and', 'bring', 'drink', 'our', 'self', 'staff', 'prepare', 'ice', 'cube', 'a', 'lot', 'at', 'st', 'floor', 'restaurant', 'ms', 'farzana', 'staff', 'is', 'very', 'kind', 'shuttle', 'bus', 'service', 'have', 'every', 'hour', 'morning', 'time', 'they', 'pick', 'up', 'and', 'send', 'airport']</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>['i', 'stayed', 'here', 'for', 'weeks', 'for', 'work', 'friendly', 'staff', 'good', 'service', 'on', 'our', 'last', 'night', 'we', 'had', 'dinner', 'at', 'roof', 'top', 'restaurant', 'great', 'service', 'was', 'provided', 'by', 'mr', 'mohammad', 'ali', 'senior', 'supervisor', 'the', 'sirloin', 'steak', 'was', 'cooked', 'to', 'perfection', 'by', 'chef', 'tania', 'i', 'would', 'recommend', 'the', 'restaurant']</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>['this', 'was', 'my', 'first', 'stay', 'at', 'ascott', 'the', 'residence', 'and', 'it', 'was', 'great', 'the', 'room', 'was', 'average', 'with', 'a', 'very', 'firm', 'not', 'soft', 'mattress', 'but', 'kept', 'spotlessly', 'clean', 'by', 'the', 'thoughtful', 'housekeeping', 'staff', 'who', 'left', 'me', 'complimentary', 'fruit', 'lined', 'up', 'my', 'shoes', 'and', 'even', 'left', 'me', 'a', 'snickers', 'bar', 'at', 'the', 'nightly', 'turndown', 'service', 'i', 'think', 'the', 'evening', 'staff', 'members', 'name', 'was', 'masmud', 'but', 'i', 'didnt', 'meet', 'the', 'daytime', 'staff', 'i', 'had', 'several', 'meals', 'in', 'the', 'restaurant', 'which', 'i', 'was', 'glad', 'to', 'see', 'has', 'many', 'vegetarian', 'options', 'and', 'the', 'breakfast', 'was', 'great', 'but', 'the', 'best', 'part', 'of', 'the', 'restaurant', 'is', 'its', 'staff', 'especially', 'jasim', 'and', 'sarya', 'who', 'remembered', 'my', 'name', 'and', 'my', 'drink', 'preferences', 'they', 'were', 'fantastic', 'and', 'warm', 'the', 'hotel', 'staff', 'overall', 'were', 'very', 'helpful', 'and', 'concerned', 'to', 'make', 'sure', 'i', 'had', 'a', 'good', 'visit', 'to', 'dhaka', 'ill', 'be', 'back']</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>['stayed', 'twice', 'in', 'this', 'hotel', 'over', 'one', 'week', 'period', 'room', 'number', 'and', 'another', 'xx', 'forgot', 'the', 'number', 'the', 'first', 'time', 'i', 'was', 'upgraded', 'to', 'the', 'luxury', 'family', 'room', 'which', 'was', 'rather', 'spacious', 'the', 'decor', 'and', 'design', 'was', 'a', 'bit', 'old', 'fashioned', 'with', 'slight', 'unpleasant', 'but', 'tolerable', 'smell', 'the', 'smaller', 'room', 'which', 'i', 'stayed', 'the', 'second', 'time', 'was', 'better', 'wifi', 'connection', 'throughout', 'the', 'stay', 'was', 'horrible', 'inside', 'my', 'room', 'constantly', 'drop', 'connection', 'after', 'minutes', 'however', 'i', 'would', 'applaud', 'the', 'staff', 'there', 'for', 'creating', 'a', 'memorable', 'experience', 'for', 'us', 'specifically', 'delwar', 'and', 'jasim', 'of', 'the', 'fb', 'service', 'delwar', 'was', 'quite', 'chatty', 'and', 'attentive', 'they', 'even', 'gave', 'us', 'a', 'surprise', 'birthday', 'celebration', 'to', 'my', 'friend', 'kudos', 'to', 'the', 'staff', 'of', 'asccott', 'the', 'residence']</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>['all', 'the', 'staff', 'of', 'managers', 'reservation', 'officers', 'receptionists', 'bell', 'staff', 'security', 'guards', 'waiterswaitresses', 'and', 'chefs', 'men', 'and', 'a', 'lady', 'of', 'the', 'restaurants', 'on', 'the', 'ground', 'and', 'top', 'floors', 'room', 'services', 'fitness', 'club', 'receptionists', 'technicians', 'and', 'drivers', 'are', 'well', 'educated', 'for', 'hospitality', 'of', 'guests', 'i', 'stayed', 'more', 'than', 'days', 'in', 'total', 'in', 'the', 'last', 'years', 'on', 'business', 'and', 'everytime', 'i', 'feel', 'happy', 'to', 'stay', 'with', 'the', 'staff', 'off', 'course', 'i', 'wiil', 'be', 'back']</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>['reasonable', 'accommodation', 'near', 'deplomatic', 'area', 'with', 'security', 'breakfast', 'was', 'ok', 'but', 'much', 'scope', 'to', 'improve', 'options', 'and', 'varieties', 'for', 'vegetarians', 'dinner', 'also', 'ok', 'no', 'public', 'transport', 'or', 'other', 'options', 'not', 'available']</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>['it', 'was', 'a', 'pleasure', 'to', 'stay', 'here', 'excellent', 'service', 'from', 'arrival', 'to', 'departure', 'staff', 'is', 'very', 'professional', 'friendly', 'and', 'helpful', 'rooms', 'are', 'very', 'clean', 'with', 'all', 'amenities', 'you', 'may', 'need', 'the', 'bed', 'was', 'kingsize', 'and', 'very', 'comfortable', 'for', 'sleep', 'wifi', 'works', 'average', 'speed', 'the', 'hotel', 'restaurant', 'had', 'a', 'small', 'buffet', 'breakfast', 'also', 'provided', 'a', 'continental', 'breakfast', 'for', 'the', 'early', 'departure', 'the', 'restaurants', 'staff', 'was', 'so', 'helpful', 'nice', 'attitude', 'they', 'offered', 'food', 'taking', 'care', 'like', 'brotherhood', 'specially', 'mr', 'jamal', 'thank', 'you', 'so', 'much', 'for', 'your', 'excellent', 'smiling', 'service', 'there', 'is', 'no', 'swimming', 'pool', 'but', 'so', 'nice', 'rooftop', 'it', 'is', 'ideal', 'hotel', 'after', 'a', 'long', 'flight', 'i', 'had', 'a', 'massage', 'before', 'departure', 'it', 'was', 'also', 'good', 'and', 'reasonably', 'priced', 'the', 'hotel', 'is', 'located', 'in', 'a', 'very', 'safe', 'secure', 'place', 'i', 'would']</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>['this', 'is', 'my', 'rd', 'dhaka', 'visit', 'with', 'same', 'hotel', 'and', 'always', 'staying', 'here', 'for', 'almost', 'days', 'ascott', 'the', 'residence', 'covers', 'all', 'the', 'basic', 'needs', 'for', 'the', 'guests', 'mostly', 'business', 'traveller', 'and', 'foreigner', 'rooms', 'are', 'very', 'clean', 'comfortable', 'the', 'best', 'part', 'of', 'this', 'hotel', 'is', 'warm', 'friendly', 'english', 'speaking', 'staffs', 'house', 'keeping', 'teams', 'are', 'really', 'excellent', 'and', 'always', 'stands', 'with', 'support', 'towards', 'your', 'needs', 'foods', 'are', 'superb', 'and', 'you', 'may', 'feel', 'extra', 'superb', 'because', 'of', 'charming', 'energetic', 'fb', 'team', 'members', 'they', 'always', 'at', 'your', 'side', 'with', 'their', 'best', 'quality', 'foods', 'all', 'members', 'of', 'fb', 'team', 'including', 'their', 'managers', 'access', 'your', 'requirements', 'and', 'serve', 'you', 'the', 'best', 'one', 'of', 'their', 'team', 'member', 'namely', 'ashis', 'is', 'simply', 'superb', 'personality', 'energetic', 'and', 'sound', 'knowledge', 'about', 'culture', 'places', 'foods', 'of', 'bangladesh']</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>['ascott', 'the', 'residence', 'is', 'the', 'older', 'of', 'the', 'two', 'this', 'group', 'operates', 'in', 'this', 'neighborhood', 'i', 'was', 'told', 'i', 'used', 'to', 'stay', 'at', 'the', 'other', 'property', 'ascott', 'palace', 'and', 'this', 'was', 'the', 'first', 'time', 'at', 'the', 'residence', 'compared', 'to', 'palace', 'the', 'lobby', 'at', 'the', 'residence', 'is', 'smaller', 'and', 'the', 'restaurant', 'darker', 'they', 'are', 'both', 'functional', 'but', 'could', 'use', 'a', 'new', 'decor', 'very', 'steep', 'ramps', 'at', 'the', 'entrance', 'and', 'between', 'the', 'lobby', 'and', 'the', 'elevator', 'level', 'should', 'be', 'improved', 'for', 'better', 'safety', 'to', 'those', 'who', 'are', 'less', 'strong', 'or', 'tired', 'from', 'long', 'flights', 'the', 'room', 'is', 'spacious', 'the', 'bed', 'is', 'hard', 'and', 'comfortable', 'large', 'work', 'desktop', 'is', 'good', 'and', 'the', 'power', 'outlets', 'are', 'in', 'the', 'right', 'place', 'i', 'had', 'a', 'problem', 'with', 'the', 'ac', 'probably', 'an', 'ancient', 'unit', 'it', 'was', 'very', 'loud', 'and', 'can', 'not', 'be', 'turned', 'low', 'on', 'wind', 'speed', 'well', 'it', 'goes', 'into', 'low', 'but']</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>['though', 'its', 'premises', 'is', 'not', 'so', 'big', 'but', 'its', 'hospitality', 'is', 'so', 'nice', 'and', 'very', 'secured', 'for', 'its', 'location', 'all', 'the', 'staffs', 'are', 'well', 'mannered', 'and', 'hotel', 'is', 'well', 'furnished', 'with', 'neat', 'and', 'clean', 'rooftop', 'is', 'green', 'with', 'bbq', 'facilities', 'after', 'all', 'that', 'we', 'love', 'it']</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>['i', 'stayed', 'there', 'for', 'days', 'for', 'a', 'workshop', 'that', 'took', 'plce', 'in', 'the', 'same', 'venue', 'both', 'my', 'stay', 'and', 'the', 'workhop', 'were', 'simply', 'excellent', 'i', 'would', 'gladly', 'return', 'to', 'this', 'amazing', 'hotel', 'my', 'highlight', 'all', 'the', 'staff', 'is', 'incredible', 'polite', 'and', 'always', 'willing', 'to', 'help']</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>['ascott', 'covers', 'all', 'the', 'basics', 'as', 'a', 'hotel', 'whose', 'guests', 'are', 'mostly', 'business', 'travelers', 'from', 'outside', 'the', 'country', 'rooms', 'are', 'nice', 'and', 'comfortable', 'decently', 'clean', 'and', 'very', 'good', 'complimentary', 'breakfast', 'the', 'best', 'part', 'of', 'ascott', 'is', 'its', 'warm', 'and', 'friendly', 'staff', 'everyone', 'speaks', 'english', 'always', 'ready', 'to', 'help', 'and', 'always', 'makes', 'me', 'feel', 'at', 'home', 'the', 'wifi', 'connection', 'is', 'a', 'bit', 'weak', 'in', 'the', 'rooms', 'other', 'than', 'that', 'i', 'always', 'enjoy', 'the', 'famous', 'bangladeshi', 'hospitality', 'i', 'receive', 'every', 'time', 'i', 'stay', 'at', 'ascott']</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>['very', 'good', 'hotel', 'with', 'excellent', 'service', 'and', 'very', 'friendly', 'staff', 'hotel', 'restaurant', 'has', 'very', 'good', 'food', 'with', 'hr', 'service', 'and', 'the', 'breakfast', 'is', 'excellent', 'rooms', 'are', 'very', 'clean', 'although', 'the', 'view', 'from', 'my', 'room', 'was', 'to', 'another', 'building', 'under', 'construction', 'the', 'spa', 'and', 'fitness', 'centre', 'is', 'small', 'and', 'dark', 'but', 'the', 'treatments', 'are', 'very', 'good', 'and', 'excellent', 'value', 'for', 'money', 'the', 'location', 'of', 'the', 'hotel', 'is', 'near', 'the', 'airport', 'and', 'in', 'a', 'very', 'secure', 'area', 'although', 'a', 'bit', 'far', 'away', 'from', 'shopping', 'centers', 'internet', 'wifi', 'is', 'free', 'and', 'of', 'very', 'high', 'quality', 'overall', 'a', 'very', 'enjoyable', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>['the', 'accommodation', 'rate', 'of', 'dhaka', 'city', 'is', 'higher', 'than', 'that', 'of', 'other', 'countries', 'this', 'hotel', 'is', 'cost', 'performance', 'good', 'also', 'this', 'hotel', 'is', 'not', 'big', 'but', 'it', 'is', 'wellbalanced', 'room', 'that', 'clean', 'and', 'wide', 'i', 'am', 'always', 'relaxed', 'thanks', 'to', 'the', 'helpful', 'and', 'friendly', 'staff']</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>['in', 'down', 'town', 'and', 'safety', 'location', 'room', 'very', 'comfortable', 'and', 'good', 'cleaning', 'service', 'restaurant', 'on', 'rooftop', 'is', 'a', 'bb', 'managed', 'by', 'mr', 'basher', 'very', 'professional', 'person', 'breakfast', 'full', 'of', 'options', 'for', 'every', 'customerincluding', 'italians']</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>['the', 'hotel', 'is', 'doing', 'its', 'best', 'to', 'keep', 'the', 'guests', 'as', 'comfortable', 'as', 'possible', 'during', 'their', 'stay', 'friendly', 'and', 'helpful', 'as', 'it', 'should', 'be', 'good', 'breakfast', 'and', 'evening', 'options', 'available', 'i', 'will', 'return', 'when', 'i', 'am', 'back', 'in', 'dhaka', 'ps', 'i', 'have', 'a', 'feeling', 'they', 'upgraded', 'their', 'internet']</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>['i', 'enjoyed', 'my', 'stay', 'at', 'ascott', 'mosahid', 'helped', 'me', 'to', 'change', 'my', 'roomenjoyed', 'kind', 'welcome', 'every', 'morning', 'at', 'the', 'dining', 'roomthank', 'you', 'for', 'your', 'smileashishiall', 'the', 'staff', 'are', 'very', 'nicethank', 'you', 'all', 'and', 'see', 'you', 'again']</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>['stayed', 'at', 'the', 'hotel', 'for', 'first', 'and', 'last', 'parts', 'of', 'a', 'trip', 'to', 'bangladesh', 'well', 'appointed', 'gracious', 'staff', 'comfortable', 'in', 'a', 'quiet', 'part', 'of', 'the', 'city', 'airport', 'pick', 'up', 'and', 'drop', 'off', 'service', 'much', 'appreciated', 'nice', 'to', 'have', 'a', 'small', 'work', 'out', 'facility', 'my', 'favorite', 'part', 'however', 'was', 'breakfast', 'delicious', 'expresso', 'graciously', 'made', 'each', 'morning', 'by', 'sonia', 'and', 'basher', 'fresh', 'yogurt', 'and', 'fruit']</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>['excellent', 'guest', 'relation', 'thanks', 'to', 'mosahid', 'for', 'taking', 'care', 'of', 'me', 'so', 'well', 'he', 'attended', 'to', 'all', 'my', 'requests', 'with', 'diligence', 'had', 'a', 'memorable', 'stay', 'food', 'was', 'good', 'room', 'service', 'was', 'excellent', 'excellent', 'internet', 'facility']</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>['it', 'is', 'a', 'small', 'place', 'with', 'good', 'servicethe', 'rooms', 'are', 'very', 'bigyou', 'dont', 'feel', 'suffocated', 'instructions', 'for', 'using', 'everything', 'are', 'very', 'clearly', 'mentionedit', 'is', 'very', 'near', 'to', 'gulshan', 'where', 'all', 'the', 'shopping', 'area', 'and', 'restaurants', 'are', 'located']</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>['though', 'one', 'of', 'the', 'reviewers', 'is', 'right', 'in', 'the', 'sense', 'that', 'the', 'property', 'is', 'a', 'bit', 'old', 'it', 'is', 'well', 'kept', 'and', 'maintained', 'and', 'the', 'service', 'staff', 'are', 'very', 'professional', 'and', 'courteous', 'every', 'level', 'of', 'assistance', 'was', 'provided', 'to', 'make', 'our', 'stay', 'more', 'comfortable', 'the', 'food', 'served', 'at', 'the', 'indining', 'facility', 'was', 'delicious', 'i', 'loved', 'it', 'the', 'area', 'is', 'a', 'quiet', 'neighborhood', 'well', 'guarded', 'as', 'most', 'embassies', 'are', 'located', 'in', 'the', 'area', 'and', 'is', 'clean', 'and', 'green', 'even', 'though', 'i', 'never', 'did', 'get', 'the', 'opportunity', 'to', 'walk', 'around', 'the', 'area', 'during', 'my', 'too', 'short', 'stay', 'i', 'would', 'recommend', 'a', 'walk', 'in', 'the', 'park', 'just', 'a', 'few', 'meters', 'away', 'just', 'for', 'the', 'quaint', 'scenery', 'it', 'provides', 'i', 'would', 'have', 'loved', 'to', 'myself', 'the', 'toilets', 'could', 'use', 'a', 'bit', 'more', 'scrubbing', 'though', 'they', 'were', 'well', 'cleaned', 'in', 'short', 'loved', 'the', 'stay', 'and', 'i', 'would', 'recommend', 'the', 'place']</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>['perfect', 'location', 'safe', 'area', 'although', 'quite', 'boring', 'excellent', 'service', 'staff', 'are', 'very', 'nice', 'and', 'food', 'at', 'the', 'restaurant', 'is', 'very', 'good', 'the', 'gym', 'could', 'be', 'improved', 'excellent', 'value', 'for', 'money', 'but', 'lets', 'not', 'forget', 'that', 'salaries', 'in', 'bangladesh', 'are', 'very', 'low']</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>['i', 'stayed', 'here', 'for', 'two', 'weeks', 'and', 'highly', 'recommend', 'the', 'hotel', 'and', 'its', 'staff', 'it', 'is', 'located', 'in', 'the', 'quiet', 'and', 'heavily', 'secured', 'diplomatic', 'zone', 'of', 'baridhara', 'not', 'far', 'from', 'the', 'airport', 'my', 'room', 'was', 'large', 'and', 'comfortably', 'furnished', 'and', 'important', 'as', 'i', 'was', 'on', 'business', 'had', 'a', 'desk', 'good', 'lighting', 'and', 'wifi', 'in', 'addition', 'to', 'the', 'generous', 'free', 'breakfast', 'offered', 'the', 'hotel', 'has', 'a', 'gym', 'and', 'inhouse', 'security', 'detail', 'but', 'for', 'me', 'the', 'standout', 'appeal', 'of', 'this', 'hotel', 'was', 'the', 'welcoming', 'and', 'attentive', 'service', 'provide', 'by', 'all', 'staff', 'security', 'entry', 'reception', 'restaurant', 'and', 'housekeeping', 'id', 'definitely', 'stay', 'here', 'again', 'if', 'i', 'return', 'to', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>['stayed', 'for', 'a', 'week', 'the', 'property', 'is', 'a', 'crammed', 'service', 'apartment', 'like', 'hotel', 'smelling', 'of', 'pesticides', 'and', 'old', 'carpet', 'rooms', 'need', 'a', 'facelift', 'desperately', 'conveniently', 'located', 'in', 'the', 'diplomatic', 'enclave', 'of', 'gulshan', 'in', 'dhaka', 'had', 'ordered', 'daal', 'fish', 'curry', 'with', 'rice', 'the', 'kitchen', 'never', 'got', 'it', 'right', 'in', 'five', 'nights', 'had', 'a', 'misadventure', 'with', 'the', 'thai', 'food', 'on', 'one', 'occasion', 'as', 'well', 'staff', 'is', 'overworked', 'but', 'still', 'cheerful', 'that', 'got', 'them', 'the', 'second', 'star']</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>['because', 'this', 'hotel', 'is', 'located', 'in', 'baridhara', 'diplomatic', 'area', 'it', 'is', 'quite', 'calm', 'and', 'safe', 'compared', 'to', 'any', 'other', 'areas', 'pickup', 'and', 'sending', 'service', 'is', 'very', 'helpful', 'all', 'staff', 'is', 'very', 'kind', 'the', 'hotel', 'has', 'a', 'great', 'selection', 'of', 'breakfast', 'of', 'course', 'the', 'breakfast', 'is', 'delicious']</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>['excellent', 'hotel', 'to', 'stay', 'its', 'located', 'at', 'baridhara', 'you', 'may', 'avoid', 'heavy', 'traffic', 'of', 'dhaka', 'if', 'you', 'have', 'work', 'on', 'diplomatic', 'zone', 'very', 'quite', 'transportation', 'is', 'not', 'that', 'available', 'hotel', 'has', 'its', 'own', 'transportation', 'food', 'is', 'average']</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>['i', 'stayed', 'at', 'this', 'hotel', 'twice', 'during', 'my', 'visits', 'at', 'bangladesh', 'and', 'although', 'it', 'is', 'in', 'a', 'good', 'a', 'safe', 'area', 'and', 'the', 'staff', 'were', 'really', 'friendly', 'and', 'accommodating', 'i', 'didnt', 'really', 'feel', 'its', 'matched', 'to', 'mark', 'each', 'time', 'we', 'stayed', 'my', 'colleague', 'and', 'i', 'both', 'had', 'to', 'change', 'rooms', 'for', 'reason', 'or', 'another', 'and', 'the', 'hotel', 'is', 'very', 'noisy', 'and', 'no', 'wine', 'so', 'if', 'you', 'want', 'an', 'alcoholic', 'beverage', 'in', 'the', 'evening', 'then', 'do', 'your', 'research', 'as', 'its', 'hard', 'to', 'find', 'in', 'bangladesh']</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>['hotels', 'staff', 'are', 'very', 'attentive', 'to', 'your', 'needs', 'and', 'polite', 'although', 'communication', 'sometimes', 'an', 'issue', 'when', 'ordering', 'food', 'the', 'room', 'is', 'small', 'but', 'clean', 'the', 'hotel', 'itself', 'is', 'a', 'small', 'hotel', 'my', 'rooms', 'windows', 'lookout', 'into', 'a', 'wall', 'of', 'another', 'building', 'no', 'swimming', 'pool', 'complimentary', 'transport', 'tofrom', 'airport', 'was', 'very', 'helpful', 'traffic', 'to', 'the', 'hotel', 'is', 'very', 'busy', 'at', 'this', 'time', 'of', 'the', 'year', 'there', 'is', 'hrs', 'room', 'service', 'but', 'with', 'limited', 'menu', 'list', 'breakfast', 'was', 'okay', 'the', 'hotel', 'is', 'good', 'for', 'short', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>['i', 'spent', 'a', 'couple', 'of', 'nights', 'in', 'this', 'hotel', 'due', 'to', 'the', 'safety', 'and', 'its', 'location', 'i', 'was', 'picked', 'up', 'by', 'the', 'complimentary', 'pick', 'up', 'service', 'in', 'the', 'dhaka', 'airport', 'and', 'was', 'taken', 'to', 'the', 'airport', 'without', 'any', 'problems', 'upon', 'arrival', 'i', 'was', 'checked', 'in', 'at', 'the', 'counter', 'and', 'there', 'were', 'no', 'issues', 'the', 'front', 'desk', 'staff', 'was', 'courteous', 'they', 'had', 'a', 'short', 'and', 'brief', 'introduction', 'of', 'the', 'amenities', 'of', 'the', 'hotel', 'and', 'told', 'me', 'of', 'the', 'hours', 'of', 'the', 'breakfast', 'buffet', 'the', 'first', 'room', 'i', 'received', 'was', 'a', 'bit', 'dim', 'and', 'and', 'sheets', 'were', 'a', 'little', 'bit', 'smelly', 'like', 'moldy', 'smell', 'other', 'than', 'that', 'the', 'room', 'was', 'clean', 'and', 'there', 'was', 'abundant', 'hot', 'water', 'for', 'the', 'shower', 'bottled', 'waters', 'and', 'an', 'invitation', 'fruit', 'plate', 'were', 'found', 'on', 'the', 'desk', 'the', 'complimentary', 'wifi', 'can', 'be', 'a', 'bit', 'spotty', 'i', 'had', 'trouble', 'connecting', 'and', 'once', 'connected', 'if', 'you', 'were']</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>['the', 'hotel', 'is', 'located', 'in', 'close', 'proximity', 'to', 'diplomatic', 'offices', 'in', 'a', 'wellguarded', 'secure', 'and', 'quiet', 'neighborhood', 'my', 'room', 'was', 'large', 'with', 'adequate', 'space', 'for', 'the', 'twin', 'beds', 'desk', 'lounge', 'chairs', 'and', 'television', 'the', 'room', 'was', 'reasonably', 'clean', 'and', 'well', 'lit', 'although', 'some', 'of', 'the', 'light', 'bulbs', 'were', 'faulty', 'the', 'restaurant', 'provides', 'above', 'average', 'choice', 'and', 'quality', 'of', 'food', 'to', 'suit', 'different', 'cultures', 'there', 'is', 'also', 'an', 'onsite', 'gym', 'the', 'reception', 'housekeeping', 'and', 'restaurant', 'staff', 'could', 'not', 'have', 'been', 'more', 'attentive', 'and', 'helpful', 'and', 'on', 'checkout', 'the', 'hotel', 'waived', 'the', 'charges', 'for', 'my', 'airport', 'shuttle', 'both', 'ways', 'which', 'similarly', 'was', 'punctual', 'and', 'easy', 'to', 'use', 'there', 'is', 'free', 'and', 'fast', 'wifi', 'in', 'the', 'rooms', 'my', 'only', 'complaint', 'was', 'that', 'the', 'bed', 'was', 'very', 'hard', 'and', 'uncomfortable', 'and', 'the', 'aircon', 'quite', 'noisy', 'i']</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>['the', 'hotel', 'is', 'tucked', 'away', 'in', 'a', 'quiet', 'and', 'guarded', 'residential', 'area', 'which', 'is', 'mostly', 'for', 'expats', 'it', 'offers', 'all', 'the', 'amenities', 'which', 'you', 'would', 'expect', 'in', 'a', 'good', 'hotel', 'and', 'an', 'exceptional', 'roof', 'top', 'restaurant', 'which', 'specialises', 'in', 'grills', 'and', 'barbecues', 'the', 'staff', 'is', 'extremely', 'helpful', 'and', 'considerate', 'the', 'gym', 'is', 'reasonably', 'equipped', 'as', 'well', 'they', 'schedule', 'free', 'airport', 'pick', 'ups', 'and', 'drops', 'and', 'have', 'a', 'shuttle', 'service', 'that', 'runs', 'at', 'regular', 'intervals']</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>['i', 'stayed', 'there', 'several', 'times', 'the', 'stuffs', 'are', 'professional', 'and', 'friendly', 'the', 'rooms', 'are', 'spacious', 'and', 'clean', 'the', 'bathroom', 'is', 'also', 'up', 'to', 'the', 'task', 'never', 'used', 'their', 'pool', 'so', 'cant', 'say', 'anything', 'about', 'that', 'overall', 'its', 'a', 'good', 'hotel', 'to', 'stay']</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>['the', 'service', 'is', 'very', 'good', 'at', 'the', 'hotel', 'its', 'also', 'very', 'neat', 'and', 'clean', 'the', 'foods', 'are', 'also', 'very', 'delicious', 'there', 'the', 'place', 'is', 'also', 'well', 'maintained', 'the', 'room', 'decoration', 'is', 'also', 'very', 'nice', 'in', 'that', 'area', 'please', 'dont', 'take', 'a', 'room', 'near', 'the', 'lift', 'as', 'it', 'may', 'disturb', 'you', 'with', 'the', 'noise']</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>['stayed', 'here', 'for', 'days', 'on', 'business', 'travel', 'hotel', 'is', 'difficult', 'to', 'locate', 'the', 'approach', 'is', 'not', 'visable', 'at', 'all', 'the', 'amenities', 'and', 'the', 'room', 'condition', 'is', 'not', 'up', 'to', 'the', 'mark', 'the', 'plug', 'points', 'were', 'not', 'functional', 'and', 'room', 'was', 'not', 'hygenic']</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>['the', 'restaurant', 'is', 'good', 'with', 'delicious', 'food', 'location', 'is', 'also', 'good', 'it', 'is', 'situated', 'in', 'diplomatic', 'zone', 'called', 'baridhara', 'of', 'dhaka', 'it', 'is', 'situated', 'in', 'a', 'very', 'convenient', 'place', 'though', 'public', 'transport', 'is', 'hard', 'to', 'hail']</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>['this', 'hotel', 'is', 'situated', 'in', 'high', 'security', 'area', 'of', 'baridhara', 'diplomatic', 'compound', 'this', 'area', 'houses', 'many', 'high', 'commissions', 'and', 'house', 'of', 'high', 'commissioners', 'as', 'a', 'result', 'area', 'is', 'but', 'secluded', 'hotel', 'is', 'very', 'good', 'a', 'very', 'modern', 'business', 'hotel', 'with', 'all', 'standard', 'amenities']</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>['the', 'rooms', 'and', 'service', 'are', 'good', 'the', 'staff', 'are', 'polite', 'and', 'courteous', 'i', 'wouldnt', 'rate', 'the', 'location', 'highly', 'as', 'it', 'is', 'in', 'the', 'middle', 'of', 'a', 'residential', 'area', 'and', 'there', 'are', 'no', 'commercial', 'establishments', 'other', 'restaurants', 'within', 'walking', 'distance', 'and', 'any', 'other', 'transport', 'except', 'bikes', 'could', 'mean', 'minutes', 'in', 'dhaka', 'traffic', 'they', 'did', 'not', 'offer', 'a', 'complimentary', 'airport', 'pickup', 'though', 'a', 'previous', 'traveller', 'claims', 'to', 'have', 'received', 'it', 'did', 'not', 'like', 'the', 'breakfast', 'here', 'at', 'all', 'the', 'gym', 'is', 'a', 'small', 'crowded', 'room', 'with', 'old', 'equipment', 'the', 'treadmill', 'seemed', 'it', 'could', 'break', 'any', 'moment']</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>['conducted', 'a', 'training', 'workshop', 'on', 'th', 'floor', 'of', 'the', 'hotel', 'the', 'training', 'room', 'is', 'very', 'basic', 'but', 'the', 'greenery', 'on', 'the', 'terrace', 'outside', 'the', 'training', 'room', 'is', 'very', 'pleasant', 'and', 'makes', 'for', 'very', 'good', 'break', 'away', 'space', 'worth', 'mentioning', 'is', 'the', 'excellent', 'service', 'provided', 'by', 'the', 'restaurant', 'manager', 'alam', 'and', 'his', 'team', 'alam', 'is', 'extremely', 'enthusiastic', 'energetic', 'proactive', 'and', 'positive', 'energy', 'person', 'i', 'am', 'a', 'vegetarian', 'and', 'enjoyed', 'the', 'non', 'spicy', 'vegetarian', 'dishes', 'they', 'served', 'on', 'special', 'request']</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>['i', 'checked', 'into', 'the', 'hotel', 'for', 'a', 'one', 'night', 'stay', 'they', 'offered', 'complimentary', 'airport', 'pick', 'up', 'and', 'drop', 'very', 'impressed', 'by', 'the', 'boutique', 'hotel', 'i', 'have', 'been', 'a', 'frequent', 'visitor', 'to', 'dhaka', 'and', 'trying', 'to', 'get', 'a', 'good', 'hotel', 'my', 'search', 'ended', 'once', 'i', 'stayed', 'here', 'they', 'have', 'another', 'hotel', 'ascott', 'palace', 'the', 'manager', 'took', 'me', 'to', 'that', 'as', 'well', 'and', 'i', 'am', 'impressed', 'by', 'the', 'quality', 'of', 'their', 'interiors', 'i', 'am', 'sure', 'to', 'be', 'back', 'in', 'the', 'hotel', 'next', 'time', 'i', 'am', 'in', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>['location', 'is', 'nice', 'as', 'it', 'is', 'close', 'to', 'airport', 'and', 'being', 'in', 'diplomatic', 'area', 'place', 'is', 'quiet', 'and', 'clean', 'however', 'every', 'location', 'of', 'my', 'clients', 'place', 'though', 'was', 'within', 'range', 'of', 'kms', 'but', 'it', 'took', 'lot', 'of', 'time', 'to', 'reach', 'due', 'to', 'heavy', 'traffic', 'which', 'doesnt', 'move', 'private', 'taxi', 'taken', 'from', 'hotel', 'is', 'very', 'costly', 'internet', 'connectivity', 'was', 'good', 'and', 'so', 'was', 'staff', 'very', 'hospitable', 'overall', 'experience', 'was', 'good']</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>['nearby', 'the', 'airport', 'minutes', 'depending', 'of', 'the', 'traffic', 'jam', 'the', 'ascott', 'hotel', 'has', 'all', 'the', 'faculty', 'that', 'you', 'need', 'for', 'a', 'short', 'stay', 'except', 'the', 'pool', 'small', 'restaurant', 'and', 'a', 'small', 'spa', 'but', 'very', 'comfortable', 'rooms', 'are', 'new', 'clean', 'and', 'enough', 'large']</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>['pro', 'very', 'friendly', 'staff', 'and', 'area', 'contra', 'totally', 'overpriced', 'rooms', 'smelly', 'room', 'very', 'smelly', 'corridor', 'room', 'for', 'sure', 'not', 'm', 'old', 'interior', 'old', 'design', 'old', 'shower', 'curtain', 'very', 'small', 'windows', 'no', 'nice', 'view', 'out', 'of', 'window', 'all', 'dark', 'design', 'rip', 'off', 'gym', 'not', 'state', 'of', 'the', 'art', 'as', 'promised', 'in', 'the', 'internet', 'broken', 'edges', 'jacuzzi', 'not', 'working', 'see', 'the', 'photo', 'lol', 'i', 'not', 'recommend', 'and', 'will', 'not', 'stay', 'again', 'apologies', 'for', 'the', 'very', 'friendly', 'staff', 'but', 'what', 'you', 'get', 'is', 'one', 'of', 'the', 'worst', 'rip', 'offs', 'in', 'history', 'i', 'do', 'not', 'expect', 'stars', 'rooms', 'the', 'price', 'of', 'usd', 'night', 'are', 'a', 'joke', 'at', 'least', 'the', 'everything', 'should', 'be', 'well', 'maintained', 'and', 'it', 'was', 'not']</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>['a', 'quaint', 'but', 'very', 'hospitable', 'hotel', 'where', 'the', 'staff', 'treat', 'you', 'like', 'family', 'if', 'it', 'werent', 'for', 'the', 'weak', 'internet', 'link', 'for', 'one', 'day', 'i', 'would', 'have', 'given', 'it', 'an', 'excellent', 'the', 'staff', 'were', 'very', 'helpful', 'and', 'even', 'gave', 'me', 'additional', 'coffee', 'and', 'fruits']</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>['this', 'is', 'a', 'very', 'good', 'hotel', 'with', 'an', 'excellent', 'location', 'in', 'road', 'baridhara', 'close', 'to', 'gulshan', 'and', 'close', 'to', 'many', 'embassies', 'and', 'the', 'gulshanbanani', 'business', 'districts', 'the', 'service', 'is', 'excellent', 'rooms', 'very', 'good', 'and', 'nice', 'meals', 'available', 'from', 'breakfast', 'to', 'dinner', 'there', 'is', 'a', 'smallish', 'conference', 'centre', 'and', 'a', 'pleasant', 'roof', 'top', 'dinner', 'area', 'next', 'to', 'the', 'spa', 'and', 'fitness', 'centre', 'which', 'are', 'both', 'very', 'good', 'my', 'only', 'concern', 'with', 'the', 'ascott', 'is', 'the', 'price', 'getting', 'just', 'a', 'little', 'expensive', 'compared', 'to', 'some', 'of', 'the', 'more', 'affordable', 'options', 'available', 'in', 'the', 'same', 'district', 'but', 'it', 'does', 'still', 'represent', 'very', 'good', 'value', 'for', 'money', 'and', 'id', 'have', 'no', 'hesitation', 'in', 'recommending', 'it', 'to', 'anyone', 'on', 'a', 'medium', 'size', 'budget', 'the', 'spa', 'is', 'also', 'getting', 'expensive', 'so', 'i', 'now', 'look', 'for', 'other', 'alternatives', 'close', 'by']</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>['i', 'was', 'on', 'a', 'business', 'trip', 'to', 'dhaka', 'and', 'decided', 'after', 'reading', 'some', 'reviews', 'to', 'book', 'into', 'the', 'ascott', 'the', 'rooms', 'are', 'spacious', 'and', 'clean', 'with', 'ample', 'closet', 'space', 'for', 'all', 'my', 'shirts', 'and', 'trousers', 'the', 'staff', 'are', 'very', 'friendly', 'and', 'can', 'not', 'do', 'enough', 'to', 'help', 'make', 'my', 'stay', 'enjoyable', 'the', 'is', 'a', 'free', 'collection', 'and', 'drop', 'off', 'available', 'which', 'saves', 'on', 'haggling', 'over', 'taxi', 'cost', 'the', 'food', 'is', 'well', 'prepared', 'and', 'having', 'paid', 'for', 'breakfast', 'not', 'limited', 'to', 'the', 'selection', 'provided', 'not', 'keen', 'on', 'curry', 'and', 'noodles', 'first', 'thing', 'all', 'in', 'all', 'a', 'very', 'enjoyable', 'stay', 'and', 'quite', 'prepared', 'to', 'go', 'back', 'on', 'my', 'next', 'trip', 'with', 'a', 'short', 'taxi', 'ride', 'or', 'paying', 'for', 'the', 'in', 'house', 'transport', 'there', 'is', 'attractions', 'local', 'would', 'not', 'suggest', 'walking', 'at', 'night', 'as', 'poorly', 'lit', 'and', 'the', 'roadspaths', 'are', 'a', 'in', 'a', 'state', 'of', 'disrepair']</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>['this', 'is', 'my', 'first', 'time', 'travel', 'to', 'dhaka', 'with', 'my', 'colleagues', 'for', 'business', 'and', 'stay', 'for', 'days', 'the', 'staffs', 'are', 'very', 'friendly', 'and', 'polite', 'the', 'hotel', 'is', 'clean', 'and', 'the', 'food', 'is', 'quite', 'good', 'the', 'customer', 'care', 'joan', 'is', 'very', 'friendly', 'and', 'helpful', 'always', 'lend', 'help', 'and', 'advise', 'us', 'about', 'places', 'to', 'visit', 'etc', 'this', 'place', 'is', 'quiet', 'just', 'the', 'construction', 'next', 'the', 'hotel', 'is', 'on', 'going', 'somehow', 'disturber', 'anyways', 'still', 'acceptable', 'as', 'you', 'will', 'not', 'staying', 'in', 'the', 'hotel', 'all', 'the', 'time', 'hopefully', 'we', 'will', 'be', 'staying', 'at', 'the', 'same', 'hotel', 'for', 'the', 'next', 'visit', 'hope', 'to', 'see', 'you', 'again', 'joan', 'peggy', 'mee', 'and', 'lily', 'will', 'miss', 'you']</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>['i', 'frequently', 'come', 'to', 'dhaka', 'for', 'business', 'and', 'stay', 'for', 'a', 'month', 'at', 'a', 'time', 'i', 'find', 'the', 'ascott', 'residence', 'staff', 'always', 'eager', 'to', 'please', 'and', 'the', 'hotel', 'is', 'kept', 'very', 'clean', 'the', 'rooms', 'have', 'everything', 'that', 'you', 'might', 'need', 'for', 'a', 'long', 'or', 'short', 'stay', 'i', 'have', 'found', 'the', 'food', 'to', 'be', 'quite', 'excellent', 'but', 'after', 'trying', 'everything', 'and', 'staying', 'for', 'long', 'periods', 'the', 'odd', 'change', 'is', 'always', 'welcome', 'joanna', 'who', 'works', 'in', 'marketing', 'has', 'many', 'great', 'suggestions', 'for', 'outside', 'restaurant', 'experiences', 'she', 'takes', 'extra', 'care', 'to', 'insure', 'that', 'every', 'customer', 'is', 'as', 'happy', 'as', 'they', 'can', 'be', 'when', 'away', 'from', 'home', 'the', 'hotel', 'is', 'located', 'in', 'the', 'diplomat', 'district', 'so', 'safety', 'never', 'feels', 'like', 'a', 'concern', 'over', 'all', 'im', 'quite', 'happy', 'and', 'plan', 'to', 'say', 'at', 'the', 'ascott', 'for', 'my', 'next', 'visit']</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>['this', 'is', 'the', 'second', 'time', 'as', 'a', 'school', 'we', 'stay', 'at', 'ascott', 'residence', 'and', 'it', 'was', 'awesome', 'we', 'realy', 'enjoyed', 'are', 'stay', 'at', 'ascott', 'your', 'staff', 'was', 'very', 'professional', 'and', 'very', 'supportive', 'only', 'the', 'tv', 'channels', 'needs', 'to', 'be', 'more', 'internationals', 'then', 'local', 'or', 'indian', 'hope', 'to', 'see', 'you', 'guys', 'again', 'thanks', 'qadeer']</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>['staff', 'is', 'very', 'cooperative', 'rooms', 'are', 'neatly', 'maintainedif', 'you', 'are', 'an', 'indian', 'then', 'even', 'they', 'arrange', 'veg', 'stuff', 'you', 'requirefrom', 'the', 'restaurant', 'purnima', 'sonia', 'faruque', 'well', 'mannered', 'they', 'take', 'care', 'of', 'you', 'on', 'personal', 'level', 'secured', 'place', 'and', 'located', 'in', 'calm', 'and', 'quite', 'areagulshan', 'commercial', 'area', 'is', 'very', 'close', 'by', 'you', 'get', 'all', 'sort', 'of', 'helpfrom', 'the', 'staffno', 'problems', 'in', 'short', 'the', 'only', 'point', 'price', 'wise', 'its', 'bit', 'costlier']</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>['i', 'was', 'here', 'for', 'days', 'business', 'trip', 'and', 'our', 'client', 'booked', 'our', 'accommodation', 'at', 'ascott', 'which', 'has', 'a', 'very', 'good', 'location', 'a', 'walking', 'distance', 'to', 'my', 'workplace', 'and', 'it', 'is', 'located', 'in', 'diplomatic', 'zone', 'area', 'so', 'its', 'safe', 'the', 'staff', 'are', 'very', 'polite', 'courteous', 'and', 'friendly', 'joanna', 'who', 'is', 'their', 'customer', 'relations', 'officer', 'is', 'also', 'very', 'friendly', 'and', 'she', 'make', 'sure', 'that', 'all', 'guests', 'are', 'comfortable', 'she', 'is', 'a', 'very', 'nice', 'lady', 'a', 'little', 'suggestion', 'the', 'breakfast', 'menu', 'is', 'always', 'the', 'same', 'imagine', 'for', 'days', 'i', 'stayed', 'at', 'the', 'hotel', 'its', 'the', 'same', 'food', 'everyday', 'put', 'a', 'bit', 'of', 'variation', 'and', 'maybe', 'every', 'week', 'change', 'the', 'menu']</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>['this', 'is', 'no', 'way', 'a', 'star', 'hotel', 'i', 'dont', 'know', 'how', 'this', 'hotel', 'has', 'been', 'given', 'star', 'i', 'changed', 'rooms', 'first', 'room', 'it', 'was', 'stinking', 'second', 'room', 'the', 'aircon', 'was', 'making', 'too', 'much', 'noise', 'hence', 'they', 'shifted', 'my', 'room', 'at', 'am', 'in', 'the', 'morning', 'very', 'bad', 'experience']</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>['stayed', 'here', 'for', 'one', 'night', 'on', 'business', 'the', 'ascott', 'is', 'an', 'international', 'serviced', 'residence', 'brand', 'from', 'singapore', 'and', 'they', 'are', 'branded', 'midhigh', 'range', 'therefore', 'i', 'certainly', 'was', 'not', 'expecting', 'the', 'very', 'basic', 'setup', 'of', 'the', 'room', 'clean', 'and', 'wellkept', 'but', 'very', 'basic', 'the', 'room', 'layout', 'is', 'what', 'you', 'would', 'expect', 'of', 'a', 'serviced', 'apartment', 'with', 'a', 'small', 'dry', 'kitchen', 'living', 'room', 'bedroom', 'and', 'bathroom', 'i', 'was', 'on', 'the', 'nd', 'floor', 'so', 'the', 'sound', 'of', 'traffic', 'and', 'people', 'walking', 'about', 'went', 'on', 'quite', 'late', 'into', 'the', 'night', 'the', 'bed', 'was', 'also', 'hard', 'and', 'the', 'bedsheets', 'were', 'basic', 'safe', 'to', 'say', 'i', 'did', 'not', 'have', 'the', 'best', 'sleep', 'i', 'did', 'not', 'have', 'time', 'to', 'eat', 'breakfast', 'at', 'the', 'hotel', 'everybody', 'in', 'bangladesh', 'is', 'very', 'friendly', 'and', 'helpful', 'so', 'it', 'was', 'nice', 'to', 'know', 'that', 'the', 'hotel', 'kept', 'to', 'this', 'standard']</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>['overall', 'i', 'can', 'say', 'that', 'my', 'stay', 'was', 'quite', 'good', 'a', 'bit', 'better', 'than', 'when', 'i', 'stayed', 'in', 'the', 'same', 'hotel', 'years', 'ago', 'it', 'has', 'all', 'the', 'basic', 'amenities', 'and', 'services', 'and', 'it', 'is', 'very', 'near', 'my', 'workplace', 'if', 'theres', 'one', 'thing', 'that', 'i', 'liked', 'the', 'best', 'its', 'the', 'shower', 'because', 'the', 'water', 'is', 'strong', 'and', 'the', 'temp', 'is', 'easy', 'to', 'control', 'the', 'staff', 'are', 'also', 'generally', 'courteous', 'warm', 'and', 'helpful', 'the', 'breakfast', 'and', 'menu', 'can', 'be', 'improved', 'though', 'the', 'selection', 'is', 'quite', 'limited', 'and', 'if', 'you', 'have', 'stayed', 'for', 'almost', 'weeks', 'you', 'will', 'surely', 'get', 'tired', 'of', 'the', 'food', 'there', 'are', 'times', 'that', 'some', 'staff', 'at', 'the', 'restaurant', 'have', 'the', 'tendency', 'to', 'be', 'a', 'bit', 'selective', 'when', 'serving', 'people', 'of', 'different', 'nationalities', 'and', 'tend', 'to', 'favor', 'one', 'over', 'the', 'other', 'there', 'are', 'no', 'other', 'restaurants', 'near', 'the', 'hotel', 'so', 'if', 'youre', 'craving', 'for', 'other']</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>['i', 'stayed', 'here', 'with', 'my', 'whole', 'family', 'for', 'three', 'nights', 'when', 'we', 'could', 'not', 'get', 'into', 'our', 'usual', 'hotel', 'in', 'gulshan', 'the', 'hotel', 'looks', 'fine', 'from', 'the', 'outside', 'but', 'inside', 'has', 'a', 'upmarket', 'feeling', 'lobby', 'i', 'was', 'staying', 'with', 'my', 'husband', 'and', 'year', 'old', 'daughter', 'and', 'had', 'a', 'bedroom', 'suite', 'the', 'bedroom', 'had', 'two', 'double', 'beds', 'and', 'was', 'very', 'big', 'and', 'beautifully', 'decorated', 'we', 'also', 'had', 'a', 'a', 'sizable', 'living', 'room', 'and', 'kitchen', 'area', 'making', 'it', 'easy', 'to', 'make', 'tea', 'for', 'the', 'whole', 'group', 'the', 'other', 'twin', 'rooms', 'were', 'all', 'decorated', 'to', 'the', 'same', 'high', 'standard', 'but', 'were', 'slightly', 'smaller', 'the', 'bedding', 'll', 'looked', 'and', 'felt', 'luxurious', 'made', 'the', 'rooms', 'look', 'good', 'and', 'the', 'beds', 'were', 'very', 'comfortable', 'the', 'walls', 'were', 'pretty', 'think', 'and', 'so', 'we', 'had', 'to', 'try', 'and', 'talk', 'quietly', 'to', 'avoid', 'being', 'heard', 'outside', 'the', 'rooms', 'were', 'very', 'quiet', 'with', 'no', 'noise']</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>['i', 'stayed', 'at', 'the', 'ascott', 'last', 'month', 'while', 'returning', 'back', 'from', 'an', 'official', 'trip', 'i', 'was', 'pleasantly', 'surprised', 'as', 'soon', 'as', 'i', 'entered', 'the', 'hotel', 'because', 'from', 'the', 'outside', 'it', 'looks', 'quite', 'a', 'small', 'place', 'but', 'it', 'very', 'well', 'equipped', 'like', 'any', 'other', 'big', 'hotel', 'the', 'rooms', 'were', 'extremely', 'spacious', 'comfortable', 'enough', 'there', 'is', 'complimentary', 'wifiwhich', 'was', 'a', 'bit', 'problematic', 'during', 'my', 'stay', 'tv', 'with', 'dth', 'facilities', 'fruit', 'baskets', 'other', 'basic', 'necessities', 'shower', 'was', 'well', 'equipped', 'good', 'enough', 'in', 'case', 'you', 'smoke', 'youd', 'have', 'to', 'ask', 'for', 'the', 'smoking', 'rooms', 'the', 'staff', 'is', 'very', 'helpful', 'very', 'polite', 'extra', 'browny', 'points', 'for', 'the', 'amazing', 'morning', 'breakfast', 'spread', 'food', 'at', 'both', 'the', 'restraunts', 'was', 'amazing', 'highly', 'recommended', 'over', 'other', 'high', 'priced', 'options', 'in', 'the', 'baridhara', 'area']</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>['the', 'hotel', 'is', 'quiet', 'and', 'clean', 'and', 'cost', 'represnets', 'value', 'for', 'money', 'i', 'had', 'basic', 'bedroom', 'which', 'was', 'a', 'reaonalbe', 'size', 'with', 'an', 'armchair', 'to', 'watch', 'tv', 'the', 'bed', 'was', 'ok', 'but', 'rather', 'hard', 'shower', 'excellent', 'if', 'you', 'dont', 'like', 'smoke', 'go', 'for', 'roons', 'starting', 'with', 'a', 'in', 'the', 'number', 'which', 'is', 'a', 'bit', 'confusing', 'as', 'they', 'are', 'on', 'the', 'th', 'floor', 'food', 'is', 'ok', 'and', 'again', 'not', 'expensive', 'for', 'a', 'hotel', 'coffee', 'could', 'be', 'better', 'and', 'no', 'alcohol', 'served', 'but', 'you', 'can', 'bring', 'take', 'in']</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>['its', 'a', 'small', 'hotel', 'but', 'it', 'do', 'have', 'almost', 'everything', 'similar', 'to', 'any', 'bigger', 'hotel', 'but', 'do', 'take', 'note', 'there', 'is', 'some', 'renovations', 'taking', 'place', 'behind', 'the', 'hotel', 'so', 'it', 'could', 'be', 'noisy', 'my', 'room', 'was', 'upgraded', 'to', 'the', 'royal', 'suite', 'which', 'is', 'extremely', 'spacious', 'with', 'a', 'kitchen', 'area', 'though', 'i', 'have', 'not', 'much', 'use', 'as', 'its', 'a', 'business', 'trip', 'the', 'hotel', 'restaurant', 'give', 'me', 'a', 'local', 'canned', 'drink', 'but', 'charged', 'me', 'a', 'imported', 'can', 'drink', 'price', 'which', 'is', 'like', 'bucks', 'sgd', 'which', 'i', 'think', 'should', 'not', 'happen']</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>['we', 'stayed', 'there', 'in', 'september', 'attending', 'a', 'friends', 'wedding', 'in', 'dhaka', 'the', 'hotel', 'is', 'located', 'in', 'an', 'upmarket', 'district', 'of', 'dhaka', 'very', 'quiet', 'green', 'and', 'close', 'to', 'the', 'airport', 'it', 'is', 'very', 'well', 'decorated', 'and', 'all', 'staff', 'speak', 'good', 'english', 'excellent', 'rooms', 'good', 'facilities', 'and', 'overall', 'we', 'had', 'a', 'very', 'pleasant', 'time', 'there', 'recommended']</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>['i', 'stayed', 'in', 'a', 'deluxe', 'roomrooms', 'are', 'very', 'clean', 'and', 'also', 'shower', 'had', 'a', 'excelent', 'water', 'fallthe', 'hotel', 'is', 'in', 'diplomatic', 'zone', 'which', 'means', 'extra', 'safetythe', 'food', 'was', 'ok', 'but', 'improve', 'the', 'room', 'serve', 'still', 'bettervery', 'noisy', 'sorroundings', 'due', 'to', 'some', 'breakage', 'of', 'near', 'by', 'buildings']</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>['having', 'stayed', 'on', 'a', 'number', 'of', 'occasions', 'and', 'found', 'everything', 'ok', 'staff', 'very', 'welcomingrooms', 'are', 'clean', 'and', 'well', 'maintained', 'a', 'problem', 'with', 'the', 'restaurant', 'in', 'that', 'my', 'order', 'took', 'over', 'mins', 'to', 'arrive', 'having', 'ordered', 'a', 'basic', 'shaslik', 'and', 'chips']</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>['my', 'nd', 'stay', 'here', 'the', 'ascott', 'is', 'very', 'near', 'thengo', 'i', 'work', 'for', 'rooms', 'are', 'no', 'frills', 'clean', 'bed', 'is', 'okay', 'food', 'is', 'average', 'competent', 'and', 'friendly', 'front', 'desk', 'staff', 'the', 'hotel', 'is', 'in', 'the', 'diplomatic', 'zone', 'which', 'means', 'there', 'are', 'no', 'commercial', 'facilities', 'close', 'by', 'traffic', 'in', 'dhaka', 'is', 'bad', 'and', 'it', 'can', 'take', 'minutes', 'to', 'get', 'somewhere', 'a', 'mile', 'away', 'by', 'car', 'theres', 'a', 'rooftop', 'restaurant', 'and', 'a', 'small', 'gym', 'on', 'te', 'premises']</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>['room', 'very', 'clean', 'with', 'all', 'the', 'amenities', 'you', 'need', 'i', 'stayed', 'in', 'a', 'deluxe', 'room', 'which', 'is', 'not', 'the', 'best', 'but', 'not', 'the', 'worst', 'shower', 'had', 'excellent', 'water', 'flow', 'and', 'hotcold', 'was', 'easily', 'adjusted', 'to', 'suit', 'preference', 'many', 'outlets', 'to', 'charge', 'devices', 'and', 'free', 'wifi', 'recommend', 'bringing', 'multiple', 'adaptors', 'bed', 'had', 'very', 'hard', 'mattress', 'but', 'sheets', 'were', 'good', 'quality', 'soft', 'and', 'comfortable', 'windows', 'were', 'not', 'sealed', 'tightly', 'and', 'therefore', 'not', 'sound', 'proof', 'which', 'allowed', 'construction', 'noise', 'to', 'come', 'through', 'room', 'beware', 'construction', 'couninues', 'all', 'night', 'lcd', 'flat', 'screen', 'tv', 'with', 'over', 'channels', 'many', 'of', 'which', 'were', 'english', 'speaking', 'or', 'subtitled', 'very', 'good', 'adjustable', 'air', 'conditioning', 'actually', 'had', 'to', 'turn', 'it', 'down', 'service', 'excellent', 'staff', 'were', 'very', 'friendly', 'and', 'accomodating', 'hotel', 'kept', 'very']</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>['small', 'hotel', 'with', 'great', 'service', 'i', 'felt', 'like', 'beeing', 'home', 'the', 'personnel', 'is', 'very', 'helpful', 'and', 'friendly', 'food', 'can', 'be', 'customized', 'since', 'im', 'not', 'fan', 'of', 'spicy', 'food', 'that', 'is', 'served', 'in', 'this', 'part', 'of', 'the', 'world', 'but', 'they', 'made', 'it', 'no', 'spicy', 'for', 'me', 'without', 'any', 'problems', 'hotel', 'is', 'placed', 'in', 'good', 'neighborhood', 'without', 'crime', 'and', 'big', 'noise', 'of', 'the', 'traffic', 'overall', 'very', 'good', 'and', 'more', 'than', 'expected']</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>['stayed', 'over', 'on', 'route', 'home', 'the', 'hotel', 'is', 'in', 'a', 'safe', 'area', 'of', 'the', 'embassies', 'on', 'arrival', 'the', 'staff', 'were', 'very', 'friendly', 'and', 'efficient', 'my', 'booking', 'was', 'dealt', 'with', 'quickly', 'on', 'arrival', 'in', 'my', 'room', 'found', 'it', 'very', 'clean', 'with', 'coffee', 'facilities', 'and', 'a', 'good', 'shower', 'after', 'hours', 'on', 'the', 'road', 'traveling', 'this', 'was', 'a', 'good', 'start']</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>['the', 'facilities', 'include', 'free', 'pickup', 'from', 'and', 'drop', 'to', 'the', 'airport', 'which', 'is', 'not', 'too', 'far', 'from', 'the', 'hotel', 'the', 'interior', 'of', 'the', 'hotel', 'is', 'nice', 'and', 'it', 'is', 'located', 'at', 'a', 'residential', 'area', 'where', 'no', 'shops', 'are', 'available', 'nearby', 'no', 'shop', 'not', 'even', 'a', 'barber', 'shop', 'is', 'inside', 'the', 'hotel', 'the', 'staff', 'members', 'are', 'wellbehaved', 'and', 'cooperative', 'but', 'despite', 'all', 'compared', 'to', 'the', 'price', 'which', 'is', 'nearly', 'us', 'for', 'a', 'room', 'per', 'night', 'including', 'vat', 'and', 'service', 'charges', 'the', 'accommodation', 'is', 'not', 'in', 'my', 'judgment', 'worth', 'the', 'money', 'at', 'all']</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>['in', 'the', 'quiet', 'and', 'safe', 'heart', 'of', 'baridhara', 'i', 'had', 'a', 'suite', 'for', 'a', 'lengthy', 'stay', 'and', 'found', 'the', 'room', 'spacious', 'although', 'the', 'bed', 'was', 'quite', 'hard', 'the', 'staff', 'were', 'pleasent', 'and', 'helpful', 'the', 'breakfast', 'was', 'more', 'than', 'adequate', 'adequate']</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>['the', 'reason', 'i', 'rate', 'it', 'poor', 'because', 'personally', 'feel', 'the', 'hotel', 'does', 'not', 'have', 'star', 'feel', 'personally', 'counter', 'several', 'unhappy', 'situation', 'however', 'fixed', 'by', 'hotels', 'management', 'i', 'felt', 'i', 'had', 'paid', 'to', 'learn', 'the', 'lesson', 'pro', 'ascott', 'the', 'residence', 'won', 'two', 'awards', 'from', 'other', 'country', 'which', 'i', 'dont', 'know', 'what', 'award', 'is', 'that', 'but', 'it', 'sound', 'great', 'room', 'equip', 'with', 'lcd', 'tv', 'with', 'more', 'than', 'tv', 'channel', 'provided', 'ml', 'water', 'each', 'day', 'from', 'room', 'cleaner', 'free', 'news', 'paper', 'for', 'each', 'day', 'fix', 'complain', 'before', 'next', 'cob', 'day', 'free', 'shuttle', 'tofrom', 'dhaka', 'airport', 'alot', 'of', 'power', 'socket', 'point', 'mini', 'fridge', 'is', 'available', 'independent', 'air', 'cond', 'unitwhich', 'you', 'can', 'adjust', 'your', 'own', 'preference', 'temperature', 'cons', 'terrible', 'internet', 'speed', 'difficulty', 'with', 'skype', 'call', 'during', 'peak', 'hour', 'dont']</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>['certainly', 'not', 'a', 'hotel', 'to', 'stay', 'at', 'if', 'you', 'are', 'an', 'antismoker', 'the', 'rooms', 'smell', 'strongly', 'of', 'stale', 'cigarette', 'smoke', 'not', 'pleasant', 'bedroom', 'comfortable', 'but', 'bathroom', 'facilities', 'not', 'good', 'i', 'was', 'very', 'disappointed', 'by', 'breakfast', 'i', 'have', 'been', 'travelling', 'a', 'lot', 'in', 'recent', 'months', 'for', 'work', 'and', 'this', 'is', 'the', 'first', 'hotel', 'i', 'can', 'think', 'of', 'where', 'breakfast', 'was', 'lacking', 'poor', 'choice', 'of', 'food', 'and', 'what', 'was', 'on', 'display', 'was', 'not', 'great', 'i', 'didnt', 'eat', 'in', 'the', 'restaurant', 'for', 'dinner', 'but', 'had', 'room', 'service', 'on', 'my', 'last', 'night', 'food', 'very', 'mediocre', 'fries', 'inedible', 'the', 'plus', 'side', 'lovely', 'staff', 'reception', 'clean', 'and', 'pleasant', 'and', 'most', 'importantly', 'i', 'felt', 'very', 'safe', 'but', 'definitely', 'not', 'my', 'choice', 'of', 'hotel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>['the', 'stay', 'is', 'ok', 'bfast', 'is', 'ok', 'airport', 'shuttle', 'is', 'provided', 'foc', 'the', 'only', 'downside', 'on', 'the', 'last', 'day', 'when', 'about', 'to', 'check', 'out', 'they', 'charge', 'me', 'for', 'room', 'for', 'which', 'i', 'already', 'paid', 'via', 'website', 'ive', 'been', 'premier', 'member', 'of', 'that', 'website', 'and', 'i', 'explain', 'everything', 'already', 'paid', 'the', 'staff', 'told', 'me', 'i', 'maybe', 'paid', 'the', 'website', 'but', 'the', 'website', 'havent', 'pay', 'to', 'the', 'hotel', 'it', 'took', 'staff', 'including', 'the', 'manager', 'to', 'check', 'and', 'minutes', 'waiting', 'finally', 'they', 'told', 'me', 'everything', 'is', 'ok']</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>['if', 'you', 'have', 'no', 'other', 'options', 'and', 'if', 'you', 'have', 'business', 'in', 'the', 'bardhara', 'district', 'then', 'this', 'is', 'a', 'good', 'place', 'to', 'stay', 'i', 'stayed', 'here', 'for', 'three', 'weeks', 'for', 'the', 'first', 'week', 'i', 'stay', 'in', 'a', 'royal', 'suite', 'on', 'the', 'th', 'floor', 'for', 'the', 'last', 'two', 'weeks', 'i', 'stayed', 'in', 'a', 'premium', 'room', 'both', 'were', 'fine', 'clean', 'and', 'wellsprayed', 'to', 'ward', 'off', 'mosquitoes', 'i', 'would', 'have', 'preferred', 'the', 'suite', 'for', 'such', 'a', 'long', 'stay', 'if', 'it', 'werent', 'so', 'dark', 'it', 'faced', 'other', 'buildings', 'so', 'the', 'view', 'was', 'terrible', 'but', 'it', 'was', 'quieter', 'the', 'premium', 'room', 'was', 'actually', 'quite', 'nice', 'it', 'faced', 'the', 'street', 'and', 'even', 'though', 'i', 'heard', 'street', 'noise', 'the', 'daylight', 'and', 'sunrise', 'were', 'lovely', 'the', 'dilemma', 'was', 'the', 'mosque', 'was', 'only', 'half', 'a', 'block', 'away', 'prayer', 'calls', 'at', 'am', 'were', 'surprising', 'at', 'first', 'but', 'then', 'you', 'get', 'used', 'to', 'it', 'like', 'all', 'other', 'things', 'about', 'dhaka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>['found', 'the', 'hotel', 'lacking', 'in', 'many', 'aspects', 'the', 'rooms', 'were', 'of', 'ok', 'size', 'but', 'had', 'mosquites', 'the', 'bathrooms', 'were', 'a', 'little', 'low', 'on', 'lighting', 'hot', 'water', 'took', 'ages', 'once', 'the', 'shower', 'was', 'turned', 'on', 'the', 'mosquito', 'spray', 'led', 'to', 'dead', 'roaches', 'turning', 'up', 'in', 'the', 'room', 'the', 'breakfast', 'was', 'pretty', 'limited', 'in', 'its', 'offering', 'the', 'best', 'part', 'of', 'the', 'hotel', 'was', 'the', 'rooftop', 'bbq', 'which', 'served', 'good', 'quality', 'food', 'though', 'a', 'tad', 'expensive']</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>['if', 'you', 'are', 'willing', 'to', 'have', 'a', 'long', 'stay', 'at', 'dhaka', 'ascott', 'is', 'the', 'right', 'place', 'the', 'staffs', 'are', 'quite', 'warm', 'rooms', 'are', 'comfortable', 'fooding', 'is', 'always', 'a', 'challange', 'as', 'they', 'have', 'very', 'limited', 'menu', 'since', 'it', 'si', 'located', 'in', 'diplomatic', 'zone', 'of', 'dhaka', 'so', 'outside', 'of', 'environment', 'looks', 'very', 'safe']</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>['a', 'very', 'poor', 'quality', 'hotel', 'with', 'claustrophobic', 'rooms', 'and', 'bad', 'toilets', 'service', 'was', 'missing', 'and', 'in', 'spite', 'of', 'a', 'high', 'charge', 'even', 'a', 'mini', 'bar', 'or', 'kitchenette', 'was', 'missing', 'food', 'was', 'very', 'costly', 'the', 'staff', 'at', 'the', 'reception', 'was', 'non', 'communicative', 'and', 'confused', 'i', 'was', 'charged', 'for', 'a', 'breakfast', 'which', 'was', 'supposed', 'to', 'be', 'complimentary']</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>['true', 'residence', 'with', 'almost', 'family', 'atmosphere', 'hotel', 'is', 'new', 'and', 'clean', 'service', 'is', 'friendly', 'and', 'social', 'diner', 'at', 'night', 'is', 'fine', 'choice', 'of', 'asian', 'a', 'la', 'carte', 'and', 'buffet', 'a', 'la', 'carte', 'takes', 'minutes', 'to', 'bring', 'first', 'dish', 'breakfast', 'is', 'warm', 'asian', 'buffet', 'lacks', 'some', 'western', 'options', 'despite', 'quite', 'area', 'thin', 'walls', 'and', 'windows', 'allow', 'for', 'some', 'disturbance', 'at', 'night', 'for', 'dhaka', 'area', 'this', 'is', 'a', 'very', 'attractive', 'alternative', 'to', 'raddisson', 'and', 'westin', 'unless', 'you', 'expect', 'not', 'less', 'than']</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>['ascott', 'the', 'residence', 'opened', 'in', 'april', 'there', 'were', 'a', 'good', 'choice', 'of', 'rooms', 'all', 'well', 'furnished', 'and', 'very', 'clean', 'rooms', 'are', 'light', 'airy', 'and', 'spacious', 'i', 'stayed', 'in', 'a', 'superior', 'double', 'the', 'only', 'downside', 'being', 'the', 'ac', 'blew', 'onto', 'the', 'bed', 'the', 'free', 'internet', 'is', 'wireless', 'the', 'food', 'in', 'the', 'restaurant', 'was', 'good', 'although', 'not', 'all', 'items', 'on', 'the', 'menu', 'are', 'available', 'the', 'staff', 'were', 'pleasant', 'but', 'not', 'really', 'on', 'the', 'ball', 'overall', 'it', 'is', 'a', 'good', 'hotel', 'i', 'would', 'definately', 'recommend', 'and', 'stay', 'there', 'again', 'with', 'pleasure']</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>